--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,25 +52,25 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Fine Aggregate</t>
+  </si>
+  <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
+    <t>Blast Furnace Slag</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
+    <t>None dropped</t>
+  </si>
+  <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>Fine Aggregate</t>
-  </si>
-  <si>
-    <t>Coarse Aggregate</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
-  </si>
-  <si>
-    <t>None dropped</t>
-  </si>
-  <si>
-    <t>Blast Furnace Slag</t>
   </si>
   <si>
     <t>Cement</t>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>7.944146025701561</v>
+        <v>7.473345026237456</v>
       </c>
       <c r="E2">
-        <v>0.7550829839298773</v>
+        <v>0.756388689055258</v>
       </c>
       <c r="F2">
-        <v>6.283708737864077</v>
+        <v>5.622089108910891</v>
       </c>
       <c r="G2">
-        <v>0.9207332610787082</v>
+        <v>0.9053539205705629</v>
       </c>
       <c r="H2">
-        <v>1.061855766104048</v>
+        <v>1.076262709200883</v>
       </c>
       <c r="I2">
-        <v>0.9188978144264325</v>
+        <v>0.8638459584165616</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -516,39 +516,39 @@
         <v>1</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>3</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>8.206101751816451</v>
+        <v>7.989230493682612</v>
       </c>
       <c r="E3">
-        <v>0.7386645545866133</v>
+        <v>0.7215948371651979</v>
       </c>
       <c r="F3">
-        <v>6.270572815533981</v>
+        <v>6.224138613861387</v>
       </c>
       <c r="G3">
-        <v>0.9510941518759924</v>
+        <v>0.9678505574683773</v>
       </c>
       <c r="H3">
-        <v>1.03876690800559</v>
+        <v>1.026754664143384</v>
       </c>
       <c r="I3">
-        <v>0.9169768835203155</v>
+        <v>0.956352146337679</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -565,31 +565,31 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>8.302338201473756</v>
+        <v>8.059866086153832</v>
       </c>
       <c r="E4">
-        <v>0.7324990283588497</v>
+        <v>0.7166501187442107</v>
       </c>
       <c r="F4">
-        <v>6.435417475728155</v>
+        <v>6.323019801980198</v>
       </c>
       <c r="G4">
-        <v>0.9622480380005595</v>
+        <v>0.9764076641389682</v>
       </c>
       <c r="H4">
-        <v>1.03009647082802</v>
+        <v>1.019718842321862</v>
       </c>
       <c r="I4">
-        <v>0.9410829336718034</v>
+        <v>0.9715454513645375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -598,80 +598,80 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>8.421164469901191</v>
+        <v>8.077812049370207</v>
       </c>
       <c r="E5">
-        <v>0.724787078001849</v>
+        <v>0.7153869097615739</v>
       </c>
       <c r="F5">
-        <v>6.242601941747574</v>
+        <v>6.283415841584159</v>
       </c>
       <c r="G5">
-        <v>0.9760201032769331</v>
+        <v>0.9785817171365641</v>
       </c>
       <c r="H5">
-        <v>1.019251333103065</v>
+        <v>1.017921426863895</v>
       </c>
       <c r="I5">
-        <v>0.9128865642738089</v>
+        <v>0.9654602185511366</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>8.314221556891985</v>
+        <v>8.061743146147455</v>
       </c>
       <c r="E6">
-        <v>0.7317327179532358</v>
+        <v>0.7165181248243288</v>
       </c>
       <c r="F6">
-        <v>6.464747572815533</v>
+        <v>6.462049504950495</v>
       </c>
       <c r="G6">
-        <v>0.9636253289707134</v>
+        <v>0.976635059451028</v>
       </c>
       <c r="H6">
-        <v>1.029018826198033</v>
+        <v>1.019531028654279</v>
       </c>
       <c r="I6">
-        <v>0.9453720188657279</v>
+        <v>0.9929076611559814</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -680,39 +680,39 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>8.444797488475329</v>
+        <v>8.114392542675864</v>
       </c>
       <c r="E7">
-        <v>0.7232402043746349</v>
+        <v>0.7128033237573957</v>
       </c>
       <c r="F7">
-        <v>6.395223300970875</v>
+        <v>6.26891089108911</v>
       </c>
       <c r="G7">
-        <v>0.978759190170666</v>
+        <v>0.9830132391544034</v>
       </c>
       <c r="H7">
-        <v>1.017076000437054</v>
+        <v>1.014245251753737</v>
       </c>
       <c r="I7">
-        <v>0.9352051406553031</v>
+        <v>0.9632315020332287</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -735,37 +735,37 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>8.382932150321462</v>
+        <v>8.241602325463726</v>
       </c>
       <c r="E8">
-        <v>0.7272803539077874</v>
+        <v>0.7037279429053074</v>
       </c>
       <c r="F8">
-        <v>6.562708737864078</v>
+        <v>6.250940594059406</v>
       </c>
       <c r="G8">
-        <v>0.9715889450163272</v>
+        <v>0.9984239923281939</v>
       </c>
       <c r="H8">
-        <v>1.022757569442056</v>
+        <v>1.001331925412093</v>
       </c>
       <c r="I8">
-        <v>0.9596973646474888</v>
+        <v>0.9604703276441479</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -773,119 +773,119 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>8.447665906162241</v>
+        <v>8.16745481641728</v>
       </c>
       <c r="E9">
-        <v>0.7230521601928062</v>
+        <v>0.7090349244312119</v>
       </c>
       <c r="F9">
-        <v>6.531766990291263</v>
+        <v>6.339524752475249</v>
       </c>
       <c r="G9">
-        <v>0.9790916422130205</v>
+        <v>0.9894414366212031</v>
       </c>
       <c r="H9">
-        <v>1.016811558245922</v>
+        <v>1.008883210085431</v>
       </c>
       <c r="I9">
-        <v>0.9551725998301973</v>
+        <v>0.9740814721395226</v>
       </c>
       <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
       <c r="M9">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>8.138727123335617</v>
+      </c>
+      <c r="E10">
+        <v>0.7110781693086237</v>
+      </c>
+      <c r="F10">
+        <v>6.513950495049505</v>
+      </c>
+      <c r="G10">
+        <v>0.9859612373972786</v>
+      </c>
+      <c r="H10">
+        <v>1.011790535775442</v>
+      </c>
+      <c r="I10">
+        <v>1.000882358757943</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>8.530689830857249</v>
-      </c>
-      <c r="E10">
-        <v>0.7175817056856664</v>
-      </c>
-      <c r="F10">
-        <v>6.544786407766991</v>
-      </c>
-      <c r="G10">
-        <v>0.9887141854901296</v>
-      </c>
-      <c r="H10">
-        <v>1.009118584380475</v>
-      </c>
-      <c r="I10">
-        <v>0.9570764936551073</v>
-      </c>
-      <c r="J10">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
       <c r="M10">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>8.487459427530748</v>
+        <v>8.095673395263194</v>
       </c>
       <c r="E11">
-        <v>0.7204368373346589</v>
+        <v>0.7141268672849108</v>
       </c>
       <c r="F11">
-        <v>6.709883495145631</v>
+        <v>6.53409900990099</v>
       </c>
       <c r="G11">
-        <v>0.9837037450848575</v>
+        <v>0.9807455192190466</v>
       </c>
       <c r="H11">
-        <v>1.013133690095995</v>
+        <v>1.016128517015738</v>
       </c>
       <c r="I11">
-        <v>0.9812194574825441</v>
+        <v>1.003978220951761</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11">
         <v>31</v>
@@ -893,72 +893,72 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>8.343683246553161</v>
+      </c>
+      <c r="E12">
+        <v>0.6963432078834415</v>
+      </c>
+      <c r="F12">
+        <v>6.294900990099011</v>
+      </c>
+      <c r="G12">
+        <v>1.010790524556976</v>
+      </c>
+      <c r="H12">
+        <v>0.9908242128611678</v>
+      </c>
+      <c r="I12">
+        <v>0.967224936067023</v>
+      </c>
+      <c r="J12">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>8.497787710962337</v>
-      </c>
-      <c r="E12">
-        <v>0.7197560295073393</v>
-      </c>
-      <c r="F12">
-        <v>6.70416504854369</v>
-      </c>
-      <c r="G12">
-        <v>0.9849008018930463</v>
-      </c>
-      <c r="H12">
-        <v>1.012176285767684</v>
-      </c>
-      <c r="I12">
-        <v>0.9803832207466219</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
       <c r="K12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13">
-        <v>8.531904485830804</v>
+        <v>8.286739041419976</v>
       </c>
       <c r="E13">
-        <v>0.7175012748612428</v>
+        <v>0.7004738749786634</v>
       </c>
       <c r="F13">
-        <v>6.778281553398057</v>
+        <v>6.487811881188119</v>
       </c>
       <c r="G13">
-        <v>0.9888549650316019</v>
+        <v>1.003892052829777</v>
       </c>
       <c r="H13">
-        <v>1.009005476369164</v>
+        <v>0.99670172401785</v>
       </c>
       <c r="I13">
-        <v>0.9912216439079656</v>
+        <v>0.9968661051010986</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -967,282 +967,282 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>8.254611656762563</v>
+      </c>
+      <c r="E14">
+        <v>0.7027918765455237</v>
+      </c>
+      <c r="F14">
+        <v>6.508207920792079</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>8.568281674546473</v>
-      </c>
-      <c r="E14">
-        <v>0.7150871790977626</v>
-      </c>
-      <c r="F14">
-        <v>6.585446601941747</v>
-      </c>
-      <c r="G14">
-        <v>0.9930711120518972</v>
-      </c>
-      <c r="H14">
-        <v>1.005610589236313</v>
-      </c>
-      <c r="I14">
-        <v>0.9630224349964365</v>
-      </c>
-      <c r="J14">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>14</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
       <c r="M14">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>8.579175471278711</v>
+        <v>8.326242167608589</v>
       </c>
       <c r="E15">
-        <v>0.7143622366729365</v>
+        <v>0.6976113688664871</v>
       </c>
       <c r="F15">
-        <v>6.801747572815533</v>
+        <v>6.49308910891089</v>
       </c>
       <c r="G15">
-        <v>0.9943337123311913</v>
+        <v>1.008677635463001</v>
       </c>
       <c r="H15">
-        <v>1.004591119442557</v>
+        <v>0.9926286745024706</v>
       </c>
       <c r="I15">
-        <v>0.9946531960144589</v>
+        <v>0.9976769623734841</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16">
-        <v>8.671035783192112</v>
+        <v>8.298202070566877</v>
       </c>
       <c r="E16">
-        <v>0.7082126368404668</v>
+        <v>0.6996446340806819</v>
       </c>
       <c r="F16">
-        <v>6.692077669902914</v>
+        <v>6.527198019801981</v>
       </c>
       <c r="G16">
-        <v>1.00498040038024</v>
+        <v>1.005280734650746</v>
       </c>
       <c r="H16">
-        <v>0.9959430791869623</v>
+        <v>0.9955218001660583</v>
       </c>
       <c r="I16">
-        <v>0.9786156235713701</v>
+        <v>1.002917869134026</v>
       </c>
       <c r="J16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>8.346080040330548</v>
+      </c>
+      <c r="E17">
+        <v>0.6961687268486161</v>
+      </c>
+      <c r="F17">
+        <v>6.518435643564356</v>
+      </c>
+      <c r="G17">
+        <v>1.011080882707916</v>
+      </c>
+      <c r="H17">
+        <v>0.990575944432564</v>
+      </c>
+      <c r="I17">
+        <v>1.001571511374061</v>
+      </c>
+      <c r="J17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>8.562781895295929</v>
-      </c>
-      <c r="E17">
-        <v>0.7154528194404639</v>
-      </c>
-      <c r="F17">
-        <v>6.983844660194175</v>
-      </c>
-      <c r="G17">
-        <v>0.9924336829729021</v>
-      </c>
-      <c r="H17">
-        <v>1.006124780807942</v>
-      </c>
-      <c r="I17">
-        <v>1.021282153941387</v>
-      </c>
-      <c r="J17">
-        <v>13</v>
-      </c>
       <c r="K17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>8.613437695371044</v>
+        <v>8.481954092526248</v>
       </c>
       <c r="E18">
-        <v>0.7120762064624899</v>
+        <v>0.6861954633231496</v>
       </c>
       <c r="F18">
-        <v>6.93935922330097</v>
+        <v>6.477920792079208</v>
       </c>
       <c r="G18">
-        <v>0.9983047331581349</v>
+        <v>1.027541263625338</v>
       </c>
       <c r="H18">
-        <v>1.001376327940017</v>
+        <v>0.9763850241070636</v>
       </c>
       <c r="I18">
-        <v>1.014776828433753</v>
+        <v>0.9953463182059518</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>8.628064567141189</v>
+        <v>8.513850460477112</v>
       </c>
       <c r="E19">
-        <v>0.7110975031008959</v>
+        <v>0.6838309032959904</v>
       </c>
       <c r="F19">
-        <v>6.83831067961165</v>
+        <v>6.430594059405941</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>1.031405330074149</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.9730205002614241</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.9880744649939377</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>8.616704791061991</v>
+        <v>8.384247173912952</v>
       </c>
       <c r="E20">
-        <v>0.711857744794008</v>
+        <v>0.6933834949352025</v>
       </c>
       <c r="F20">
-        <v>6.877757281553396</v>
+        <v>6.537405940594059</v>
       </c>
       <c r="G20">
-        <v>0.9986833923192392</v>
+        <v>1.015704617314636</v>
       </c>
       <c r="H20">
-        <v>1.001069110339717</v>
+        <v>0.986612848092999</v>
       </c>
       <c r="I20">
-        <v>1.005768471745421</v>
+        <v>1.00448633789168</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -1259,122 +1259,122 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>8.887511233316676</v>
+        <v>8.387003716854707</v>
       </c>
       <c r="E21">
-        <v>0.6934616271376979</v>
+        <v>0.6931818452255727</v>
       </c>
       <c r="F21">
-        <v>6.785902912621359</v>
+        <v>6.614287128712872</v>
       </c>
       <c r="G21">
-        <v>1.030070088622604</v>
+        <v>1.016038557063273</v>
       </c>
       <c r="H21">
-        <v>0.9751990748296921</v>
+        <v>0.9863259214560252</v>
       </c>
       <c r="I21">
-        <v>0.9923361529702732</v>
+        <v>1.016299296090694</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>8.835612326515124</v>
+        <v>8.441375034628395</v>
       </c>
       <c r="E22">
-        <v>0.6970312554512375</v>
+        <v>0.6891908655170391</v>
       </c>
       <c r="F22">
-        <v>6.874708737864077</v>
+        <v>6.660257425742574</v>
       </c>
       <c r="G22">
-        <v>1.024054961313613</v>
+        <v>1.02262533788768</v>
       </c>
       <c r="H22">
-        <v>0.9802189607074705</v>
+        <v>0.9806471709728086</v>
       </c>
       <c r="I22">
-        <v>1.005322668120498</v>
+        <v>1.023362730078849</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>8.901843788505358</v>
+        <v>8.551807013030569</v>
       </c>
       <c r="E23">
-        <v>0.6924721441138071</v>
+        <v>0.6810055213375069</v>
       </c>
       <c r="F23">
-        <v>6.791281553398059</v>
+        <v>6.532346534653466</v>
       </c>
       <c r="G23">
-        <v>1.031731243923095</v>
+        <v>1.036003553967863</v>
       </c>
       <c r="H23">
-        <v>0.9738075876994802</v>
+        <v>0.9690002745690451</v>
       </c>
       <c r="I23">
-        <v>0.9931226982193413</v>
+        <v>1.003708949399768</v>
       </c>
       <c r="J23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M23">
         <v>62</v>
@@ -1382,72 +1382,72 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>8.86796333816228</v>
+        <v>8.611864904230261</v>
       </c>
       <c r="E24">
-        <v>0.6948085936796435</v>
+        <v>0.6765093001684741</v>
       </c>
       <c r="F24">
-        <v>6.948009708737864</v>
+        <v>6.638544554455445</v>
       </c>
       <c r="G24">
-        <v>1.027804470997437</v>
+        <v>1.043279231334283</v>
       </c>
       <c r="H24">
-        <v>0.9770932827773673</v>
+        <v>0.9626026178529014</v>
       </c>
       <c r="I24">
-        <v>1.016041831713391</v>
+        <v>1.020026501188902</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L24">
         <v>22</v>
       </c>
       <c r="M24">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>9.042147640973631</v>
+        <v>8.634237907170718</v>
       </c>
       <c r="E25">
-        <v>0.682701725495426</v>
+        <v>0.6748263059143456</v>
       </c>
       <c r="F25">
-        <v>7.02152427184466</v>
+        <v>6.682059405940595</v>
       </c>
       <c r="G25">
-        <v>1.047992579402966</v>
+        <v>1.045989595415691</v>
       </c>
       <c r="H25">
-        <v>0.9600676735867529</v>
+        <v>0.9602078914619233</v>
       </c>
       <c r="I25">
-        <v>1.026792229955164</v>
+        <v>1.026712650742627</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1464,31 +1464,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>9.137430884282987</v>
+        <v>8.944535089114249</v>
       </c>
       <c r="E26">
-        <v>0.6759793175427694</v>
+        <v>0.651034151375063</v>
       </c>
       <c r="F26">
-        <v>7.158417475728156</v>
+        <v>6.948495049504951</v>
       </c>
       <c r="G26">
-        <v>1.059035988103479</v>
+        <v>1.083580362231392</v>
       </c>
       <c r="H26">
-        <v>0.9506141064973707</v>
+        <v>0.9263541214721084</v>
       </c>
       <c r="I26">
-        <v>1.04681080037368</v>
+        <v>1.067651054494781</v>
       </c>
       <c r="J26">
         <v>25</v>
@@ -1497,10 +1497,10 @@
         <v>25</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1508,110 +1508,110 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27">
-        <v>9.438178020651792</v>
+        <v>8.999280266050762</v>
       </c>
       <c r="E27">
-        <v>0.6542988281132825</v>
+        <v>0.6467493762098425</v>
       </c>
       <c r="F27">
-        <v>7.103825242718446</v>
+        <v>7.004495049504951</v>
       </c>
       <c r="G27">
-        <v>1.093892836244621</v>
+        <v>1.090212434000833</v>
       </c>
       <c r="H27">
-        <v>0.9201253347959593</v>
+        <v>0.9202573305042308</v>
       </c>
       <c r="I27">
-        <v>1.038827508071317</v>
+        <v>1.07625557369293</v>
       </c>
       <c r="J27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28">
-        <v>9.312025026657059</v>
+        <v>9.530032463348446</v>
       </c>
       <c r="E28">
-        <v>0.6634785190524803</v>
+        <v>0.6038532084817794</v>
       </c>
       <c r="F28">
-        <v>7.215533980582523</v>
+        <v>7.31509900990099</v>
       </c>
       <c r="G28">
-        <v>1.079271597261875</v>
+        <v>1.154510092009113</v>
       </c>
       <c r="H28">
-        <v>0.9330345222128293</v>
+        <v>0.8592205297675556</v>
       </c>
       <c r="I28">
-        <v>1.055163229435533</v>
+        <v>1.12398053334023</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29">
-        <v>9.705254788250247</v>
+        <v>9.729000501206446</v>
       </c>
       <c r="E29">
-        <v>0.634457056238573</v>
+        <v>0.5871390245750646</v>
       </c>
       <c r="F29">
-        <v>7.464883495145632</v>
+        <v>7.520702970297031</v>
       </c>
       <c r="G29">
-        <v>1.124847260092535</v>
+        <v>1.178613956143654</v>
       </c>
       <c r="H29">
-        <v>0.8922223091374734</v>
+        <v>0.8354379783970546</v>
       </c>
       <c r="I29">
-        <v>1.091626842489345</v>
+        <v>1.155572019491001</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1620,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1631,28 +1631,28 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30">
-        <v>9.749578061071773</v>
+        <v>9.809639569079362</v>
       </c>
       <c r="E30">
-        <v>0.6311106100381543</v>
+        <v>0.5802666437974993</v>
       </c>
       <c r="F30">
-        <v>7.505621359223302</v>
+        <v>7.343841584158416</v>
       </c>
       <c r="G30">
-        <v>1.129984364999042</v>
+        <v>1.188382927868308</v>
       </c>
       <c r="H30">
-        <v>0.8875162791122999</v>
+        <v>0.8256592928332065</v>
       </c>
       <c r="I30">
-        <v>1.097584141884813</v>
+        <v>1.128396891054556</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1661,39 +1661,39 @@
         <v>29</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>11.61294644213781</v>
+        <v>11.73053387574074</v>
       </c>
       <c r="E31">
-        <v>0.4766293446635811</v>
+        <v>0.3997903981132475</v>
       </c>
       <c r="F31">
-        <v>9.443601941747573</v>
+        <v>9.455910891089109</v>
       </c>
       <c r="G31">
-        <v>1.34595034051601</v>
+        <v>1.421088521606045</v>
       </c>
       <c r="H31">
-        <v>0.6702728424514708</v>
+        <v>0.5688603005463893</v>
       </c>
       <c r="I31">
-        <v>1.380984629713238</v>
+        <v>1.452920835685023</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1719,22 +1719,22 @@
         <v>16</v>
       </c>
       <c r="D32">
-        <v>11.62004727193232</v>
+        <v>11.8904608750789</v>
       </c>
       <c r="E32">
-        <v>0.4759891105658045</v>
+        <v>0.3833130485730705</v>
       </c>
       <c r="F32">
-        <v>9.556097087378641</v>
+        <v>9.696069306930694</v>
       </c>
       <c r="G32">
-        <v>1.346773332710755</v>
+        <v>1.440462782442065</v>
       </c>
       <c r="H32">
-        <v>0.6693724960222052</v>
+        <v>0.5454147399329554</v>
       </c>
       <c r="I32">
-        <v>1.397435351375603</v>
+        <v>1.489821687465485</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,39 +1743,39 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>11.81819848196938</v>
+        <v>11.91670181462194</v>
       </c>
       <c r="E33">
-        <v>0.4579653107650589</v>
+        <v>0.380588124515401</v>
       </c>
       <c r="F33">
-        <v>9.749485436893204</v>
+        <v>9.67378217821782</v>
       </c>
       <c r="G33">
-        <v>1.369739225987875</v>
+        <v>1.443641725393492</v>
       </c>
       <c r="H33">
-        <v>0.6440260425159716</v>
+        <v>0.5415374554215528</v>
       </c>
       <c r="I33">
-        <v>1.425715486422866</v>
+        <v>1.486397222699744</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1784,10 +1784,10 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1798,25 +1798,25 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>12.03428381144341</v>
+        <v>12.00038541955306</v>
       </c>
       <c r="E34">
-        <v>0.4379628518411354</v>
+        <v>0.3718580881892606</v>
       </c>
       <c r="F34">
-        <v>9.77552427184466</v>
+        <v>9.862831683168316</v>
       </c>
       <c r="G34">
-        <v>1.394783698916017</v>
+        <v>1.453779525742048</v>
       </c>
       <c r="H34">
-        <v>0.6158970463702976</v>
+        <v>0.5291155185473652</v>
       </c>
       <c r="I34">
-        <v>1.429523274072686</v>
+        <v>1.515445081534513</v>
       </c>
       <c r="J34">
         <v>33</v>
@@ -1825,39 +1825,39 @@
         <v>33</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>12.47720465099906</v>
+        <v>12.00136631413026</v>
       </c>
       <c r="E35">
-        <v>0.3958300518655278</v>
+        <v>0.3717553971248136</v>
       </c>
       <c r="F35">
-        <v>9.996844660194176</v>
+        <v>9.780207920792078</v>
       </c>
       <c r="G35">
-        <v>1.446118599820961</v>
+        <v>1.453898355629872</v>
       </c>
       <c r="H35">
-        <v>0.5566466625735914</v>
+        <v>0.5289693998059937</v>
       </c>
       <c r="I35">
-        <v>1.461888049339388</v>
+        <v>1.502749764577555</v>
       </c>
       <c r="J35">
         <v>34</v>
@@ -1866,39 +1866,39 @@
         <v>34</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>12.54716115650782</v>
+        <v>12.04312962844479</v>
       </c>
       <c r="E36">
-        <v>0.3890362056854432</v>
+        <v>0.3673753577297291</v>
       </c>
       <c r="F36">
-        <v>10.13149514563107</v>
+        <v>9.831188118811882</v>
       </c>
       <c r="G36">
-        <v>1.454226618133107</v>
+        <v>1.458957747403961</v>
       </c>
       <c r="H36">
-        <v>0.5470926335544224</v>
+        <v>0.5227370577126074</v>
       </c>
       <c r="I36">
-        <v>1.481578655944664</v>
+        <v>1.510582980516606</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,51 +1907,51 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>12.56356280013793</v>
+        <v>12.12067220712099</v>
       </c>
       <c r="E37">
-        <v>0.3874378584737198</v>
+        <v>0.359202519784777</v>
       </c>
       <c r="F37">
-        <v>10.06977669902913</v>
+        <v>9.891970297029703</v>
       </c>
       <c r="G37">
-        <v>1.456127582538563</v>
+        <v>1.468351596793917</v>
       </c>
       <c r="H37">
-        <v>0.5448449147749956</v>
+        <v>0.5111079563844525</v>
       </c>
       <c r="I37">
-        <v>1.472553262175124</v>
+        <v>1.519922291576973</v>
       </c>
       <c r="J37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,34 +1965,34 @@
         <v>15</v>
       </c>
       <c r="D38">
-        <v>12.55781251126012</v>
+        <v>12.21536736011547</v>
       </c>
       <c r="E38">
-        <v>0.3879984642874676</v>
+        <v>0.349150692085732</v>
       </c>
       <c r="F38">
-        <v>10.1678640776699</v>
+        <v>10.06553465346535</v>
       </c>
       <c r="G38">
-        <v>1.455461119181333</v>
+        <v>1.479823384557172</v>
       </c>
       <c r="H38">
-        <v>0.545633281786978</v>
+        <v>0.4968052473826732</v>
       </c>
       <c r="I38">
-        <v>1.486897064794859</v>
+        <v>1.546590824381703</v>
       </c>
       <c r="J38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L38">
         <v>37</v>
       </c>
       <c r="M38">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,28 +52,28 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
     <t>Fine Aggregate</t>
   </si>
   <si>
-    <t>Coarse Aggregate</t>
+    <t>None dropped</t>
+  </si>
+  <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
+    <t>Cement</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
   </si>
   <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
-  </si>
-  <si>
-    <t>None dropped</t>
-  </si>
-  <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>Cement</t>
   </si>
   <si>
     <t>Age</t>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>7.473345026237456</v>
+        <v>4.635121197533861</v>
       </c>
       <c r="E2">
-        <v>0.756388689055258</v>
+        <v>0.9062892159335042</v>
       </c>
       <c r="F2">
-        <v>5.622089108910891</v>
+        <v>3.425911486916549</v>
       </c>
       <c r="G2">
-        <v>0.9053539205705629</v>
+        <v>0.9802003136969019</v>
       </c>
       <c r="H2">
-        <v>1.076262709200883</v>
+        <v>1.004237375001222</v>
       </c>
       <c r="I2">
-        <v>0.8638459584165616</v>
+        <v>0.9618187330774214</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -524,31 +524,31 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3">
-        <v>7.989230493682612</v>
+        <v>4.706776950615579</v>
       </c>
       <c r="E3">
-        <v>0.7215948371651979</v>
+        <v>0.9033694127655574</v>
       </c>
       <c r="F3">
-        <v>6.224138613861387</v>
+        <v>3.493244147807637</v>
       </c>
       <c r="G3">
-        <v>0.9678505574683773</v>
+        <v>0.9953535294717681</v>
       </c>
       <c r="H3">
-        <v>1.026754664143384</v>
+        <v>1.00100201103865</v>
       </c>
       <c r="I3">
-        <v>0.956352146337679</v>
+        <v>0.9807222613326964</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -565,31 +565,28 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>8.059866086153832</v>
+        <v>4.728748943215638</v>
       </c>
       <c r="E4">
-        <v>0.7166501187442107</v>
+        <v>0.9024651327405546</v>
       </c>
       <c r="F4">
-        <v>6.323019801980198</v>
+        <v>3.561909712399812</v>
       </c>
       <c r="G4">
-        <v>0.9764076641389682</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.019718842321862</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.9715454513645375</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -598,121 +595,121 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>8.077812049370207</v>
+        <v>4.753902314633015</v>
       </c>
       <c r="E5">
-        <v>0.7153869097615739</v>
+        <v>0.9014247494574548</v>
       </c>
       <c r="F5">
-        <v>6.283415841584159</v>
+        <v>3.604472698019801</v>
       </c>
       <c r="G5">
-        <v>0.9785817171365641</v>
+        <v>1.005319244417377</v>
       </c>
       <c r="H5">
-        <v>1.017921426863895</v>
+        <v>0.9988471762006578</v>
       </c>
       <c r="I5">
-        <v>0.9654602185511366</v>
+        <v>1.011949484702495</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>4.788641302815035</v>
+      </c>
+      <c r="E6">
+        <v>0.8999788146868695</v>
+      </c>
+      <c r="F6">
+        <v>3.610205787364451</v>
+      </c>
+      <c r="G6">
+        <v>1.012665582444449</v>
+      </c>
+      <c r="H6">
+        <v>0.9972449705107888</v>
+      </c>
+      <c r="I6">
+        <v>1.013559039634416</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
         <v>16</v>
-      </c>
-      <c r="D6">
-        <v>8.061743146147455</v>
-      </c>
-      <c r="E6">
-        <v>0.7165181248243288</v>
-      </c>
-      <c r="F6">
-        <v>6.462049504950495</v>
-      </c>
-      <c r="G6">
-        <v>0.976635059451028</v>
-      </c>
-      <c r="H6">
-        <v>1.019531028654279</v>
-      </c>
-      <c r="I6">
-        <v>0.9929076611559814</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>8.114392542675864</v>
+        <v>4.840698912261244</v>
       </c>
       <c r="E7">
-        <v>0.7128033237573957</v>
+        <v>0.8977923214683979</v>
       </c>
       <c r="F7">
-        <v>6.26891089108911</v>
+        <v>3.594901274163131</v>
       </c>
       <c r="G7">
-        <v>0.9830132391544034</v>
+        <v>1.023674331285069</v>
       </c>
       <c r="H7">
-        <v>1.014245251753737</v>
+        <v>0.9948221697408225</v>
       </c>
       <c r="I7">
-        <v>0.9632315020332287</v>
+        <v>1.009262323985492</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -729,236 +726,236 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8">
-        <v>8.241602325463726</v>
+        <v>4.792052961294825</v>
       </c>
       <c r="E8">
-        <v>0.7037279429053074</v>
+        <v>0.8998362441075858</v>
       </c>
       <c r="F8">
-        <v>6.250940594059406</v>
+        <v>3.614155087223007</v>
       </c>
       <c r="G8">
-        <v>0.9984239923281939</v>
+        <v>1.013387054131941</v>
       </c>
       <c r="H8">
-        <v>1.001331925412093</v>
+        <v>0.9970869914663788</v>
       </c>
       <c r="I8">
-        <v>0.9604703276441479</v>
+        <v>1.01466779874889</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>8.16745481641728</v>
+        <v>4.881162870983603</v>
       </c>
       <c r="E9">
-        <v>0.7090349244312119</v>
+        <v>0.8960764482565303</v>
       </c>
       <c r="F9">
-        <v>6.339524752475249</v>
+        <v>3.653967426921263</v>
       </c>
       <c r="G9">
-        <v>0.9894414366212031</v>
+        <v>1.032231342707808</v>
       </c>
       <c r="H9">
-        <v>1.008883210085431</v>
+        <v>0.9929208517290596</v>
       </c>
       <c r="I9">
-        <v>0.9740814721395226</v>
+        <v>1.025845044359484</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>8.138727123335617</v>
+        <v>4.939798127138641</v>
       </c>
       <c r="E10">
-        <v>0.7110781693086237</v>
+        <v>0.8935646763662409</v>
       </c>
       <c r="F10">
-        <v>6.513950495049505</v>
+        <v>3.715215042432813</v>
       </c>
       <c r="G10">
-        <v>0.9859612373972786</v>
+        <v>1.04463108244006</v>
       </c>
       <c r="H10">
-        <v>1.011790535775442</v>
+        <v>0.9901376174531139</v>
       </c>
       <c r="I10">
-        <v>1.000882358757943</v>
+        <v>1.043040206633905</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11">
-        <v>8.095673395263194</v>
+        <v>4.952207480930297</v>
       </c>
       <c r="E11">
-        <v>0.7141268672849108</v>
+        <v>0.893029248582648</v>
       </c>
       <c r="F11">
-        <v>6.53409900990099</v>
+        <v>3.665371261197548</v>
       </c>
       <c r="G11">
-        <v>0.9807455192190466</v>
+        <v>1.047255318562694</v>
       </c>
       <c r="H11">
-        <v>1.016128517015738</v>
+        <v>0.9895443227493429</v>
       </c>
       <c r="I11">
-        <v>1.003978220951761</v>
+        <v>1.029046651137047</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>8.343683246553161</v>
+        <v>4.972005052841732</v>
       </c>
       <c r="E12">
-        <v>0.6963432078834415</v>
+        <v>0.8921722593442623</v>
       </c>
       <c r="F12">
-        <v>6.294900990099011</v>
+        <v>3.736999457802921</v>
       </c>
       <c r="G12">
-        <v>1.010790524556976</v>
+        <v>1.051441959077801</v>
       </c>
       <c r="H12">
-        <v>0.9908242128611678</v>
+        <v>0.9885947134987525</v>
       </c>
       <c r="I12">
-        <v>0.967224936067023</v>
+        <v>1.049156143625309</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>8.286739041419976</v>
+        <v>5.108575963053889</v>
       </c>
       <c r="E13">
-        <v>0.7004738749786634</v>
+        <v>0.8861672850730546</v>
       </c>
       <c r="F13">
-        <v>6.487811881188119</v>
+        <v>3.840781699669968</v>
       </c>
       <c r="G13">
-        <v>1.003892052829777</v>
+        <v>1.080322940464664</v>
       </c>
       <c r="H13">
-        <v>0.99670172401785</v>
+        <v>0.9819407453249661</v>
       </c>
       <c r="I13">
-        <v>0.9968661051010986</v>
+        <v>1.078292828787698</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -975,151 +972,154 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>8.254611656762563</v>
+        <v>5.240673175088881</v>
       </c>
       <c r="E14">
-        <v>0.7027918765455237</v>
+        <v>0.880204215500607</v>
       </c>
       <c r="F14">
-        <v>6.508207920792079</v>
+        <v>3.924490405469117</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.108257858055185</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.9753332107442789</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>1.101793903367927</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15">
-        <v>8.326242167608589</v>
+        <v>5.133173927411241</v>
       </c>
       <c r="E15">
-        <v>0.6976113688664871</v>
+        <v>0.8850684292434008</v>
       </c>
       <c r="F15">
-        <v>6.49308910891089</v>
+        <v>4.033893446880404</v>
       </c>
       <c r="G15">
-        <v>1.008677635463001</v>
+        <v>1.085524731604928</v>
       </c>
       <c r="H15">
-        <v>0.9926286745024706</v>
+        <v>0.9807231294971757</v>
       </c>
       <c r="I15">
-        <v>0.9976769623734841</v>
+        <v>1.132508618294706</v>
       </c>
       <c r="J15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>5.284894869175295</v>
+      </c>
+      <c r="E16">
+        <v>0.8781739711913237</v>
+      </c>
+      <c r="F16">
+        <v>3.982320008250824</v>
+      </c>
+      <c r="G16">
+        <v>1.117609526882911</v>
+      </c>
+      <c r="H16">
+        <v>0.9730835456485006</v>
+      </c>
+      <c r="I16">
+        <v>1.118029464471676</v>
+      </c>
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>8.298202070566877</v>
-      </c>
-      <c r="E16">
-        <v>0.6996446340806819</v>
-      </c>
-      <c r="F16">
-        <v>6.527198019801981</v>
-      </c>
-      <c r="G16">
-        <v>1.005280734650746</v>
-      </c>
-      <c r="H16">
-        <v>0.9955218001660583</v>
-      </c>
-      <c r="I16">
-        <v>1.002917869134026</v>
-      </c>
-      <c r="J16">
-        <v>13</v>
-      </c>
       <c r="K16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>8.346080040330548</v>
+        <v>5.409740987143559</v>
       </c>
       <c r="E17">
-        <v>0.6961687268486161</v>
+        <v>0.8723501447046353</v>
       </c>
       <c r="F17">
-        <v>6.518435643564356</v>
+        <v>3.941178514851486</v>
       </c>
       <c r="G17">
-        <v>1.011080882707916</v>
+        <v>1.144011038036804</v>
       </c>
       <c r="H17">
-        <v>0.990575944432564</v>
+        <v>0.9666303029963409</v>
       </c>
       <c r="I17">
-        <v>1.001571511374061</v>
+        <v>1.106479061255077</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1128,244 +1128,244 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>5.481349793528593</v>
+      </c>
+      <c r="E18">
+        <v>0.868948372756459</v>
+      </c>
+      <c r="F18">
+        <v>4.012547871287132</v>
+      </c>
+      <c r="G18">
+        <v>1.159154325879938</v>
+      </c>
+      <c r="H18">
+        <v>0.9628608809713082</v>
+      </c>
+      <c r="I18">
+        <v>1.12651588481273</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>8.481954092526248</v>
-      </c>
-      <c r="E18">
-        <v>0.6861954633231496</v>
-      </c>
-      <c r="F18">
-        <v>6.477920792079208</v>
-      </c>
-      <c r="G18">
-        <v>1.027541263625338</v>
-      </c>
-      <c r="H18">
-        <v>0.9763850241070636</v>
-      </c>
-      <c r="I18">
-        <v>0.9953463182059518</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
       <c r="M18">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>8.513850460477112</v>
+        <v>5.506033307445702</v>
       </c>
       <c r="E19">
-        <v>0.6838309032959904</v>
+        <v>0.8677654166357581</v>
       </c>
       <c r="F19">
-        <v>6.430594059405941</v>
+        <v>4.036048352192362</v>
       </c>
       <c r="G19">
-        <v>1.031405330074149</v>
+        <v>1.164374208392949</v>
       </c>
       <c r="H19">
-        <v>0.9730205002614241</v>
+        <v>0.9615500756251686</v>
       </c>
       <c r="I19">
-        <v>0.9880744649939377</v>
+        <v>1.133113604239312</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>8.384247173912952</v>
+        <v>5.491077976983171</v>
       </c>
       <c r="E20">
-        <v>0.6933834949352025</v>
+        <v>0.8684827846631682</v>
       </c>
       <c r="F20">
-        <v>6.537405940594059</v>
+        <v>4.244623106257055</v>
       </c>
       <c r="G20">
-        <v>1.015704617314636</v>
+        <v>1.16121156841309</v>
       </c>
       <c r="H20">
-        <v>0.986612848092999</v>
+        <v>0.9623449739557353</v>
       </c>
       <c r="I20">
-        <v>1.00448633789168</v>
+        <v>1.191670606214572</v>
       </c>
       <c r="J20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>5.525730356071719</v>
+      </c>
+      <c r="E21">
+        <v>0.8668176236527501</v>
+      </c>
+      <c r="F21">
+        <v>4.035527874430299</v>
+      </c>
+      <c r="G21">
+        <v>1.168539591005252</v>
+      </c>
+      <c r="H21">
+        <v>0.9604998489198666</v>
+      </c>
+      <c r="I21">
+        <v>1.132967481006527</v>
+      </c>
+      <c r="J21">
         <v>21</v>
       </c>
-      <c r="D21">
-        <v>8.387003716854707</v>
-      </c>
-      <c r="E21">
-        <v>0.6931818452255727</v>
-      </c>
-      <c r="F21">
-        <v>6.614287128712872</v>
-      </c>
-      <c r="G21">
-        <v>1.016038557063273</v>
-      </c>
-      <c r="H21">
-        <v>0.9863259214560252</v>
-      </c>
-      <c r="I21">
-        <v>1.016299296090694</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
+        <v>21</v>
+      </c>
+      <c r="L21">
         <v>18</v>
       </c>
-      <c r="K21">
-        <v>18</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
       <c r="M21">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>8.441375034628395</v>
+        <v>5.509399373916505</v>
       </c>
       <c r="E22">
-        <v>0.6891908655170391</v>
+        <v>0.8676036862466732</v>
       </c>
       <c r="F22">
-        <v>6.660257425742574</v>
+        <v>4.207741031353137</v>
       </c>
       <c r="G22">
-        <v>1.02262533788768</v>
+        <v>1.165086038627801</v>
       </c>
       <c r="H22">
-        <v>0.9806471709728086</v>
+        <v>0.9613708660543857</v>
       </c>
       <c r="I22">
-        <v>1.023362730078849</v>
+        <v>1.181316027384142</v>
       </c>
       <c r="J22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>8.551807013030569</v>
+        <v>5.536357498156132</v>
       </c>
       <c r="E23">
-        <v>0.6810055213375069</v>
+        <v>0.8663048555836181</v>
       </c>
       <c r="F23">
-        <v>6.532346534653466</v>
+        <v>4.080115209806694</v>
       </c>
       <c r="G23">
-        <v>1.036003553967863</v>
+        <v>1.170786938498644</v>
       </c>
       <c r="H23">
-        <v>0.9690002745690451</v>
+        <v>0.959931662903001</v>
       </c>
       <c r="I23">
-        <v>1.003708949399768</v>
+        <v>1.145485298406889</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -1374,39 +1374,39 @@
         <v>22</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>8.611864904230261</v>
+        <v>5.625221160276639</v>
       </c>
       <c r="E24">
-        <v>0.6765093001684741</v>
+        <v>0.8619785497842343</v>
       </c>
       <c r="F24">
-        <v>6.638544554455445</v>
+        <v>4.046297255618418</v>
       </c>
       <c r="G24">
-        <v>1.043279231334283</v>
+        <v>1.189579152504422</v>
       </c>
       <c r="H24">
-        <v>0.9626026178529014</v>
+        <v>0.9551377870595699</v>
       </c>
       <c r="I24">
-        <v>1.020026501188902</v>
+        <v>1.135990966175348</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1415,39 +1415,39 @@
         <v>23</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>8.634237907170718</v>
+        <v>5.645626031325501</v>
       </c>
       <c r="E25">
-        <v>0.6748263059143456</v>
+        <v>0.8609754184439975</v>
       </c>
       <c r="F25">
-        <v>6.682059405940595</v>
+        <v>4.335217878359265</v>
       </c>
       <c r="G25">
-        <v>1.045989595415691</v>
+        <v>1.19389422004002</v>
       </c>
       <c r="H25">
-        <v>0.9602078914619233</v>
+        <v>0.9540262412459487</v>
       </c>
       <c r="I25">
-        <v>1.026712650742627</v>
+        <v>1.217104932016495</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1456,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1467,28 +1467,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
       <c r="D26">
-        <v>8.944535089114249</v>
+        <v>5.699219410629993</v>
       </c>
       <c r="E26">
-        <v>0.651034151375063</v>
+        <v>0.8583233965293278</v>
       </c>
       <c r="F26">
-        <v>6.948495049504951</v>
+        <v>4.27427587105139</v>
       </c>
       <c r="G26">
-        <v>1.083580362231392</v>
+        <v>1.205227741854787</v>
       </c>
       <c r="H26">
-        <v>0.9263541214721084</v>
+        <v>0.9510875992769053</v>
       </c>
       <c r="I26">
-        <v>1.067651054494781</v>
+        <v>1.199995568717442</v>
       </c>
       <c r="J26">
         <v>25</v>
@@ -1497,39 +1497,39 @@
         <v>25</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>8.999280266050762</v>
+        <v>5.791594261112549</v>
       </c>
       <c r="E27">
-        <v>0.6467493762098425</v>
+        <v>0.8536934933017262</v>
       </c>
       <c r="F27">
-        <v>7.004495049504951</v>
+        <v>4.402554418906177</v>
       </c>
       <c r="G27">
-        <v>1.090212434000833</v>
+        <v>1.224762475373488</v>
       </c>
       <c r="H27">
-        <v>0.9202573305042308</v>
+        <v>0.945957314394273</v>
       </c>
       <c r="I27">
-        <v>1.07625557369293</v>
+        <v>1.236009549478442</v>
       </c>
       <c r="J27">
         <v>26</v>
@@ -1546,31 +1546,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>9.530032463348446</v>
+        <v>5.943655361015236</v>
       </c>
       <c r="E28">
-        <v>0.6038532084817794</v>
+        <v>0.845909941102774</v>
       </c>
       <c r="F28">
-        <v>7.31509900990099</v>
+        <v>4.550626123290902</v>
       </c>
       <c r="G28">
-        <v>1.154510092009113</v>
+        <v>1.256919204717483</v>
       </c>
       <c r="H28">
-        <v>0.8592205297675556</v>
+        <v>0.937332546614807</v>
       </c>
       <c r="I28">
-        <v>1.12398053334023</v>
+        <v>1.277580424750562</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1587,31 +1587,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>9.729000501206446</v>
+        <v>6.743621052471968</v>
       </c>
       <c r="E29">
-        <v>0.5871390245750646</v>
+        <v>0.8016401832841722</v>
       </c>
       <c r="F29">
-        <v>7.520702970297031</v>
+        <v>5.001391036067893</v>
       </c>
       <c r="G29">
-        <v>1.178613956143654</v>
+        <v>1.426089888351353</v>
       </c>
       <c r="H29">
-        <v>0.8354379783970546</v>
+        <v>0.8882782882146338</v>
       </c>
       <c r="I29">
-        <v>1.155572019491001</v>
+        <v>1.404131895498901</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1620,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1631,28 +1631,28 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>9.809639569079362</v>
+        <v>6.953358001963888</v>
       </c>
       <c r="E30">
-        <v>0.5802666437974993</v>
+        <v>0.7891097201951101</v>
       </c>
       <c r="F30">
-        <v>7.343841584158416</v>
+        <v>5.041757490374038</v>
       </c>
       <c r="G30">
-        <v>1.188382927868308</v>
+        <v>1.470443469395835</v>
       </c>
       <c r="H30">
-        <v>0.8256592928332065</v>
+        <v>0.8743935821639853</v>
       </c>
       <c r="I30">
-        <v>1.128396891054556</v>
+        <v>1.415464707828652</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1661,121 +1661,121 @@
         <v>29</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>11.73053387574074</v>
+        <v>12.26180756692103</v>
       </c>
       <c r="E31">
-        <v>0.3997903981132475</v>
+        <v>0.3441925060327767</v>
       </c>
       <c r="F31">
-        <v>9.455910891089109</v>
+        <v>9.622821792605405</v>
       </c>
       <c r="G31">
-        <v>1.421088521606045</v>
+        <v>2.593034164884799</v>
       </c>
       <c r="H31">
-        <v>0.5688603005463893</v>
+        <v>0.3813914726960725</v>
       </c>
       <c r="I31">
-        <v>1.452920835685023</v>
+        <v>2.701590598747125</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="M31">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>11.8904608750789</v>
+        <v>12.24561694011093</v>
       </c>
       <c r="E32">
-        <v>0.3833130485730705</v>
+        <v>0.3459232336301508</v>
       </c>
       <c r="F32">
-        <v>9.696069306930694</v>
+        <v>9.847853698780593</v>
       </c>
       <c r="G32">
-        <v>1.440462782442065</v>
+        <v>2.589610293792354</v>
       </c>
       <c r="H32">
-        <v>0.5454147399329554</v>
+        <v>0.38330925049666</v>
       </c>
       <c r="I32">
-        <v>1.489821687465485</v>
+        <v>2.764767917754342</v>
       </c>
       <c r="J32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>11.91670181462194</v>
+        <v>12.29040920477617</v>
       </c>
       <c r="E33">
-        <v>0.380588124515401</v>
+        <v>0.3411294919325207</v>
       </c>
       <c r="F33">
-        <v>9.67378217821782</v>
+        <v>9.731298553391055</v>
       </c>
       <c r="G33">
-        <v>1.443641725393492</v>
+        <v>2.599082622563265</v>
       </c>
       <c r="H33">
-        <v>0.5415374554215528</v>
+        <v>0.3779974201292389</v>
       </c>
       <c r="I33">
-        <v>1.486397222699744</v>
+        <v>2.732045261988031</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1792,113 +1792,113 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>12.00038541955306</v>
+        <v>12.36468297907742</v>
       </c>
       <c r="E34">
-        <v>0.3718580881892606</v>
+        <v>0.3331420170212132</v>
       </c>
       <c r="F34">
-        <v>9.862831683168316</v>
+        <v>9.732273093521576</v>
       </c>
       <c r="G34">
-        <v>1.453779525742048</v>
+        <v>2.614789477630674</v>
       </c>
       <c r="H34">
-        <v>0.5291155185473652</v>
+        <v>0.3691466904760591</v>
       </c>
       <c r="I34">
-        <v>1.515445081534513</v>
+        <v>2.732318862446551</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>12.00136631413026</v>
+        <v>12.35154424588588</v>
       </c>
       <c r="E35">
-        <v>0.3717553971248136</v>
+        <v>0.3345584729137848</v>
       </c>
       <c r="F35">
-        <v>9.780207920792078</v>
+        <v>9.931729287439735</v>
       </c>
       <c r="G35">
-        <v>1.453898355629872</v>
+        <v>2.612010997878563</v>
       </c>
       <c r="H35">
-        <v>0.5289693998059937</v>
+        <v>0.3707162313272057</v>
       </c>
       <c r="I35">
-        <v>1.502749764577555</v>
+        <v>2.788315844409291</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>12.04312962844479</v>
+        <v>12.38910318674532</v>
       </c>
       <c r="E36">
-        <v>0.3673753577297291</v>
+        <v>0.3305053312800458</v>
       </c>
       <c r="F36">
-        <v>9.831188118811882</v>
+        <v>9.811224008275827</v>
       </c>
       <c r="G36">
-        <v>1.458957747403961</v>
+        <v>2.619953678132994</v>
       </c>
       <c r="H36">
-        <v>0.5227370577126074</v>
+        <v>0.36622504215358</v>
       </c>
       <c r="I36">
-        <v>1.510582980516606</v>
+        <v>2.754484195408082</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,39 +1907,39 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>12.12067220712099</v>
+        <v>12.4390741479265</v>
       </c>
       <c r="E37">
-        <v>0.359202519784777</v>
+        <v>0.3250936784913387</v>
       </c>
       <c r="F37">
-        <v>9.891970297029703</v>
+        <v>9.815750974107512</v>
       </c>
       <c r="G37">
-        <v>1.468351596793917</v>
+        <v>2.630521158407641</v>
       </c>
       <c r="H37">
-        <v>0.5111079563844525</v>
+        <v>0.3602285193047989</v>
       </c>
       <c r="I37">
-        <v>1.519922291576973</v>
+        <v>2.755755133246828</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,39 +1948,39 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>12.21536736011547</v>
+        <v>12.62409875506854</v>
       </c>
       <c r="E38">
-        <v>0.349150692085732</v>
+        <v>0.3048666109940026</v>
       </c>
       <c r="F38">
-        <v>10.06553465346535</v>
+        <v>9.882380927791957</v>
       </c>
       <c r="G38">
-        <v>1.479823384557172</v>
+        <v>2.669648760520561</v>
       </c>
       <c r="H38">
-        <v>0.4968052473826732</v>
+        <v>0.3378153902391786</v>
       </c>
       <c r="I38">
-        <v>1.546590824381703</v>
+        <v>2.77446137766748</v>
       </c>
       <c r="J38">
         <v>37</v>
@@ -1989,10 +1989,10 @@
         <v>37</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,12 +52,12 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Fine Aggregate</t>
+  </si>
+  <si>
     <t>Coarse Aggregate</t>
   </si>
   <si>
-    <t>Fine Aggregate</t>
-  </si>
-  <si>
     <t>None dropped</t>
   </si>
   <si>
@@ -67,13 +67,13 @@
     <t>Superplasticizer</t>
   </si>
   <si>
+    <t>Blast Furnace Slag</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t>Cement</t>
-  </si>
-  <si>
-    <t>Blast Furnace Slag</t>
-  </si>
-  <si>
-    <t>Water</t>
   </si>
   <si>
     <t>Age</t>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>4.635121197533861</v>
+        <v>4.615975955003477</v>
       </c>
       <c r="E2">
-        <v>0.9062892159335042</v>
+        <v>0.9070617568614504</v>
       </c>
       <c r="F2">
-        <v>3.425911486916549</v>
+        <v>3.446674380973811</v>
       </c>
       <c r="G2">
-        <v>0.9802003136969019</v>
+        <v>0.9819659895017278</v>
       </c>
       <c r="H2">
-        <v>1.004237375001222</v>
+        <v>1.003812464507547</v>
       </c>
       <c r="I2">
-        <v>0.9618187330774214</v>
+        <v>0.9827952800363985</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -524,31 +524,31 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>4.706776950615579</v>
+        <v>4.672219729127157</v>
       </c>
       <c r="E3">
-        <v>0.9033694127655574</v>
+        <v>0.9047831300942681</v>
       </c>
       <c r="F3">
-        <v>3.493244147807637</v>
+        <v>3.482277672088637</v>
       </c>
       <c r="G3">
-        <v>0.9953535294717681</v>
+        <v>0.9939308424058694</v>
       </c>
       <c r="H3">
-        <v>1.00100201103865</v>
+        <v>1.001290790615383</v>
       </c>
       <c r="I3">
-        <v>0.9807222613326964</v>
+        <v>0.9929473114132432</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -571,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.728748943215638</v>
+        <v>4.700749317545845</v>
       </c>
       <c r="E4">
-        <v>0.9024651327405546</v>
+        <v>0.9036167500733704</v>
       </c>
       <c r="F4">
-        <v>3.561909712399812</v>
+        <v>3.507011532296086</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -606,28 +606,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>4.753902314633015</v>
+        <v>4.709216154700735</v>
       </c>
       <c r="E5">
-        <v>0.9014247494574548</v>
+        <v>0.9032692326211673</v>
       </c>
       <c r="F5">
-        <v>3.604472698019801</v>
+        <v>3.553034001650165</v>
       </c>
       <c r="G5">
-        <v>1.005319244417377</v>
+        <v>1.001801167554987</v>
       </c>
       <c r="H5">
-        <v>0.9988471762006578</v>
+        <v>0.9996154149951572</v>
       </c>
       <c r="I5">
-        <v>1.011949484702495</v>
+        <v>1.013122987743342</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -636,39 +636,39 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6">
-        <v>4.788641302815035</v>
+        <v>4.829111105657602</v>
       </c>
       <c r="E6">
-        <v>0.8999788146868695</v>
+        <v>0.8982810712347051</v>
       </c>
       <c r="F6">
-        <v>3.610205787364451</v>
+        <v>3.603438471239982</v>
       </c>
       <c r="G6">
-        <v>1.012665582444449</v>
+        <v>1.027306665265608</v>
       </c>
       <c r="H6">
-        <v>0.9972449705107888</v>
+        <v>0.9940951970642067</v>
       </c>
       <c r="I6">
-        <v>1.013559039634416</v>
+        <v>1.027495472443104</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -677,121 +677,121 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>4.840698912261244</v>
+        <v>4.829202382903484</v>
       </c>
       <c r="E7">
-        <v>0.8977923214683979</v>
+        <v>0.8982772259260281</v>
       </c>
       <c r="F7">
-        <v>3.594901274163131</v>
+        <v>3.624910237702341</v>
       </c>
       <c r="G7">
-        <v>1.023674331285069</v>
+        <v>1.027326082860488</v>
       </c>
       <c r="H7">
-        <v>0.9948221697408225</v>
+        <v>0.9940909416000658</v>
       </c>
       <c r="I7">
-        <v>1.009262323985492</v>
+        <v>1.033617997637169</v>
       </c>
       <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
       <c r="M7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>4.792052961294825</v>
+        <v>4.837625006863951</v>
       </c>
       <c r="E8">
-        <v>0.8998362441075858</v>
+        <v>0.8979220866065584</v>
       </c>
       <c r="F8">
-        <v>3.614155087223007</v>
+        <v>3.625733514851485</v>
       </c>
       <c r="G8">
-        <v>1.013387054131941</v>
+        <v>1.029117844852353</v>
       </c>
       <c r="H8">
-        <v>0.9970869914663788</v>
+        <v>0.9936979217501782</v>
       </c>
       <c r="I8">
-        <v>1.01466779874889</v>
+        <v>1.033852749402757</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>4.881162870983603</v>
+        <v>4.890423130845654</v>
       </c>
       <c r="E9">
-        <v>0.8960764482565303</v>
+        <v>0.8956817587178292</v>
       </c>
       <c r="F9">
-        <v>3.653967426921263</v>
+        <v>3.634275689533238</v>
       </c>
       <c r="G9">
-        <v>1.032231342707808</v>
+        <v>1.040349697566692</v>
       </c>
       <c r="H9">
-        <v>0.9929208517290596</v>
+        <v>0.9912186318426514</v>
       </c>
       <c r="I9">
-        <v>1.025845044359484</v>
+        <v>1.036288491231117</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -800,51 +800,51 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>4.939798127138641</v>
+        <v>4.901690693340296</v>
       </c>
       <c r="E10">
-        <v>0.8935646763662409</v>
+        <v>0.8952005053171385</v>
       </c>
       <c r="F10">
-        <v>3.715215042432813</v>
+        <v>3.62480018151815</v>
       </c>
       <c r="G10">
-        <v>1.04463108244006</v>
+        <v>1.04274666914154</v>
       </c>
       <c r="H10">
-        <v>0.9901376174531139</v>
+        <v>0.9906860460969227</v>
       </c>
       <c r="I10">
-        <v>1.043040206633905</v>
+        <v>1.03358661588003</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -852,69 +852,69 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11">
-        <v>4.952207480930297</v>
+        <v>4.891805609762142</v>
       </c>
       <c r="E11">
-        <v>0.893029248582648</v>
+        <v>0.8956227707121471</v>
       </c>
       <c r="F11">
-        <v>3.665371261197548</v>
+        <v>3.658922765794436</v>
       </c>
       <c r="G11">
-        <v>1.047255318562694</v>
+        <v>1.04064379512925</v>
       </c>
       <c r="H11">
-        <v>0.9895443227493429</v>
+        <v>0.9911533519486284</v>
       </c>
       <c r="I11">
-        <v>1.029046651137047</v>
+        <v>1.043316433977875</v>
       </c>
       <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
       <c r="M11">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>4.972005052841732</v>
+        <v>4.976041837855699</v>
       </c>
       <c r="E12">
-        <v>0.8921722593442623</v>
+        <v>0.8919970969683505</v>
       </c>
       <c r="F12">
-        <v>3.736999457802921</v>
+        <v>3.74933513220965</v>
       </c>
       <c r="G12">
-        <v>1.051441959077801</v>
+        <v>1.058563539919542</v>
       </c>
       <c r="H12">
-        <v>0.9885947134987525</v>
+        <v>0.9871409498506126</v>
       </c>
       <c r="I12">
-        <v>1.049156143625309</v>
+        <v>1.069096892805172</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -934,28 +934,28 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>5.108575963053889</v>
+        <v>5.097464401877337</v>
       </c>
       <c r="E13">
-        <v>0.8861672850730546</v>
+        <v>0.886661937046529</v>
       </c>
       <c r="F13">
-        <v>3.840781699669968</v>
+        <v>3.784171553512496</v>
       </c>
       <c r="G13">
-        <v>1.080322940464664</v>
+        <v>1.08439400987641</v>
       </c>
       <c r="H13">
-        <v>0.9819407453249661</v>
+        <v>0.9812367211813363</v>
       </c>
       <c r="I13">
-        <v>1.078292828787698</v>
+        <v>1.079030256577158</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -972,125 +972,125 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>5.240673175088881</v>
+        <v>5.117575346624197</v>
       </c>
       <c r="E14">
-        <v>0.880204215500607</v>
+        <v>0.8857658712166568</v>
       </c>
       <c r="F14">
-        <v>3.924490405469117</v>
+        <v>3.822501193030018</v>
       </c>
       <c r="G14">
-        <v>1.108257858055185</v>
+        <v>1.088672252213604</v>
       </c>
       <c r="H14">
-        <v>0.9753332107442789</v>
+        <v>0.9802450775118278</v>
       </c>
       <c r="I14">
-        <v>1.101793903367927</v>
+        <v>1.089959687280349</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15">
-        <v>5.133173927411241</v>
+        <v>5.153878697813854</v>
       </c>
       <c r="E15">
-        <v>0.8850684292434008</v>
+        <v>0.8841394013293171</v>
       </c>
       <c r="F15">
-        <v>4.033893446880404</v>
+        <v>3.855976104038972</v>
       </c>
       <c r="G15">
-        <v>1.085524731604928</v>
+        <v>1.096395138233957</v>
       </c>
       <c r="H15">
-        <v>0.9807231294971757</v>
+        <v>0.9784451220692049</v>
       </c>
       <c r="I15">
-        <v>1.132508618294706</v>
+        <v>1.099504825840825</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16">
-        <v>5.284894869175295</v>
+        <v>5.426804913294486</v>
       </c>
       <c r="E16">
-        <v>0.8781739711913237</v>
+        <v>0.8715435837009177</v>
       </c>
       <c r="F16">
-        <v>3.982320008250824</v>
+        <v>4.014979690004713</v>
       </c>
       <c r="G16">
-        <v>1.117609526882911</v>
+        <v>1.154455289295814</v>
       </c>
       <c r="H16">
-        <v>0.9730835456485006</v>
+        <v>0.9645057859210241</v>
       </c>
       <c r="I16">
-        <v>1.118029464471676</v>
+        <v>1.144843594904307</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1098,78 +1098,78 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
-        <v>5.409740987143559</v>
+        <v>5.435382478271042</v>
       </c>
       <c r="E17">
-        <v>0.8723501447046353</v>
+        <v>0.8711371883882231</v>
       </c>
       <c r="F17">
-        <v>3.941178514851486</v>
+        <v>3.960869616925978</v>
       </c>
       <c r="G17">
-        <v>1.144011038036804</v>
+        <v>1.15628001220638</v>
       </c>
       <c r="H17">
-        <v>0.9666303029963409</v>
+        <v>0.96405604291586</v>
       </c>
       <c r="I17">
-        <v>1.106479061255077</v>
+        <v>1.129414483086329</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>5.481349793528593</v>
+        <v>5.291060872072746</v>
       </c>
       <c r="E18">
-        <v>0.868948372756459</v>
+        <v>0.8778895311507477</v>
       </c>
       <c r="F18">
-        <v>4.012547871287132</v>
+        <v>4.146204603960397</v>
       </c>
       <c r="G18">
-        <v>1.159154325879938</v>
+        <v>1.125578182253524</v>
       </c>
       <c r="H18">
-        <v>0.9628608809713082</v>
+        <v>0.9715286166170186</v>
       </c>
       <c r="I18">
-        <v>1.12651588481273</v>
+        <v>1.182261468426317</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M18">
         <v>50</v>
@@ -1180,122 +1180,122 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19">
-        <v>5.506033307445702</v>
+        <v>5.447357230435562</v>
       </c>
       <c r="E19">
-        <v>0.8677654166357581</v>
+        <v>0.8705687647127326</v>
       </c>
       <c r="F19">
-        <v>4.036048352192362</v>
+        <v>3.986142402168788</v>
       </c>
       <c r="G19">
-        <v>1.164374208392949</v>
+        <v>1.158827425683594</v>
       </c>
       <c r="H19">
-        <v>0.9615500756251686</v>
+        <v>0.9634269889774018</v>
       </c>
       <c r="I19">
-        <v>1.133113604239312</v>
+        <v>1.136620842406814</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
       <c r="D20">
-        <v>5.491077976983171</v>
+        <v>5.557659626000539</v>
       </c>
       <c r="E20">
-        <v>0.8684827846631682</v>
+        <v>0.8652740442107871</v>
       </c>
       <c r="F20">
-        <v>4.244623106257055</v>
+        <v>4.065605577557755</v>
       </c>
       <c r="G20">
-        <v>1.16121156841309</v>
+        <v>1.182292279500254</v>
       </c>
       <c r="H20">
-        <v>0.9623449739557353</v>
+        <v>0.9575675131525949</v>
       </c>
       <c r="I20">
-        <v>1.191670606214572</v>
+        <v>1.159279215399657</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>5.525730356071719</v>
+        <v>5.45686019464451</v>
       </c>
       <c r="E21">
-        <v>0.8668176236527501</v>
+        <v>0.8701167828799392</v>
       </c>
       <c r="F21">
-        <v>4.035527874430299</v>
+        <v>4.245646146632521</v>
       </c>
       <c r="G21">
-        <v>1.168539591005252</v>
+        <v>1.160849010662286</v>
       </c>
       <c r="H21">
-        <v>0.9604998489198666</v>
+        <v>0.9629267970179712</v>
       </c>
       <c r="I21">
-        <v>1.132967481006527</v>
+        <v>1.210616534201369</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1306,25 +1306,25 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>5.509399373916505</v>
+        <v>5.497418014646902</v>
       </c>
       <c r="E22">
-        <v>0.8676036862466732</v>
+        <v>0.8681789079119082</v>
       </c>
       <c r="F22">
-        <v>4.207741031353137</v>
+        <v>4.175367604314004</v>
       </c>
       <c r="G22">
-        <v>1.165086038627801</v>
+        <v>1.169476958519664</v>
       </c>
       <c r="H22">
-        <v>0.9613708660543857</v>
+        <v>0.9607822208269328</v>
       </c>
       <c r="I22">
-        <v>1.181316027384142</v>
+        <v>1.190577095587803</v>
       </c>
       <c r="J22">
         <v>20</v>
@@ -1341,31 +1341,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
       <c r="D23">
-        <v>5.536357498156132</v>
+        <v>5.594226183930463</v>
       </c>
       <c r="E23">
-        <v>0.8663048555836181</v>
+        <v>0.8634953561989456</v>
       </c>
       <c r="F23">
-        <v>4.080115209806694</v>
+        <v>4.059642411598302</v>
       </c>
       <c r="G23">
-        <v>1.170786938498644</v>
+        <v>1.190071158027861</v>
       </c>
       <c r="H23">
-        <v>0.959931662903001</v>
+        <v>0.9555991034128494</v>
       </c>
       <c r="I23">
-        <v>1.145485298406889</v>
+        <v>1.157578860010307</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -1374,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1388,25 +1388,25 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>5.625221160276639</v>
+        <v>5.677789416171965</v>
       </c>
       <c r="E24">
-        <v>0.8619785497842343</v>
+        <v>0.8593868476580151</v>
       </c>
       <c r="F24">
-        <v>4.046297255618418</v>
+        <v>4.165031950730786</v>
       </c>
       <c r="G24">
-        <v>1.189579152504422</v>
+        <v>1.207847735036467</v>
       </c>
       <c r="H24">
-        <v>0.9551377870595699</v>
+        <v>0.9510523654948141</v>
       </c>
       <c r="I24">
-        <v>1.135990966175348</v>
+        <v>1.187629955697319</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1415,10 +1415,10 @@
         <v>23</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1429,25 +1429,25 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>5.645626031325501</v>
+        <v>5.730974451425371</v>
       </c>
       <c r="E25">
-        <v>0.8609754184439975</v>
+        <v>0.8567402042835786</v>
       </c>
       <c r="F25">
-        <v>4.335217878359265</v>
+        <v>4.408913099952853</v>
       </c>
       <c r="G25">
-        <v>1.19389422004002</v>
+        <v>1.219161896175604</v>
       </c>
       <c r="H25">
-        <v>0.9540262412459487</v>
+        <v>0.9481234209237648</v>
       </c>
       <c r="I25">
-        <v>1.217104932016495</v>
+        <v>1.257170972878518</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1467,28 +1467,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>5.699219410629993</v>
+        <v>5.750333845155195</v>
       </c>
       <c r="E26">
-        <v>0.8583233965293278</v>
+        <v>0.855770698254621</v>
       </c>
       <c r="F26">
-        <v>4.27427587105139</v>
+        <v>4.274819716721671</v>
       </c>
       <c r="G26">
-        <v>1.205227741854787</v>
+        <v>1.223280259530477</v>
       </c>
       <c r="H26">
-        <v>0.9510875992769053</v>
+        <v>0.9470505036401058</v>
       </c>
       <c r="I26">
-        <v>1.199995568717442</v>
+        <v>1.218935175249592</v>
       </c>
       <c r="J26">
         <v>25</v>
@@ -1505,31 +1505,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>5.791594261112549</v>
+        <v>5.833027247806153</v>
       </c>
       <c r="E27">
-        <v>0.8536934933017262</v>
+        <v>0.8515926558805658</v>
       </c>
       <c r="F27">
-        <v>4.402554418906177</v>
+        <v>4.424382497642624</v>
       </c>
       <c r="G27">
-        <v>1.224762475373488</v>
+        <v>1.240871795914326</v>
       </c>
       <c r="H27">
-        <v>0.945957314394273</v>
+        <v>0.9424268151419499</v>
       </c>
       <c r="I27">
-        <v>1.236009549478442</v>
+        <v>1.261581964273132</v>
       </c>
       <c r="J27">
         <v>26</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1555,22 +1555,22 @@
         <v>17</v>
       </c>
       <c r="D28">
-        <v>5.943655361015236</v>
+        <v>5.870341800048934</v>
       </c>
       <c r="E28">
-        <v>0.845909941102774</v>
+        <v>0.8496878245860927</v>
       </c>
       <c r="F28">
-        <v>4.550626123290902</v>
+        <v>4.468455796793965</v>
       </c>
       <c r="G28">
-        <v>1.256919204717483</v>
+        <v>1.248809796799313</v>
       </c>
       <c r="H28">
-        <v>0.937332546614807</v>
+        <v>0.9403188071902177</v>
       </c>
       <c r="I28">
-        <v>1.277580424750562</v>
+        <v>1.274149159660279</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>6.743621052471968</v>
+        <v>6.73974004279321</v>
       </c>
       <c r="E29">
-        <v>0.8016401832841722</v>
+        <v>0.8018684330149815</v>
       </c>
       <c r="F29">
-        <v>5.001391036067893</v>
+        <v>5.019819852663836</v>
       </c>
       <c r="G29">
-        <v>1.426089888351353</v>
+        <v>1.433758660058026</v>
       </c>
       <c r="H29">
-        <v>0.8882782882146338</v>
+        <v>0.8873988147628656</v>
       </c>
       <c r="I29">
-        <v>1.404131895498901</v>
+        <v>1.431366793760526</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1631,28 +1631,28 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
       <c r="D30">
-        <v>6.953358001963888</v>
+        <v>7.072329492756954</v>
       </c>
       <c r="E30">
-        <v>0.7891097201951101</v>
+        <v>0.7818313449133223</v>
       </c>
       <c r="F30">
-        <v>5.041757490374038</v>
+        <v>5.021346984698469</v>
       </c>
       <c r="G30">
-        <v>1.470443469395835</v>
+        <v>1.504511092807914</v>
       </c>
       <c r="H30">
-        <v>0.8743935821639853</v>
+        <v>0.8652244935143582</v>
       </c>
       <c r="I30">
-        <v>1.415464707828652</v>
+        <v>1.431802244862003</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1678,104 +1678,104 @@
         <v>16</v>
       </c>
       <c r="D31">
-        <v>12.26180756692103</v>
+        <v>12.21592547389375</v>
       </c>
       <c r="E31">
-        <v>0.3441925060327767</v>
+        <v>0.3490912167946612</v>
       </c>
       <c r="F31">
-        <v>9.622821792605405</v>
+        <v>9.661868109218725</v>
       </c>
       <c r="G31">
-        <v>2.593034164884799</v>
+        <v>2.598718767728591</v>
       </c>
       <c r="H31">
-        <v>0.3813914726960725</v>
+        <v>0.386326633239497</v>
       </c>
       <c r="I31">
-        <v>2.701590598747125</v>
+        <v>2.755014638601138</v>
       </c>
       <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31">
         <v>31</v>
       </c>
-      <c r="K31">
-        <v>31</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
       <c r="M31">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>12.24561694011093</v>
+        <v>12.26780833599666</v>
       </c>
       <c r="E32">
-        <v>0.3459232336301508</v>
+        <v>0.343550461658445</v>
       </c>
       <c r="F32">
-        <v>9.847853698780593</v>
+        <v>9.652851916127052</v>
       </c>
       <c r="G32">
-        <v>2.589610293792354</v>
+        <v>2.609755914914732</v>
       </c>
       <c r="H32">
-        <v>0.38330925049666</v>
+        <v>0.3801948797767969</v>
       </c>
       <c r="I32">
-        <v>2.764767917754342</v>
+        <v>2.752443733712847</v>
       </c>
       <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
         <v>30</v>
       </c>
-      <c r="K32">
-        <v>30</v>
-      </c>
-      <c r="L32">
-        <v>35</v>
-      </c>
       <c r="M32">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>12.29040920477617</v>
+        <v>12.35255863624692</v>
       </c>
       <c r="E33">
-        <v>0.3411294919325207</v>
+        <v>0.3344491675223418</v>
       </c>
       <c r="F33">
-        <v>9.731298553391055</v>
+        <v>9.842050033866023</v>
       </c>
       <c r="G33">
-        <v>2.599082622563265</v>
+        <v>2.627785019324518</v>
       </c>
       <c r="H33">
-        <v>0.3779974201292389</v>
+        <v>0.3701228064831531</v>
       </c>
       <c r="I33">
-        <v>2.732045261988031</v>
+        <v>2.80639226396336</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1784,39 +1784,39 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>12.36468297907742</v>
+        <v>12.41338397880538</v>
       </c>
       <c r="E34">
-        <v>0.3331420170212132</v>
+        <v>0.3278785406042339</v>
       </c>
       <c r="F34">
-        <v>9.732273093521576</v>
+        <v>9.809647576565347</v>
       </c>
       <c r="G34">
-        <v>2.614789477630674</v>
+        <v>2.640724518636133</v>
       </c>
       <c r="H34">
-        <v>0.3691466904760591</v>
+        <v>0.3628513311396799</v>
       </c>
       <c r="I34">
-        <v>2.732318862446551</v>
+        <v>2.797152928135039</v>
       </c>
       <c r="J34">
         <v>34</v>
@@ -1825,10 +1825,10 @@
         <v>34</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1839,25 +1839,25 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>12.35154424588588</v>
+        <v>12.41152468760964</v>
       </c>
       <c r="E35">
-        <v>0.3345584729137848</v>
+        <v>0.3280798678048703</v>
       </c>
       <c r="F35">
-        <v>9.931729287439735</v>
+        <v>9.942281044236291</v>
       </c>
       <c r="G35">
-        <v>2.612010997878563</v>
+        <v>2.640328987823886</v>
       </c>
       <c r="H35">
-        <v>0.3707162313272057</v>
+        <v>0.3630741326765262</v>
       </c>
       <c r="I35">
-        <v>2.788315844409291</v>
+        <v>2.834972440973683</v>
       </c>
       <c r="J35">
         <v>33</v>
@@ -1874,31 +1874,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>12.38910318674532</v>
+        <v>12.41759128257572</v>
       </c>
       <c r="E36">
-        <v>0.3305053312800458</v>
+        <v>0.3274228552930418</v>
       </c>
       <c r="F36">
-        <v>9.811224008275827</v>
+        <v>9.832498310850317</v>
       </c>
       <c r="G36">
-        <v>2.619953678132994</v>
+        <v>2.641619546957392</v>
       </c>
       <c r="H36">
-        <v>0.36622504215358</v>
+        <v>0.3623470406745518</v>
       </c>
       <c r="I36">
-        <v>2.754484195408082</v>
+        <v>2.803668656433774</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,39 +1907,39 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>12.4390741479265</v>
+        <v>12.45957149413953</v>
       </c>
       <c r="E37">
-        <v>0.3250936784913387</v>
+        <v>0.3228675986142657</v>
       </c>
       <c r="F37">
-        <v>9.815750974107512</v>
+        <v>9.776586633152325</v>
       </c>
       <c r="G37">
-        <v>2.630521158407641</v>
+        <v>2.650550083075776</v>
       </c>
       <c r="H37">
-        <v>0.3602285193047989</v>
+        <v>0.3573059027381355</v>
       </c>
       <c r="I37">
-        <v>2.755755133246828</v>
+        <v>2.787725829561635</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1962,25 +1962,25 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>12.62409875506854</v>
+        <v>12.58018946991189</v>
       </c>
       <c r="E38">
-        <v>0.3048666109940026</v>
+        <v>0.3096938431626657</v>
       </c>
       <c r="F38">
-        <v>9.882380927791957</v>
+        <v>9.908835281489687</v>
       </c>
       <c r="G38">
-        <v>2.669648760520561</v>
+        <v>2.676209391331619</v>
       </c>
       <c r="H38">
-        <v>0.3378153902391786</v>
+        <v>0.3427269836880731</v>
       </c>
       <c r="I38">
-        <v>2.77446137766748</v>
+        <v>2.825435613837929</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -58,22 +58,22 @@
     <t>Coarse Aggregate</t>
   </si>
   <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
     <t>None dropped</t>
   </si>
   <si>
     <t>Fly Ash</t>
   </si>
   <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
     <t>Blast Furnace Slag</t>
   </si>
   <si>
+    <t>Cement</t>
+  </si>
+  <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>Cement</t>
   </si>
   <si>
     <t>Age</t>
@@ -492,22 +492,22 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>4.615975955003477</v>
+        <v>4.635452450152851</v>
       </c>
       <c r="E2">
-        <v>0.9070617568614504</v>
+        <v>0.9062758212236163</v>
       </c>
       <c r="F2">
-        <v>3.446674380973811</v>
+        <v>3.468200799151343</v>
       </c>
       <c r="G2">
-        <v>0.9819659895017278</v>
+        <v>0.9600945071064391</v>
       </c>
       <c r="H2">
-        <v>1.003812464507547</v>
+        <v>1.00885321381574</v>
       </c>
       <c r="I2">
-        <v>0.9827952800363985</v>
+        <v>0.9530611701288432</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -524,31 +524,31 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>4.672219729127157</v>
+        <v>4.668224225093641</v>
       </c>
       <c r="E3">
-        <v>0.9047831300942681</v>
+        <v>0.90494591212987</v>
       </c>
       <c r="F3">
-        <v>3.482277672088637</v>
+        <v>3.526925734912777</v>
       </c>
       <c r="G3">
-        <v>0.9939308424058694</v>
+        <v>0.9668821942733613</v>
       </c>
       <c r="H3">
-        <v>1.001290790615383</v>
+        <v>1.007372778133921</v>
       </c>
       <c r="I3">
-        <v>0.9929473114132432</v>
+        <v>0.9691987755426441</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -557,36 +557,39 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.700749317545845</v>
+        <v>4.720153461880835</v>
       </c>
       <c r="E4">
-        <v>0.9036167500733704</v>
+        <v>0.9028193901542323</v>
       </c>
       <c r="F4">
-        <v>3.507011532296086</v>
+        <v>3.583107340876945</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.9776377732667281</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1.005005564445626</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9846374742284382</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -595,39 +598,39 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>4.709216154700735</v>
+        <v>4.730442345044904</v>
       </c>
       <c r="E5">
-        <v>0.9032692326211673</v>
+        <v>0.9023952642412184</v>
       </c>
       <c r="F5">
-        <v>3.553034001650165</v>
+        <v>3.564146143328618</v>
       </c>
       <c r="G5">
-        <v>1.001801167554987</v>
+        <v>0.9797688058501293</v>
       </c>
       <c r="H5">
-        <v>0.9996154149951572</v>
+        <v>1.004533433577311</v>
       </c>
       <c r="I5">
-        <v>1.013122987743342</v>
+        <v>0.979426939380838</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -644,31 +647,31 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>4.829111105657602</v>
+        <v>4.730928155520158</v>
       </c>
       <c r="E6">
-        <v>0.8982810712347051</v>
+        <v>0.9023752154447376</v>
       </c>
       <c r="F6">
-        <v>3.603438471239982</v>
+        <v>3.509786516973126</v>
       </c>
       <c r="G6">
-        <v>1.027306665265608</v>
+        <v>0.9798694268733847</v>
       </c>
       <c r="H6">
-        <v>0.9940951970642067</v>
+        <v>1.004511115545329</v>
       </c>
       <c r="I6">
-        <v>1.027495472443104</v>
+        <v>0.9644889204763936</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -677,39 +680,36 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>4.828120998341417</v>
+      </c>
+      <c r="E7">
+        <v>0.8983227775979921</v>
+      </c>
+      <c r="F7">
+        <v>3.639011752710984</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>4.829202382903484</v>
-      </c>
-      <c r="E7">
-        <v>0.8982772259260281</v>
-      </c>
-      <c r="F7">
-        <v>3.624910237702341</v>
-      </c>
-      <c r="G7">
-        <v>1.027326082860488</v>
-      </c>
       <c r="H7">
-        <v>0.9940909416000658</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033617997637169</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -726,31 +726,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>4.837625006863951</v>
+        <v>4.837877931374019</v>
       </c>
       <c r="E8">
-        <v>0.8979220866065584</v>
+        <v>0.8979114124922498</v>
       </c>
       <c r="F8">
-        <v>3.625733514851485</v>
+        <v>3.587649660537481</v>
       </c>
       <c r="G8">
-        <v>1.029117844852353</v>
+        <v>1.002020855118576</v>
       </c>
       <c r="H8">
-        <v>0.9936979217501782</v>
+        <v>0.9995420742788664</v>
       </c>
       <c r="I8">
-        <v>1.033852749402757</v>
+        <v>0.9858857031348582</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -759,39 +759,39 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>4.890423130845654</v>
+        <v>4.901954861808942</v>
       </c>
       <c r="E9">
-        <v>0.8956817587178292</v>
+        <v>0.8951892090237701</v>
       </c>
       <c r="F9">
-        <v>3.634275689533238</v>
+        <v>3.662803172638691</v>
       </c>
       <c r="G9">
-        <v>1.040349697566692</v>
+        <v>1.015292463360568</v>
       </c>
       <c r="H9">
-        <v>0.9912186318426514</v>
+        <v>0.996511756517406</v>
       </c>
       <c r="I9">
-        <v>1.036288491231117</v>
+        <v>1.006537879387167</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -800,56 +800,56 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>4.901690693340296</v>
+        <v>4.925419298258888</v>
       </c>
       <c r="E10">
-        <v>0.8952005053171385</v>
+        <v>0.8941834012167443</v>
       </c>
       <c r="F10">
-        <v>3.62480018151815</v>
+        <v>3.711911600660065</v>
       </c>
       <c r="G10">
-        <v>1.04274666914154</v>
+        <v>1.020152415391183</v>
       </c>
       <c r="H10">
-        <v>0.9906860460969227</v>
+        <v>0.9953921057280593</v>
       </c>
       <c r="I10">
-        <v>1.03358661588003</v>
+        <v>1.020032869609386</v>
       </c>
       <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
       <c r="M10">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -858,34 +858,34 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>4.891805609762142</v>
+        <v>4.956195833623467</v>
       </c>
       <c r="E11">
-        <v>0.8956227707121471</v>
+        <v>0.8928568774183874</v>
       </c>
       <c r="F11">
-        <v>3.658922765794436</v>
+        <v>3.672979370972811</v>
       </c>
       <c r="G11">
-        <v>1.04064379512925</v>
+        <v>1.026526848711134</v>
       </c>
       <c r="H11">
-        <v>0.9911533519486284</v>
+        <v>0.9939154385083947</v>
       </c>
       <c r="I11">
-        <v>1.043316433977875</v>
+        <v>1.009334297487916</v>
       </c>
       <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
       <c r="M11">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -893,28 +893,28 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
       <c r="D12">
-        <v>4.976041837855699</v>
+        <v>5.002010116190342</v>
       </c>
       <c r="E12">
-        <v>0.8919970969683505</v>
+        <v>0.8908668943709235</v>
       </c>
       <c r="F12">
-        <v>3.74933513220965</v>
+        <v>3.741470830975954</v>
       </c>
       <c r="G12">
-        <v>1.058563539919542</v>
+        <v>1.03601589891982</v>
       </c>
       <c r="H12">
-        <v>0.9871409498506126</v>
+        <v>0.991700217991795</v>
       </c>
       <c r="I12">
-        <v>1.069096892805172</v>
+        <v>1.02815574261024</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -940,22 +940,22 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>5.097464401877337</v>
+        <v>5.174346185010657</v>
       </c>
       <c r="E13">
-        <v>0.886661937046529</v>
+        <v>0.8832173446977871</v>
       </c>
       <c r="F13">
-        <v>3.784171553512496</v>
+        <v>3.927142155822726</v>
       </c>
       <c r="G13">
-        <v>1.08439400987641</v>
+        <v>1.071710130460313</v>
       </c>
       <c r="H13">
-        <v>0.9812367211813363</v>
+        <v>0.9831848492803499</v>
       </c>
       <c r="I13">
-        <v>1.079030256577158</v>
+        <v>1.07917820075659</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -972,31 +972,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
       <c r="D14">
-        <v>5.117575346624197</v>
+        <v>5.231580247359825</v>
       </c>
       <c r="E14">
-        <v>0.8857658712166568</v>
+        <v>0.8806195626798896</v>
       </c>
       <c r="F14">
-        <v>3.822501193030018</v>
+        <v>3.967703811291843</v>
       </c>
       <c r="G14">
-        <v>1.088672252213604</v>
+        <v>1.083564444461315</v>
       </c>
       <c r="H14">
-        <v>0.9802450775118278</v>
+        <v>0.9802930356887546</v>
       </c>
       <c r="I14">
-        <v>1.089959687280349</v>
+        <v>1.090324538890536</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1005,39 +1005,39 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>5.153878697813854</v>
+        <v>5.23503000037855</v>
       </c>
       <c r="E15">
-        <v>0.8841394013293171</v>
+        <v>0.8804620696136191</v>
       </c>
       <c r="F15">
-        <v>3.855976104038972</v>
+        <v>3.935554331683168</v>
       </c>
       <c r="G15">
-        <v>1.096395138233957</v>
+        <v>1.084278957005617</v>
       </c>
       <c r="H15">
-        <v>0.9784451220692049</v>
+        <v>0.9801177166718066</v>
       </c>
       <c r="I15">
-        <v>1.099504825840825</v>
+        <v>1.081489865689845</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1046,48 +1046,48 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>5.426804913294486</v>
+        <v>5.260395238695814</v>
       </c>
       <c r="E16">
-        <v>0.8715435837009177</v>
+        <v>0.8793008713727546</v>
       </c>
       <c r="F16">
-        <v>4.014979690004713</v>
+        <v>4.068150179160775</v>
       </c>
       <c r="G16">
-        <v>1.154455289295814</v>
+        <v>1.089532602953177</v>
       </c>
       <c r="H16">
-        <v>0.9645057859210241</v>
+        <v>0.9788250874857033</v>
       </c>
       <c r="I16">
-        <v>1.144843594904307</v>
+        <v>1.117927188921578</v>
       </c>
       <c r="J16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M16">
         <v>49</v>
@@ -1098,283 +1098,283 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
-        <v>5.435382478271042</v>
+        <v>5.500600391696422</v>
       </c>
       <c r="E17">
-        <v>0.8711371883882231</v>
+        <v>0.8680262450292406</v>
       </c>
       <c r="F17">
-        <v>3.960869616925978</v>
+        <v>3.985022504714756</v>
       </c>
       <c r="G17">
-        <v>1.15628001220638</v>
+        <v>1.139283873288598</v>
       </c>
       <c r="H17">
-        <v>0.96405604291586</v>
+        <v>0.9662743355458928</v>
       </c>
       <c r="I17">
-        <v>1.129414483086329</v>
+        <v>1.095083713798397</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17">
         <v>15</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
       <c r="D18">
-        <v>5.291060872072746</v>
+        <v>5.492406055510883</v>
       </c>
       <c r="E18">
-        <v>0.8778895311507477</v>
+        <v>0.8684191591554595</v>
       </c>
       <c r="F18">
-        <v>4.146204603960397</v>
+        <v>4.061366120344178</v>
       </c>
       <c r="G18">
-        <v>1.125578182253524</v>
+        <v>1.137586663092674</v>
       </c>
       <c r="H18">
-        <v>0.9715286166170186</v>
+        <v>0.9667117219019079</v>
       </c>
       <c r="I18">
-        <v>1.182261468426317</v>
+        <v>1.116062930359746</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
       <c r="D19">
-        <v>5.447357230435562</v>
+        <v>5.389287955500202</v>
       </c>
       <c r="E19">
-        <v>0.8705687647127326</v>
+        <v>0.8733135516616782</v>
       </c>
       <c r="F19">
-        <v>3.986142402168788</v>
+        <v>4.138105501184737</v>
       </c>
       <c r="G19">
-        <v>1.158827425683594</v>
+        <v>1.11622885121387</v>
       </c>
       <c r="H19">
-        <v>0.9634269889774018</v>
+        <v>0.9721600892685973</v>
       </c>
       <c r="I19">
-        <v>1.136620842406814</v>
+        <v>1.13715090315439</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>5.557659626000539</v>
+        <v>5.454165905042397</v>
       </c>
       <c r="E20">
-        <v>0.8652740442107871</v>
+        <v>0.8702450092217708</v>
       </c>
       <c r="F20">
-        <v>4.065605577557755</v>
+        <v>4.132619536775108</v>
       </c>
       <c r="G20">
-        <v>1.182292279500254</v>
+        <v>1.129666366463484</v>
       </c>
       <c r="H20">
-        <v>0.9575675131525949</v>
+        <v>0.968744231943781</v>
       </c>
       <c r="I20">
-        <v>1.159279215399657</v>
+        <v>1.135643360782333</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>5.45686019464451</v>
+        <v>5.517465959539058</v>
       </c>
       <c r="E21">
-        <v>0.8701167828799392</v>
+        <v>0.8672157063692596</v>
       </c>
       <c r="F21">
-        <v>4.245646146632521</v>
+        <v>3.989584686468647</v>
       </c>
       <c r="G21">
-        <v>1.160849010662286</v>
+        <v>1.142777068228913</v>
       </c>
       <c r="H21">
-        <v>0.9629267970179712</v>
+        <v>0.9653720555634702</v>
       </c>
       <c r="I21">
-        <v>1.210616534201369</v>
+        <v>1.096337400805725</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22">
-        <v>5.497418014646902</v>
+        <v>5.570778843275235</v>
       </c>
       <c r="E22">
-        <v>0.8681789079119082</v>
+        <v>0.8646372347068089</v>
       </c>
       <c r="F22">
-        <v>4.175367604314004</v>
+        <v>4.05573799858557</v>
       </c>
       <c r="G22">
-        <v>1.169476958519664</v>
+        <v>1.153819228057652</v>
       </c>
       <c r="H22">
-        <v>0.9607822208269328</v>
+        <v>0.9625017379819152</v>
       </c>
       <c r="I22">
-        <v>1.190577095587803</v>
+        <v>1.114516323164973</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>5.594226183930463</v>
+        <v>5.545602168265271</v>
       </c>
       <c r="E23">
-        <v>0.8634953561989456</v>
+        <v>0.8658579915862181</v>
       </c>
       <c r="F23">
-        <v>4.059642411598302</v>
+        <v>4.091694460356749</v>
       </c>
       <c r="G23">
-        <v>1.190071158027861</v>
+        <v>1.148604637325851</v>
       </c>
       <c r="H23">
-        <v>0.9555991034128494</v>
+        <v>0.9638606669881166</v>
       </c>
       <c r="I23">
-        <v>1.157578860010307</v>
+        <v>1.124397154614443</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M23">
         <v>62</v>
@@ -1382,31 +1382,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>5.677789416171965</v>
+        <v>5.651306440616732</v>
       </c>
       <c r="E24">
-        <v>0.8593868476580151</v>
+        <v>0.8606955154495662</v>
       </c>
       <c r="F24">
-        <v>4.165031950730786</v>
+        <v>4.119025899339934</v>
       </c>
       <c r="G24">
-        <v>1.207847735036467</v>
+        <v>1.170498096994276</v>
       </c>
       <c r="H24">
-        <v>0.9510523654948141</v>
+        <v>0.9581138727785166</v>
       </c>
       <c r="I24">
-        <v>1.187629955697319</v>
+        <v>1.131907830820098</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1426,28 +1426,28 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.730974451425371</v>
+        <v>5.722259912459883</v>
       </c>
       <c r="E25">
-        <v>0.8567402042835786</v>
+        <v>0.8571755556846959</v>
       </c>
       <c r="F25">
-        <v>4.408913099952853</v>
+        <v>4.362810003536068</v>
       </c>
       <c r="G25">
-        <v>1.219161896175604</v>
+        <v>1.185193973892872</v>
       </c>
       <c r="H25">
-        <v>0.9481234209237648</v>
+        <v>0.9541955041779984</v>
       </c>
       <c r="I25">
-        <v>1.257170972878518</v>
+        <v>1.198899673870487</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1467,110 +1467,110 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26">
-        <v>5.750333845155195</v>
+        <v>5.835853453668772</v>
       </c>
       <c r="E26">
-        <v>0.855770698254621</v>
+        <v>0.8514488090241139</v>
       </c>
       <c r="F26">
-        <v>4.274819716721671</v>
+        <v>4.330764066478076</v>
       </c>
       <c r="G26">
-        <v>1.223280259530477</v>
+        <v>1.208721458238834</v>
       </c>
       <c r="H26">
-        <v>0.9470505036401058</v>
+        <v>0.9478205721342016</v>
       </c>
       <c r="I26">
-        <v>1.218935175249592</v>
+        <v>1.190093454150499</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26">
         <v>24</v>
       </c>
       <c r="M26">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>5.833027247806153</v>
+        <v>5.815295724459639</v>
       </c>
       <c r="E27">
-        <v>0.8515926558805658</v>
+        <v>0.8524935563946937</v>
       </c>
       <c r="F27">
-        <v>4.424382497642624</v>
+        <v>4.398903231966052</v>
       </c>
       <c r="G27">
-        <v>1.240871795914326</v>
+        <v>1.204463543158372</v>
       </c>
       <c r="H27">
-        <v>0.9424268151419499</v>
+        <v>0.9489835698858263</v>
       </c>
       <c r="I27">
-        <v>1.261581964273132</v>
+        <v>1.20881808878165</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27">
         <v>26</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>5.870341800048934</v>
+        <v>5.841842527649399</v>
       </c>
       <c r="E28">
-        <v>0.8496878245860927</v>
+        <v>0.8511437497551961</v>
       </c>
       <c r="F28">
-        <v>4.468455796793965</v>
+        <v>4.500840347123999</v>
       </c>
       <c r="G28">
-        <v>1.248809796799313</v>
+        <v>1.20996191471925</v>
       </c>
       <c r="H28">
-        <v>0.9403188071902177</v>
+        <v>0.9474809845421631</v>
       </c>
       <c r="I28">
-        <v>1.274149159660279</v>
+        <v>1.236830395991706</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1593,25 +1593,25 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>6.73974004279321</v>
+        <v>6.787602079847936</v>
       </c>
       <c r="E29">
-        <v>0.8018684330149815</v>
+        <v>0.7990443917690631</v>
       </c>
       <c r="F29">
-        <v>5.019819852663836</v>
+        <v>5.045324268033946</v>
       </c>
       <c r="G29">
-        <v>1.433758660058026</v>
+        <v>1.40584755066819</v>
       </c>
       <c r="H29">
-        <v>0.8873988147628656</v>
+        <v>0.889484728312926</v>
       </c>
       <c r="I29">
-        <v>1.431366793760526</v>
+        <v>1.386454513172509</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1620,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1631,28 +1631,28 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
       <c r="D30">
-        <v>7.072329492756954</v>
+        <v>6.926292460132045</v>
       </c>
       <c r="E30">
-        <v>0.7818313449133223</v>
+        <v>0.7907482812852634</v>
       </c>
       <c r="F30">
-        <v>5.021346984698469</v>
+        <v>4.974910028877887</v>
       </c>
       <c r="G30">
-        <v>1.504511092807914</v>
+        <v>1.434573090134113</v>
       </c>
       <c r="H30">
-        <v>0.8652244935143582</v>
+        <v>0.8802496174032568</v>
       </c>
       <c r="I30">
-        <v>1.431802244862003</v>
+        <v>1.367104688565979</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1661,39 +1661,39 @@
         <v>29</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>12.21592547389375</v>
+        <v>12.28297445030143</v>
       </c>
       <c r="E31">
-        <v>0.3490912167946612</v>
+        <v>0.3419263830296336</v>
       </c>
       <c r="F31">
-        <v>9.661868109218725</v>
+        <v>9.748335463632904</v>
       </c>
       <c r="G31">
-        <v>2.598718767728591</v>
+        <v>2.544048596653015</v>
       </c>
       <c r="H31">
-        <v>0.386326633239497</v>
+        <v>0.3806275333949607</v>
       </c>
       <c r="I31">
-        <v>2.755014638601138</v>
+        <v>2.678841434455552</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1702,39 +1702,39 @@
         <v>30</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>12.26780833599666</v>
+        <v>12.32953767935722</v>
       </c>
       <c r="E32">
-        <v>0.343550461658445</v>
+        <v>0.3369275754924677</v>
       </c>
       <c r="F32">
-        <v>9.652851916127052</v>
+        <v>9.710832137801692</v>
       </c>
       <c r="G32">
-        <v>2.609755914914732</v>
+        <v>2.55369276859315</v>
       </c>
       <c r="H32">
-        <v>0.3801948797767969</v>
+        <v>0.3750629327170928</v>
       </c>
       <c r="I32">
-        <v>2.752443733712847</v>
+        <v>2.668535524945017</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,89 +1743,89 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>12.35255863624692</v>
+        <v>12.37481191210019</v>
       </c>
       <c r="E33">
-        <v>0.3344491675223418</v>
+        <v>0.3320490126205927</v>
       </c>
       <c r="F33">
-        <v>9.842050033866023</v>
+        <v>9.68702531855658</v>
       </c>
       <c r="G33">
-        <v>2.627785019324518</v>
+        <v>2.56306996372942</v>
       </c>
       <c r="H33">
-        <v>0.3701228064831531</v>
+        <v>0.3696321866717575</v>
       </c>
       <c r="I33">
-        <v>2.80639226396336</v>
+        <v>2.661993413827246</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>12.41338397880538</v>
+        <v>12.34494377976232</v>
       </c>
       <c r="E34">
-        <v>0.3278785406042339</v>
+        <v>0.3352694853349699</v>
       </c>
       <c r="F34">
-        <v>9.809647576565347</v>
+        <v>9.883434846264846</v>
       </c>
       <c r="G34">
-        <v>2.640724518636133</v>
+        <v>2.556883678765119</v>
       </c>
       <c r="H34">
-        <v>0.3628513311396799</v>
+        <v>0.3732171705936707</v>
       </c>
       <c r="I34">
-        <v>2.797152928135039</v>
+        <v>2.715966728852113</v>
       </c>
       <c r="J34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M34">
         <v>101</v>
@@ -1842,63 +1842,63 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>12.41152468760964</v>
+        <v>12.3447064559734</v>
       </c>
       <c r="E35">
-        <v>0.3280798678048703</v>
+        <v>0.3352950431424067</v>
       </c>
       <c r="F35">
-        <v>9.942281044236291</v>
+        <v>9.917830845688965</v>
       </c>
       <c r="G35">
-        <v>2.640328987823886</v>
+        <v>2.55683452428266</v>
       </c>
       <c r="H35">
-        <v>0.3630741326765262</v>
+        <v>0.3732456211774409</v>
       </c>
       <c r="I35">
-        <v>2.834972440973683</v>
+        <v>2.72541874543285</v>
       </c>
       <c r="J35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L35">
         <v>37</v>
       </c>
       <c r="M35">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>12.41759128257572</v>
+        <v>12.41920448937955</v>
       </c>
       <c r="E36">
-        <v>0.3274228552930418</v>
+        <v>0.3272480908835113</v>
       </c>
       <c r="F36">
-        <v>9.832498310850317</v>
+        <v>9.81886716117628</v>
       </c>
       <c r="G36">
-        <v>2.641619546957392</v>
+        <v>2.572264550462978</v>
       </c>
       <c r="H36">
-        <v>0.3623470406745518</v>
+        <v>0.3642878696213555</v>
       </c>
       <c r="I36">
-        <v>2.803668656433774</v>
+        <v>2.698223536613049</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1924,22 +1924,22 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>12.45957149413953</v>
+        <v>12.4322362784124</v>
       </c>
       <c r="E37">
-        <v>0.3228675986142657</v>
+        <v>0.3258354785440163</v>
       </c>
       <c r="F37">
-        <v>9.776586633152325</v>
+        <v>9.794993089771888</v>
       </c>
       <c r="G37">
-        <v>2.650550083075776</v>
+        <v>2.574963693470646</v>
       </c>
       <c r="H37">
-        <v>0.3573059027381355</v>
+        <v>0.3627153698754711</v>
       </c>
       <c r="I37">
-        <v>2.787725829561635</v>
+        <v>2.691662944609847</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1962,25 +1962,25 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>12.58018946991189</v>
+        <v>12.61620237341815</v>
       </c>
       <c r="E38">
-        <v>0.3096938431626657</v>
+        <v>0.3057359517597033</v>
       </c>
       <c r="F38">
-        <v>9.908835281489687</v>
+        <v>9.915695682984508</v>
       </c>
       <c r="G38">
-        <v>2.676209391331619</v>
+        <v>2.613066735020132</v>
       </c>
       <c r="H38">
-        <v>0.3427269836880731</v>
+        <v>0.3403408656487646</v>
       </c>
       <c r="I38">
-        <v>2.825435613837929</v>
+        <v>2.724832002973756</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,19 +52,19 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>None dropped</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
     <t>Fine Aggregate</t>
   </si>
   <si>
     <t>Coarse Aggregate</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>None dropped</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -483,31 +483,28 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2">
-        <v>4.635452450152851</v>
+        <v>4.023912703644717</v>
       </c>
       <c r="E2">
-        <v>0.9062758212236163</v>
+        <v>0.9293740205776249</v>
       </c>
       <c r="F2">
-        <v>3.468200799151343</v>
+        <v>2.934760313531351</v>
       </c>
       <c r="G2">
-        <v>0.9600945071064391</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1.00885321381574</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.9530611701288432</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -516,15 +513,15 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -533,31 +530,31 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>4.668224225093641</v>
+        <v>4.086477661955731</v>
       </c>
       <c r="E3">
-        <v>0.90494591212987</v>
+        <v>0.9271607204948682</v>
       </c>
       <c r="F3">
-        <v>3.526925734912777</v>
+        <v>2.921929352310228</v>
       </c>
       <c r="G3">
-        <v>0.9668821942733613</v>
+        <v>1.015548289169977</v>
       </c>
       <c r="H3">
-        <v>1.007372778133921</v>
+        <v>0.9976185044624111</v>
       </c>
       <c r="I3">
-        <v>0.9691987755426441</v>
+        <v>0.99562793555509</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -565,274 +562,277 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>4.720153461880835</v>
+        <v>4.037129681199474</v>
       </c>
       <c r="E4">
-        <v>0.9028193901542323</v>
+        <v>0.928909301244867</v>
       </c>
       <c r="F4">
-        <v>3.583107340876945</v>
+        <v>2.976835344471945</v>
       </c>
       <c r="G4">
-        <v>0.9776377732667281</v>
+        <v>1.003284608421745</v>
       </c>
       <c r="H4">
-        <v>1.005005564445626</v>
+        <v>0.9994999652212475</v>
       </c>
       <c r="I4">
-        <v>0.9846374742284382</v>
+        <v>1.014336786124099</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
-        <v>4.730442345044904</v>
+        <v>4.118974931089728</v>
       </c>
       <c r="E5">
-        <v>0.9023952642412184</v>
+        <v>0.9259976212049426</v>
       </c>
       <c r="F5">
-        <v>3.564146143328618</v>
+        <v>2.973590191831685</v>
       </c>
       <c r="G5">
-        <v>0.9797688058501293</v>
+        <v>1.023624326481761</v>
       </c>
       <c r="H5">
-        <v>1.004533433577311</v>
+        <v>0.9963670176937119</v>
       </c>
       <c r="I5">
-        <v>0.979426939380838</v>
+        <v>1.013231022009293</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>4.730928155520158</v>
+        <v>4.101867105992707</v>
       </c>
       <c r="E6">
-        <v>0.9023752154447376</v>
+        <v>0.9266110702400239</v>
       </c>
       <c r="F6">
-        <v>3.509786516973126</v>
+        <v>3.046481796617158</v>
       </c>
       <c r="G6">
-        <v>0.9798694268733847</v>
+        <v>1.019372786660452</v>
       </c>
       <c r="H6">
-        <v>1.004511115545329</v>
+        <v>0.9970270846005748</v>
       </c>
       <c r="I6">
-        <v>0.9644889204763936</v>
+        <v>1.038068350103649</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
       <c r="D7">
-        <v>4.828120998341417</v>
+        <v>4.124700930397778</v>
       </c>
       <c r="E7">
-        <v>0.8983227775979921</v>
+        <v>0.9257917291533597</v>
       </c>
       <c r="F7">
-        <v>3.639011752710984</v>
+        <v>3.005284344059408</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.025047319406748</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.9961454792742768</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1.024030592959463</v>
       </c>
       <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
       <c r="M7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>4.215469317771417</v>
+      </c>
+      <c r="E8">
+        <v>0.9224897302976194</v>
+      </c>
+      <c r="F8">
+        <v>2.996542749587459</v>
+      </c>
+      <c r="G8">
+        <v>1.047604565067526</v>
+      </c>
+      <c r="H8">
+        <v>0.992592551408176</v>
+      </c>
+      <c r="I8">
+        <v>1.021051952955492</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
         <v>21</v>
-      </c>
-      <c r="D8">
-        <v>4.837877931374019</v>
-      </c>
-      <c r="E8">
-        <v>0.8979114124922498</v>
-      </c>
-      <c r="F8">
-        <v>3.587649660537481</v>
-      </c>
-      <c r="G8">
-        <v>1.002020855118576</v>
-      </c>
-      <c r="H8">
-        <v>0.9995420742788664</v>
-      </c>
-      <c r="I8">
-        <v>0.9858857031348582</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>4.108802980799044</v>
+      </c>
+      <c r="E9">
+        <v>0.9263626727344578</v>
+      </c>
+      <c r="F9">
+        <v>3.079776041666662</v>
+      </c>
+      <c r="G9">
+        <v>1.021096450993441</v>
+      </c>
+      <c r="H9">
+        <v>0.9967598106074717</v>
+      </c>
+      <c r="I9">
+        <v>1.049413142009139</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>4.901954861808942</v>
-      </c>
-      <c r="E9">
-        <v>0.8951892090237701</v>
-      </c>
-      <c r="F9">
-        <v>3.662803172638691</v>
-      </c>
-      <c r="G9">
-        <v>1.015292463360568</v>
-      </c>
-      <c r="H9">
-        <v>0.996511756517406</v>
-      </c>
-      <c r="I9">
-        <v>1.006537879387167</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
       <c r="M9">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>4.925419298258888</v>
+        <v>4.218828293734886</v>
       </c>
       <c r="E10">
-        <v>0.8941834012167443</v>
+        <v>0.9223661574085847</v>
       </c>
       <c r="F10">
-        <v>3.711911600660065</v>
+        <v>3.070349345090756</v>
       </c>
       <c r="G10">
-        <v>1.020152415391183</v>
+        <v>1.048439318754013</v>
       </c>
       <c r="H10">
-        <v>0.9953921057280593</v>
+        <v>0.9924595878366768</v>
       </c>
       <c r="I10">
-        <v>1.020032869609386</v>
+        <v>1.04620105803334</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -849,40 +849,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>4.956195833623467</v>
+        <v>4.255586574131873</v>
       </c>
       <c r="E11">
-        <v>0.8928568774183874</v>
+        <v>0.9210074301436303</v>
       </c>
       <c r="F11">
-        <v>3.672979370972811</v>
+        <v>3.037727645420792</v>
       </c>
       <c r="G11">
-        <v>1.026526848711134</v>
+        <v>1.057574278457213</v>
       </c>
       <c r="H11">
-        <v>0.9939154385083947</v>
+        <v>0.9909976067237229</v>
       </c>
       <c r="I11">
-        <v>1.009334297487916</v>
+        <v>1.035085431479596</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>29</v>
@@ -890,40 +890,40 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
       <c r="D12">
-        <v>5.002010116190342</v>
+        <v>4.242892294454348</v>
       </c>
       <c r="E12">
-        <v>0.8908668943709235</v>
+        <v>0.9214779919171583</v>
       </c>
       <c r="F12">
-        <v>3.741470830975954</v>
+        <v>3.123407229785478</v>
       </c>
       <c r="G12">
-        <v>1.03601589891982</v>
+        <v>1.054419567952179</v>
       </c>
       <c r="H12">
-        <v>0.991700217991795</v>
+        <v>0.991503927928221</v>
       </c>
       <c r="I12">
-        <v>1.02815574261024</v>
+        <v>1.064280178311097</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12">
         <v>33</v>
@@ -931,31 +931,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>5.174346185010657</v>
+        <v>4.269643823856351</v>
       </c>
       <c r="E13">
-        <v>0.8832173446977871</v>
+        <v>0.9204847044258484</v>
       </c>
       <c r="F13">
-        <v>3.927142155822726</v>
+        <v>3.06630337252475</v>
       </c>
       <c r="G13">
-        <v>1.071710130460313</v>
+        <v>1.061067706560597</v>
       </c>
       <c r="H13">
-        <v>0.9831848492803499</v>
+        <v>0.990435157477017</v>
       </c>
       <c r="I13">
-        <v>1.07917820075659</v>
+        <v>1.044822419870846</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -964,39 +964,39 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>5.231580247359825</v>
+        <v>4.397465134505631</v>
       </c>
       <c r="E14">
-        <v>0.8806195626798896</v>
+        <v>0.9156525043761611</v>
       </c>
       <c r="F14">
-        <v>3.967703811291843</v>
+        <v>3.070598752062704</v>
       </c>
       <c r="G14">
-        <v>1.083564444461315</v>
+        <v>1.092833134904384</v>
       </c>
       <c r="H14">
-        <v>0.9802930356887546</v>
+        <v>0.9852357437397103</v>
       </c>
       <c r="I14">
-        <v>1.090324538890536</v>
+        <v>1.046286041795318</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1005,39 +1005,39 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15">
-        <v>5.23503000037855</v>
+        <v>4.423270314367345</v>
       </c>
       <c r="E15">
-        <v>0.8804620696136191</v>
+        <v>0.9146596648236984</v>
       </c>
       <c r="F15">
-        <v>3.935554331683168</v>
+        <v>3.276859581270624</v>
       </c>
       <c r="G15">
-        <v>1.084278957005617</v>
+        <v>1.099246092083684</v>
       </c>
       <c r="H15">
-        <v>0.9801177166718066</v>
+        <v>0.9841674552675992</v>
       </c>
       <c r="I15">
-        <v>1.081489865689845</v>
+        <v>1.11656804344871</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1046,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>5.260395238695814</v>
+        <v>4.55012056208721</v>
       </c>
       <c r="E16">
-        <v>0.8793008713727546</v>
+        <v>0.9096947101479168</v>
       </c>
       <c r="F16">
-        <v>4.068150179160775</v>
+        <v>3.348804610148513</v>
       </c>
       <c r="G16">
-        <v>1.089532602953177</v>
+        <v>1.130770197366825</v>
       </c>
       <c r="H16">
-        <v>0.9788250874857033</v>
+        <v>0.9788251984734015</v>
       </c>
       <c r="I16">
-        <v>1.117927188921578</v>
+        <v>1.141082832116858</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1087,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1104,186 +1104,186 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>5.500600391696422</v>
+        <v>4.762390875467752</v>
       </c>
       <c r="E17">
-        <v>0.8680262450292406</v>
+        <v>0.9010724035251678</v>
       </c>
       <c r="F17">
-        <v>3.985022504714756</v>
+        <v>3.333012582508249</v>
       </c>
       <c r="G17">
-        <v>1.139283873288598</v>
+        <v>1.183522413683117</v>
       </c>
       <c r="H17">
-        <v>0.9662743355458928</v>
+        <v>0.9695476563516732</v>
       </c>
       <c r="I17">
-        <v>1.095083713798397</v>
+        <v>1.135701804041942</v>
       </c>
       <c r="J17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17">
         <v>15</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>5.492406055510883</v>
+        <v>4.64653423342105</v>
       </c>
       <c r="E18">
-        <v>0.8684191591554595</v>
+        <v>0.9058271605789997</v>
       </c>
       <c r="F18">
-        <v>4.061366120344178</v>
+        <v>3.411509900990095</v>
       </c>
       <c r="G18">
-        <v>1.137586663092674</v>
+        <v>1.154730377031387</v>
       </c>
       <c r="H18">
-        <v>0.9667117219019079</v>
+        <v>0.9746637419625843</v>
       </c>
       <c r="I18">
-        <v>1.116062930359746</v>
+        <v>1.162449241684435</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>4.90529748649611</v>
+      </c>
+      <c r="E19">
+        <v>0.8950462201158278</v>
+      </c>
+      <c r="F19">
+        <v>3.439082405115509</v>
+      </c>
+      <c r="G19">
+        <v>1.219036755457708</v>
+      </c>
+      <c r="H19">
+        <v>0.9630635248008529</v>
+      </c>
+      <c r="I19">
+        <v>1.171844388537923</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>5.389287955500202</v>
-      </c>
-      <c r="E19">
-        <v>0.8733135516616782</v>
-      </c>
-      <c r="F19">
-        <v>4.138105501184737</v>
-      </c>
-      <c r="G19">
-        <v>1.11622885121387</v>
-      </c>
-      <c r="H19">
-        <v>0.9721600892685973</v>
-      </c>
-      <c r="I19">
-        <v>1.13715090315439</v>
-      </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="K19">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <v>23</v>
-      </c>
       <c r="M19">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>4.848175774660595</v>
+      </c>
+      <c r="E20">
+        <v>0.8974763410936403</v>
+      </c>
+      <c r="F20">
+        <v>3.624888356023104</v>
+      </c>
+      <c r="G20">
+        <v>1.204841191079839</v>
+      </c>
+      <c r="H20">
+        <v>0.9656783181176514</v>
+      </c>
+      <c r="I20">
+        <v>1.23515652685835</v>
+      </c>
+      <c r="J20">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>5.454165905042397</v>
-      </c>
-      <c r="E20">
-        <v>0.8702450092217708</v>
-      </c>
-      <c r="F20">
-        <v>4.132619536775108</v>
-      </c>
-      <c r="G20">
-        <v>1.129666366463484</v>
-      </c>
-      <c r="H20">
-        <v>0.968744231943781</v>
-      </c>
-      <c r="I20">
-        <v>1.135643360782333</v>
-      </c>
-      <c r="J20">
-        <v>17</v>
-      </c>
       <c r="K20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>5.517465959539058</v>
+        <v>4.90761037443861</v>
       </c>
       <c r="E21">
-        <v>0.8672157063692596</v>
+        <v>0.8949472236487943</v>
       </c>
       <c r="F21">
-        <v>3.989584686468647</v>
+        <v>3.530744198638611</v>
       </c>
       <c r="G21">
-        <v>1.142777068228913</v>
+        <v>1.21961154127262</v>
       </c>
       <c r="H21">
-        <v>0.9653720555634702</v>
+        <v>0.9629570052889648</v>
       </c>
       <c r="I21">
-        <v>1.096337400805725</v>
+        <v>1.203077533234775</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -1292,39 +1292,39 @@
         <v>20</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>5.570778843275235</v>
+        <v>4.955609361379822</v>
       </c>
       <c r="E22">
-        <v>0.8646372347068089</v>
+        <v>0.8928822326512498</v>
       </c>
       <c r="F22">
-        <v>4.05573799858557</v>
+        <v>3.501563015676566</v>
       </c>
       <c r="G22">
-        <v>1.153819228057652</v>
+        <v>1.231539977716516</v>
       </c>
       <c r="H22">
-        <v>0.9625017379819152</v>
+        <v>0.9607350892983917</v>
       </c>
       <c r="I22">
-        <v>1.114516323164973</v>
+        <v>1.193134239798681</v>
       </c>
       <c r="J22">
         <v>22</v>
@@ -1333,39 +1333,39 @@
         <v>22</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>5.545602168265271</v>
+        <v>4.945665064118306</v>
       </c>
       <c r="E23">
-        <v>0.8658579915862181</v>
+        <v>0.8933117024003198</v>
       </c>
       <c r="F23">
-        <v>4.091694460356749</v>
+        <v>3.685487881600659</v>
       </c>
       <c r="G23">
-        <v>1.148604637325851</v>
+        <v>1.229068677269936</v>
       </c>
       <c r="H23">
-        <v>0.9638606669881166</v>
+        <v>0.9611971957695873</v>
       </c>
       <c r="I23">
-        <v>1.124397154614443</v>
+        <v>1.255805410959088</v>
       </c>
       <c r="J23">
         <v>21</v>
@@ -1374,39 +1374,39 @@
         <v>21</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24">
-        <v>5.651306440616732</v>
+        <v>4.963103507103882</v>
       </c>
       <c r="E24">
-        <v>0.8606955154495662</v>
+        <v>0.8925580088936343</v>
       </c>
       <c r="F24">
-        <v>4.119025899339934</v>
+        <v>3.608453640676567</v>
       </c>
       <c r="G24">
-        <v>1.170498096994276</v>
+        <v>1.233402380376811</v>
       </c>
       <c r="H24">
-        <v>0.9581138727785166</v>
+        <v>0.9603862267840146</v>
       </c>
       <c r="I24">
-        <v>1.131907830820098</v>
+        <v>1.229556507234681</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -1415,130 +1415,130 @@
         <v>23</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>5.722259912459883</v>
+        <v>5.043949356969521</v>
       </c>
       <c r="E25">
-        <v>0.8571755556846959</v>
+        <v>0.8890291742566753</v>
       </c>
       <c r="F25">
-        <v>4.362810003536068</v>
+        <v>3.545370101072607</v>
       </c>
       <c r="G25">
-        <v>1.185193973892872</v>
+        <v>1.25349373320174</v>
       </c>
       <c r="H25">
-        <v>0.9541955041779984</v>
+        <v>0.9565892251906564</v>
       </c>
       <c r="I25">
-        <v>1.198899673870487</v>
+        <v>1.208061211924499</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>5.835853453668772</v>
+        <v>4.966425607783491</v>
       </c>
       <c r="E26">
-        <v>0.8514488090241139</v>
+        <v>0.8924141261116397</v>
       </c>
       <c r="F26">
-        <v>4.330764066478076</v>
+        <v>3.726844420379536</v>
       </c>
       <c r="G26">
-        <v>1.208721458238834</v>
+        <v>1.234227970026556</v>
       </c>
       <c r="H26">
-        <v>0.9478205721342016</v>
+        <v>0.9602314099085599</v>
       </c>
       <c r="I26">
-        <v>1.190093454150499</v>
+        <v>1.269897375671911</v>
       </c>
       <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26">
         <v>26</v>
       </c>
-      <c r="K26">
-        <v>26</v>
-      </c>
-      <c r="L26">
-        <v>24</v>
-      </c>
       <c r="M26">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>5.815295724459639</v>
+        <v>5.216686812544451</v>
       </c>
       <c r="E27">
-        <v>0.8524935563946937</v>
+        <v>0.8812983074815538</v>
       </c>
       <c r="F27">
-        <v>4.398903231966052</v>
+        <v>3.5668119585396</v>
       </c>
       <c r="G27">
-        <v>1.204463543158372</v>
+        <v>1.296421467548081</v>
       </c>
       <c r="H27">
-        <v>0.9489835698858263</v>
+        <v>0.9482708661619452</v>
       </c>
       <c r="I27">
-        <v>1.20881808878165</v>
+        <v>1.215367381824689</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M27">
         <v>76</v>
@@ -1546,43 +1546,43 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.841842527649399</v>
+        <v>5.152497481142297</v>
       </c>
       <c r="E28">
-        <v>0.8511437497551961</v>
+        <v>0.8842014932629327</v>
       </c>
       <c r="F28">
-        <v>4.500840347123999</v>
+        <v>3.745848752062702</v>
       </c>
       <c r="G28">
-        <v>1.20996191471925</v>
+        <v>1.280469498375387</v>
       </c>
       <c r="H28">
-        <v>0.9474809845421631</v>
+        <v>0.951394673926202</v>
       </c>
       <c r="I28">
-        <v>1.236830395991706</v>
+        <v>1.276372974921206</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>6.787602079847936</v>
+        <v>5.572754769308098</v>
       </c>
       <c r="E29">
-        <v>0.7990443917690631</v>
+        <v>0.8645411927514965</v>
       </c>
       <c r="F29">
-        <v>5.045324268033946</v>
+        <v>4.104414964933992</v>
       </c>
       <c r="G29">
-        <v>1.40584755066819</v>
+        <v>1.384909459954361</v>
       </c>
       <c r="H29">
-        <v>0.889484728312926</v>
+        <v>0.9302403269398112</v>
       </c>
       <c r="I29">
-        <v>1.386454513172509</v>
+        <v>1.398552020077992</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1620,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.926292460132045</v>
+        <v>6.582099584114223</v>
       </c>
       <c r="E30">
-        <v>0.7907482812852634</v>
+        <v>0.8110285131657337</v>
       </c>
       <c r="F30">
-        <v>4.974910028877887</v>
+        <v>4.307892533003299</v>
       </c>
       <c r="G30">
-        <v>1.434573090134113</v>
+        <v>1.635746117989188</v>
       </c>
       <c r="H30">
-        <v>0.8802496174032568</v>
+        <v>0.8726610548696669</v>
       </c>
       <c r="I30">
-        <v>1.367104688565979</v>
+        <v>1.467885644064636</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1661,15 +1661,15 @@
         <v>29</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1678,22 +1678,22 @@
         <v>13</v>
       </c>
       <c r="D31">
-        <v>12.28297445030143</v>
+        <v>12.54635187630595</v>
       </c>
       <c r="E31">
-        <v>0.3419263830296336</v>
+        <v>0.3134023541091807</v>
       </c>
       <c r="F31">
-        <v>9.748335463632904</v>
+        <v>9.708519922059164</v>
       </c>
       <c r="G31">
-        <v>2.544048596653015</v>
+        <v>3.117948325504654</v>
       </c>
       <c r="H31">
-        <v>0.3806275333949607</v>
+        <v>0.3372187592616316</v>
       </c>
       <c r="I31">
-        <v>2.678841434455552</v>
+        <v>3.308113401048774</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1702,39 +1702,39 @@
         <v>30</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>12.32953767935722</v>
+        <v>12.57698297198833</v>
       </c>
       <c r="E32">
-        <v>0.3369275754924677</v>
+        <v>0.3100456952829517</v>
       </c>
       <c r="F32">
-        <v>9.710832137801692</v>
+        <v>9.794629202027336</v>
       </c>
       <c r="G32">
-        <v>2.55369276859315</v>
+        <v>3.125560591957313</v>
       </c>
       <c r="H32">
-        <v>0.3750629327170928</v>
+        <v>0.3336070176464067</v>
       </c>
       <c r="I32">
-        <v>2.668535524945017</v>
+        <v>3.337454563790803</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,130 +1743,130 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>12.37481191210019</v>
+        <v>12.68405382137219</v>
       </c>
       <c r="E33">
-        <v>0.3320490126205927</v>
+        <v>0.298248200279342</v>
       </c>
       <c r="F33">
-        <v>9.68702531855658</v>
+        <v>9.790771575907581</v>
       </c>
       <c r="G33">
-        <v>2.56306996372942</v>
+        <v>3.152169233165378</v>
       </c>
       <c r="H33">
-        <v>0.3696321866717575</v>
+        <v>0.3209129948499901</v>
       </c>
       <c r="I33">
-        <v>2.661993413827246</v>
+        <v>3.336140103423471</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>12.34494377976232</v>
+        <v>12.67975009865823</v>
       </c>
       <c r="E34">
-        <v>0.3352694853349699</v>
+        <v>0.29872433083384</v>
       </c>
       <c r="F34">
-        <v>9.883434846264846</v>
+        <v>9.882345876797489</v>
       </c>
       <c r="G34">
-        <v>2.556883678765119</v>
+        <v>3.151099696366018</v>
       </c>
       <c r="H34">
-        <v>0.3732171705936707</v>
+        <v>0.3214253080241868</v>
       </c>
       <c r="I34">
-        <v>2.715966728852113</v>
+        <v>3.367343435589197</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>12.3447064559734</v>
+        <v>12.71972002189844</v>
       </c>
       <c r="E35">
-        <v>0.3352950431424067</v>
+        <v>0.2942961499423885</v>
       </c>
       <c r="F35">
-        <v>9.917830845688965</v>
+        <v>9.871572243340394</v>
       </c>
       <c r="G35">
-        <v>2.55683452428266</v>
+        <v>3.161032795362925</v>
       </c>
       <c r="H35">
-        <v>0.3732456211774409</v>
+        <v>0.3166606160988635</v>
       </c>
       <c r="I35">
-        <v>2.72541874543285</v>
+        <v>3.363672391856113</v>
       </c>
       <c r="J35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M35">
         <v>101</v>
@@ -1874,31 +1874,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>12.41920448937955</v>
+        <v>12.72259290207138</v>
       </c>
       <c r="E36">
-        <v>0.3272480908835113</v>
+        <v>0.293977332932232</v>
       </c>
       <c r="F36">
-        <v>9.81886716117628</v>
+        <v>10.01288099658179</v>
       </c>
       <c r="G36">
-        <v>2.572264550462978</v>
+        <v>3.16174674727603</v>
       </c>
       <c r="H36">
-        <v>0.3642878696213555</v>
+        <v>0.3163175712072511</v>
       </c>
       <c r="I36">
-        <v>2.698223536613049</v>
+        <v>3.41182240689818</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,39 +1907,39 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>12.4322362784124</v>
+        <v>12.73970804943954</v>
       </c>
       <c r="E37">
-        <v>0.3258354785440163</v>
+        <v>0.2920764924495656</v>
       </c>
       <c r="F37">
-        <v>9.794993089771888</v>
+        <v>9.922924220591693</v>
       </c>
       <c r="G37">
-        <v>2.574963693470646</v>
+        <v>3.166000106786702</v>
       </c>
       <c r="H37">
-        <v>0.3627153698754711</v>
+        <v>0.3142722800321383</v>
       </c>
       <c r="I37">
-        <v>2.691662944609847</v>
+        <v>3.38117023555208</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>12.61620237341815</v>
+        <v>13.06603696683121</v>
       </c>
       <c r="E38">
-        <v>0.3057359517597033</v>
+        <v>0.2553449348745445</v>
       </c>
       <c r="F38">
-        <v>9.915695682984508</v>
+        <v>10.10476659373526</v>
       </c>
       <c r="G38">
-        <v>2.613066735020132</v>
+        <v>3.247097521523381</v>
       </c>
       <c r="H38">
-        <v>0.3403408656487646</v>
+        <v>0.27474937885163</v>
       </c>
       <c r="I38">
-        <v>2.724832002973756</v>
+        <v>3.443131811189157</v>
       </c>
       <c r="J38">
         <v>37</v>
@@ -1989,10 +1989,10 @@
         <v>37</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,13 +52,13 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
     <t>None dropped</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
   </si>
   <si>
     <t>Fine Aggregate</t>
@@ -483,28 +483,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2">
-        <v>4.023912703644717</v>
+        <v>4.103768353880501</v>
       </c>
       <c r="E2">
-        <v>0.9293740205776249</v>
+        <v>0.9265430217729018</v>
       </c>
       <c r="F2">
-        <v>2.934760313531351</v>
+        <v>2.954562577351485</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.9882111665072111</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.001906463417187</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.964021186873724</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -513,15 +516,15 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -530,75 +533,72 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>4.086477661955731</v>
+        <v>4.104242457094494</v>
       </c>
       <c r="E3">
-        <v>0.9271607204948682</v>
+        <v>0.9265260480072419</v>
       </c>
       <c r="F3">
-        <v>2.921929352310228</v>
+        <v>3.051024597772274</v>
       </c>
       <c r="G3">
-        <v>1.015548289169977</v>
+        <v>0.9883253333045894</v>
       </c>
       <c r="H3">
-        <v>0.9976185044624111</v>
+        <v>1.001888109034148</v>
       </c>
       <c r="I3">
-        <v>0.99562793555509</v>
+        <v>0.9954950274100941</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4">
-        <v>4.037129681199474</v>
+        <v>4.152724127157042</v>
       </c>
       <c r="E4">
-        <v>0.928909301244867</v>
+        <v>0.9247799626052476</v>
       </c>
       <c r="F4">
-        <v>2.976835344471945</v>
+        <v>3.064831580033001</v>
       </c>
       <c r="G4">
-        <v>1.003284608421745</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.9994999652212475</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1.014336786124099</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -612,34 +612,34 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>4.118974931089728</v>
+        <v>4.169322652109075</v>
       </c>
       <c r="E5">
-        <v>0.9259976212049426</v>
+        <v>0.9241774487599614</v>
       </c>
       <c r="F5">
-        <v>2.973590191831685</v>
+        <v>3.026205600247525</v>
       </c>
       <c r="G5">
-        <v>1.023624326481761</v>
+        <v>1.003997020857583</v>
       </c>
       <c r="H5">
-        <v>0.9963670176937119</v>
+        <v>0.999348478698015</v>
       </c>
       <c r="I5">
-        <v>1.013231022009293</v>
+        <v>0.9873970302195008</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -653,63 +653,63 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>4.101867105992707</v>
+        <v>4.135883056593922</v>
       </c>
       <c r="E6">
-        <v>0.9266110702400239</v>
+        <v>0.9253888242775729</v>
       </c>
       <c r="F6">
-        <v>3.046481796617158</v>
+        <v>3.085916460396038</v>
       </c>
       <c r="G6">
-        <v>1.019372786660452</v>
+        <v>0.9959445727557517</v>
       </c>
       <c r="H6">
-        <v>0.9970270846005748</v>
+        <v>1.000658385450535</v>
       </c>
       <c r="I6">
-        <v>1.038068350103649</v>
+        <v>1.006879621216514</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>8</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>4.124700930397778</v>
+        <v>4.206533178776816</v>
       </c>
       <c r="E7">
-        <v>0.9257917291533597</v>
+        <v>0.9228180014077644</v>
       </c>
       <c r="F7">
-        <v>3.005284344059408</v>
+        <v>3.018175665222772</v>
       </c>
       <c r="G7">
-        <v>1.025047319406748</v>
+        <v>1.012957531001851</v>
       </c>
       <c r="H7">
-        <v>0.9961454792742768</v>
+        <v>0.9978784561984279</v>
       </c>
       <c r="I7">
-        <v>1.024030592959463</v>
+        <v>0.984777005329041</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -718,133 +718,133 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>4.205325864618109</v>
+      </c>
+      <c r="E8">
+        <v>0.9228622989532992</v>
+      </c>
+      <c r="F8">
+        <v>3.081938660272276</v>
+      </c>
+      <c r="G8">
+        <v>1.012666802766183</v>
+      </c>
+      <c r="H8">
+        <v>0.9979263568313633</v>
+      </c>
+      <c r="I8">
+        <v>1.005581735828724</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>4.215469317771417</v>
-      </c>
-      <c r="E8">
-        <v>0.9224897302976194</v>
-      </c>
-      <c r="F8">
-        <v>2.996542749587459</v>
-      </c>
-      <c r="G8">
-        <v>1.047604565067526</v>
-      </c>
-      <c r="H8">
-        <v>0.992592551408176</v>
-      </c>
-      <c r="I8">
-        <v>1.021051952955492</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>4.238237924642816</v>
+      </c>
+      <c r="E9">
+        <v>0.921650171638744</v>
+      </c>
+      <c r="F9">
+        <v>3.080837974422439</v>
+      </c>
+      <c r="G9">
+        <v>1.020592217269274</v>
+      </c>
+      <c r="H9">
+        <v>0.9966156371320086</v>
+      </c>
+      <c r="I9">
+        <v>1.005222601624741</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>4.108802980799044</v>
-      </c>
-      <c r="E9">
-        <v>0.9263626727344578</v>
-      </c>
-      <c r="F9">
-        <v>3.079776041666662</v>
-      </c>
-      <c r="G9">
-        <v>1.021096450993441</v>
-      </c>
-      <c r="H9">
-        <v>0.9967598106074717</v>
-      </c>
-      <c r="I9">
-        <v>1.049413142009139</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
       <c r="M9">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10">
-        <v>4.218828293734886</v>
+        <v>4.230393385868057</v>
       </c>
       <c r="E10">
-        <v>0.9223661574085847</v>
+        <v>0.9219399380370276</v>
       </c>
       <c r="F10">
-        <v>3.070349345090756</v>
+        <v>3.120976382013202</v>
       </c>
       <c r="G10">
-        <v>1.048439318754013</v>
+        <v>1.018703206939052</v>
       </c>
       <c r="H10">
-        <v>0.9924595878366768</v>
+        <v>0.9969289726388326</v>
       </c>
       <c r="I10">
-        <v>1.04620105803334</v>
+        <v>1.018319049681548</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -855,34 +855,34 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>4.255586574131873</v>
+        <v>4.246411239423498</v>
       </c>
       <c r="E11">
-        <v>0.9210074301436303</v>
+        <v>0.9213476896656643</v>
       </c>
       <c r="F11">
-        <v>3.037727645420792</v>
+        <v>3.087452480404289</v>
       </c>
       <c r="G11">
-        <v>1.057574278457213</v>
+        <v>1.022560398764219</v>
       </c>
       <c r="H11">
-        <v>0.9909976067237229</v>
+        <v>0.9962885517870498</v>
       </c>
       <c r="I11">
-        <v>1.035085431479596</v>
+        <v>1.00738079720878</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
         <v>29</v>
@@ -890,84 +890,84 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>4.242892294454348</v>
+        <v>4.283324093470131</v>
       </c>
       <c r="E12">
-        <v>0.9214779919171583</v>
+        <v>0.9199743417775178</v>
       </c>
       <c r="F12">
-        <v>3.123407229785478</v>
+        <v>3.115531353135311</v>
       </c>
       <c r="G12">
-        <v>1.054419567952179</v>
+        <v>1.031449227618811</v>
       </c>
       <c r="H12">
-        <v>0.991503927928221</v>
+        <v>0.9948034981054394</v>
       </c>
       <c r="I12">
-        <v>1.064280178311097</v>
+        <v>1.016542433663439</v>
       </c>
       <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
       <c r="M12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>4.272002270458836</v>
+      </c>
+      <c r="E13">
+        <v>0.920396835563418</v>
+      </c>
+      <c r="F13">
+        <v>3.258145988036301</v>
+      </c>
+      <c r="G13">
+        <v>1.028722867122756</v>
+      </c>
+      <c r="H13">
+        <v>0.9952603568210089</v>
+      </c>
+      <c r="I13">
+        <v>1.063075050930276</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>4.269643823856351</v>
-      </c>
-      <c r="E13">
-        <v>0.9204847044258484</v>
-      </c>
-      <c r="F13">
-        <v>3.06630337252475</v>
-      </c>
-      <c r="G13">
-        <v>1.061067706560597</v>
-      </c>
-      <c r="H13">
-        <v>0.990435157477017</v>
-      </c>
-      <c r="I13">
-        <v>1.044822419870846</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>9</v>
-      </c>
       <c r="M13">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -978,25 +978,25 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>4.397465134505631</v>
+        <v>4.441141078966081</v>
       </c>
       <c r="E14">
-        <v>0.9156525043761611</v>
+        <v>0.9139686928695299</v>
       </c>
       <c r="F14">
-        <v>3.070598752062704</v>
+        <v>3.125022767120459</v>
       </c>
       <c r="G14">
-        <v>1.092833134904384</v>
+        <v>1.069452470951035</v>
       </c>
       <c r="H14">
-        <v>0.9852357437397103</v>
+        <v>0.9883093598770666</v>
       </c>
       <c r="I14">
-        <v>1.046286041795318</v>
+        <v>1.019639313128851</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1005,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1022,22 +1022,22 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>4.423270314367345</v>
+        <v>4.489702438525837</v>
       </c>
       <c r="E15">
-        <v>0.9146596648236984</v>
+        <v>0.9120769996824585</v>
       </c>
       <c r="F15">
-        <v>3.276859581270624</v>
+        <v>3.321565542491747</v>
       </c>
       <c r="G15">
-        <v>1.099246092083684</v>
+        <v>1.081146327338506</v>
       </c>
       <c r="H15">
-        <v>0.9841674552675992</v>
+        <v>0.9862637995669771</v>
       </c>
       <c r="I15">
-        <v>1.11656804344871</v>
+        <v>1.083767722876303</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>4.55012056208721</v>
+        <v>4.601227566939889</v>
       </c>
       <c r="E16">
-        <v>0.9096947101479168</v>
+        <v>0.907654697362775</v>
       </c>
       <c r="F16">
-        <v>3.348804610148513</v>
+        <v>3.432878403465346</v>
       </c>
       <c r="G16">
-        <v>1.130770197366825</v>
+        <v>1.108002223612646</v>
       </c>
       <c r="H16">
-        <v>0.9788251984734015</v>
+        <v>0.9814817946593176</v>
       </c>
       <c r="I16">
-        <v>1.141082832116858</v>
+        <v>1.120087128385822</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1087,48 +1087,48 @@
         <v>15</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>4.762390875467752</v>
+        <v>4.660568288739842</v>
       </c>
       <c r="E17">
-        <v>0.9010724035251678</v>
+        <v>0.9052574358575456</v>
       </c>
       <c r="F17">
-        <v>3.333012582508249</v>
+        <v>3.474027898102307</v>
       </c>
       <c r="G17">
-        <v>1.183522413683117</v>
+        <v>1.122291812803484</v>
       </c>
       <c r="H17">
-        <v>0.9695476563516732</v>
+        <v>0.9788895439595122</v>
       </c>
       <c r="I17">
-        <v>1.135701804041942</v>
+        <v>1.133513476151567</v>
       </c>
       <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
         <v>17</v>
-      </c>
-      <c r="K17">
-        <v>17</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
       </c>
       <c r="M17">
         <v>49</v>
@@ -1136,72 +1136,72 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>4.76862963760023</v>
+      </c>
+      <c r="E18">
+        <v>0.9008130422012007</v>
+      </c>
+      <c r="F18">
+        <v>3.540876134488447</v>
+      </c>
+      <c r="G18">
+        <v>1.148313610917573</v>
+      </c>
+      <c r="H18">
+        <v>0.9740836508432467</v>
+      </c>
+      <c r="I18">
+        <v>1.155324865991599</v>
+      </c>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>4.64653423342105</v>
-      </c>
-      <c r="E18">
-        <v>0.9058271605789997</v>
-      </c>
-      <c r="F18">
-        <v>3.411509900990095</v>
-      </c>
-      <c r="G18">
-        <v>1.154730377031387</v>
-      </c>
-      <c r="H18">
-        <v>0.9746637419625843</v>
-      </c>
-      <c r="I18">
-        <v>1.162449241684435</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
       <c r="K18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>4.90529748649611</v>
+        <v>4.861665125308479</v>
       </c>
       <c r="E19">
-        <v>0.8950462201158278</v>
+        <v>0.8969050327842853</v>
       </c>
       <c r="F19">
-        <v>3.439082405115509</v>
+        <v>3.470525680693069</v>
       </c>
       <c r="G19">
-        <v>1.219036755457708</v>
+        <v>1.170717094717481</v>
       </c>
       <c r="H19">
-        <v>0.9630635248008529</v>
+        <v>0.9698577705528628</v>
       </c>
       <c r="I19">
-        <v>1.171844388537923</v>
+        <v>1.132370764939619</v>
       </c>
       <c r="J19">
         <v>19</v>
@@ -1210,212 +1210,212 @@
         <v>19</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>4.848175774660595</v>
+        <v>4.892820449222159</v>
       </c>
       <c r="E20">
-        <v>0.8974763410936403</v>
+        <v>0.895579458640074</v>
       </c>
       <c r="F20">
-        <v>3.624888356023104</v>
+        <v>3.497125979785479</v>
       </c>
       <c r="G20">
-        <v>1.204841191079839</v>
+        <v>1.178219476999496</v>
       </c>
       <c r="H20">
-        <v>0.9656783181176514</v>
+        <v>0.9684243764506842</v>
       </c>
       <c r="I20">
-        <v>1.23515652685835</v>
+        <v>1.141049969130057</v>
       </c>
       <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
         <v>18</v>
       </c>
-      <c r="K20">
-        <v>18</v>
-      </c>
-      <c r="L20">
-        <v>24</v>
-      </c>
       <c r="M20">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>4.842333404927021</v>
+      </c>
+      <c r="E21">
+        <v>0.8977232876747164</v>
+      </c>
+      <c r="F21">
+        <v>3.653442398927393</v>
+      </c>
+      <c r="G21">
+        <v>1.166061904584566</v>
+      </c>
+      <c r="H21">
+        <v>0.9707425809115626</v>
+      </c>
+      <c r="I21">
+        <v>1.192053234745138</v>
+      </c>
+      <c r="J21">
         <v>18</v>
       </c>
-      <c r="D21">
-        <v>4.90761037443861</v>
-      </c>
-      <c r="E21">
-        <v>0.8949472236487943</v>
-      </c>
-      <c r="F21">
-        <v>3.530744198638611</v>
-      </c>
-      <c r="G21">
-        <v>1.21961154127262</v>
-      </c>
-      <c r="H21">
-        <v>0.9629570052889648</v>
-      </c>
-      <c r="I21">
-        <v>1.203077533234775</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
-      </c>
       <c r="K21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
       <c r="D22">
-        <v>4.955609361379822</v>
+        <v>4.931116987521921</v>
       </c>
       <c r="E22">
-        <v>0.8928822326512498</v>
+        <v>0.8939384438706917</v>
       </c>
       <c r="F22">
-        <v>3.501563015676566</v>
+        <v>3.611813428217817</v>
       </c>
       <c r="G22">
-        <v>1.231539977716516</v>
+        <v>1.187441505029078</v>
       </c>
       <c r="H22">
-        <v>0.9607350892983917</v>
+        <v>0.9666498843166209</v>
       </c>
       <c r="I22">
-        <v>1.193134239798681</v>
+        <v>1.178470442470097</v>
       </c>
       <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
         <v>22</v>
       </c>
-      <c r="K22">
-        <v>22</v>
-      </c>
-      <c r="L22">
-        <v>19</v>
-      </c>
       <c r="M22">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>4.945665064118306</v>
+        <v>4.988434764486028</v>
       </c>
       <c r="E23">
-        <v>0.8933117024003198</v>
+        <v>0.8914584605011234</v>
       </c>
       <c r="F23">
-        <v>3.685487881600659</v>
+        <v>3.556193120874585</v>
       </c>
       <c r="G23">
-        <v>1.229068677269936</v>
+        <v>1.201243957397458</v>
       </c>
       <c r="H23">
-        <v>0.9611971957695873</v>
+        <v>0.9639681832960001</v>
       </c>
       <c r="I23">
-        <v>1.255805410959088</v>
+        <v>1.160322526054203</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>4.963103507103882</v>
+        <v>5.068727133018576</v>
       </c>
       <c r="E24">
-        <v>0.8925580088936343</v>
+        <v>0.8879362355164158</v>
       </c>
       <c r="F24">
-        <v>3.608453640676567</v>
+        <v>3.601480610561054</v>
       </c>
       <c r="G24">
-        <v>1.233402380376811</v>
+        <v>1.22057882436044</v>
       </c>
       <c r="H24">
-        <v>0.9603862267840146</v>
+        <v>0.9601594664907775</v>
       </c>
       <c r="I24">
-        <v>1.229556507234681</v>
+        <v>1.175099027961032</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <v>69</v>
@@ -1423,166 +1423,166 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25">
-        <v>5.043949356969521</v>
+        <v>5.063246872721606</v>
       </c>
       <c r="E25">
-        <v>0.8890291742566753</v>
+        <v>0.8881784291017755</v>
       </c>
       <c r="F25">
-        <v>3.545370101072607</v>
+        <v>3.768709777227721</v>
       </c>
       <c r="G25">
-        <v>1.25349373320174</v>
+        <v>1.219259145968819</v>
       </c>
       <c r="H25">
-        <v>0.9565892251906564</v>
+        <v>0.9604213596925695</v>
       </c>
       <c r="I25">
-        <v>1.208061211924499</v>
+        <v>1.229662928880138</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26">
-        <v>4.966425607783491</v>
+        <v>5.169522544838635</v>
       </c>
       <c r="E26">
-        <v>0.8924141261116397</v>
+        <v>0.8834349779673241</v>
       </c>
       <c r="F26">
-        <v>3.726844420379536</v>
+        <v>3.763605301155116</v>
       </c>
       <c r="G26">
-        <v>1.234227970026556</v>
+        <v>1.244850942790099</v>
       </c>
       <c r="H26">
-        <v>0.9602314099085599</v>
+        <v>0.9552920842689451</v>
       </c>
       <c r="I26">
-        <v>1.269897375671911</v>
+        <v>1.227997429181603</v>
       </c>
       <c r="J26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>5.074215905332365</v>
+      </c>
+      <c r="E27">
+        <v>0.887693403142799</v>
+      </c>
+      <c r="F27">
+        <v>3.82460602310231</v>
+      </c>
+      <c r="G27">
+        <v>1.221900552494966</v>
+      </c>
+      <c r="H27">
+        <v>0.9598968825427725</v>
+      </c>
+      <c r="I27">
+        <v>1.247900879127958</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>5.216686812544451</v>
-      </c>
-      <c r="E27">
-        <v>0.8812983074815538</v>
-      </c>
-      <c r="F27">
-        <v>3.5668119585396</v>
-      </c>
-      <c r="G27">
-        <v>1.296421467548081</v>
-      </c>
-      <c r="H27">
-        <v>0.9482708661619452</v>
-      </c>
-      <c r="I27">
-        <v>1.215367381824689</v>
-      </c>
-      <c r="J27">
-        <v>27</v>
-      </c>
-      <c r="K27">
-        <v>27</v>
-      </c>
-      <c r="L27">
-        <v>22</v>
-      </c>
       <c r="M27">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>5.152497481142297</v>
+        <v>5.290871085700572</v>
       </c>
       <c r="E28">
-        <v>0.8842014932629327</v>
+        <v>0.877898291014909</v>
       </c>
       <c r="F28">
-        <v>3.745848752062702</v>
+        <v>3.680051335602307</v>
       </c>
       <c r="G28">
-        <v>1.280469498375387</v>
+        <v>1.274072373625913</v>
       </c>
       <c r="H28">
-        <v>0.951394673926202</v>
+        <v>0.9493050525681096</v>
       </c>
       <c r="I28">
-        <v>1.276372974921206</v>
+        <v>1.200735257225026</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1596,22 +1596,22 @@
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.572754769308098</v>
+        <v>5.620222228075904</v>
       </c>
       <c r="E29">
-        <v>0.8645411927514965</v>
+        <v>0.8622237502060257</v>
       </c>
       <c r="F29">
-        <v>4.104414964933992</v>
+        <v>4.200538675742576</v>
       </c>
       <c r="G29">
-        <v>1.384909459954361</v>
+        <v>1.353382034535367</v>
       </c>
       <c r="H29">
-        <v>0.9302403269398112</v>
+        <v>0.9323555711317626</v>
       </c>
       <c r="I29">
-        <v>1.398552020077992</v>
+        <v>1.370561013240847</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.582099584114223</v>
+        <v>6.493074719388669</v>
       </c>
       <c r="E30">
-        <v>0.8110285131657337</v>
+        <v>0.8161057356226251</v>
       </c>
       <c r="F30">
-        <v>4.307892533003299</v>
+        <v>4.358176670792077</v>
       </c>
       <c r="G30">
-        <v>1.635746117989188</v>
+        <v>1.563569965297414</v>
       </c>
       <c r="H30">
-        <v>0.8726610548696669</v>
+        <v>0.8824863952756172</v>
       </c>
       <c r="I30">
-        <v>1.467885644064636</v>
+        <v>1.421995485554593</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>12.54635187630595</v>
+        <v>12.42180792169641</v>
       </c>
       <c r="E31">
-        <v>0.3134023541091807</v>
+        <v>0.3269660039523823</v>
       </c>
       <c r="F31">
-        <v>9.708519922059164</v>
+        <v>9.671042076261191</v>
       </c>
       <c r="G31">
-        <v>3.117948325504654</v>
+        <v>2.991243227659426</v>
       </c>
       <c r="H31">
-        <v>0.3372187592616316</v>
+        <v>0.3535608654747111</v>
       </c>
       <c r="I31">
-        <v>3.308113401048774</v>
+        <v>3.155488914714542</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1719,22 +1719,22 @@
         <v>16</v>
       </c>
       <c r="D32">
-        <v>12.57698297198833</v>
+        <v>12.4935709411705</v>
       </c>
       <c r="E32">
-        <v>0.3100456952829517</v>
+        <v>0.3191670639046972</v>
       </c>
       <c r="F32">
-        <v>9.794629202027336</v>
+        <v>9.763476457891315</v>
       </c>
       <c r="G32">
-        <v>3.125560591957313</v>
+        <v>3.008524178013145</v>
       </c>
       <c r="H32">
-        <v>0.3336070176464067</v>
+        <v>0.3451275728396562</v>
       </c>
       <c r="I32">
-        <v>3.337454563790803</v>
+        <v>3.185648608393087</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1760,104 +1760,104 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>12.68405382137219</v>
+        <v>12.54851942752958</v>
       </c>
       <c r="E33">
-        <v>0.298248200279342</v>
+        <v>0.3131650956393828</v>
       </c>
       <c r="F33">
-        <v>9.790771575907581</v>
+        <v>9.732470166637189</v>
       </c>
       <c r="G33">
-        <v>3.152169233165378</v>
+        <v>3.021756091493683</v>
       </c>
       <c r="H33">
-        <v>0.3209129948499901</v>
+        <v>0.3386374146312042</v>
       </c>
       <c r="I33">
-        <v>3.336140103423471</v>
+        <v>3.175531807373374</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33">
         <v>31</v>
       </c>
       <c r="M33">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>12.67975009865823</v>
+        <v>12.55193587378758</v>
       </c>
       <c r="E34">
-        <v>0.29872433083384</v>
+        <v>0.3127910508789803</v>
       </c>
       <c r="F34">
-        <v>9.882345876797489</v>
+        <v>9.785814640057744</v>
       </c>
       <c r="G34">
-        <v>3.151099696366018</v>
+        <v>3.02257879152224</v>
       </c>
       <c r="H34">
-        <v>0.3214253080241868</v>
+        <v>0.3382329457028888</v>
       </c>
       <c r="I34">
-        <v>3.367343435589197</v>
+        <v>3.192937159683134</v>
       </c>
       <c r="J34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>12.71972002189844</v>
+        <v>12.58803316254021</v>
       </c>
       <c r="E35">
-        <v>0.2942961499423885</v>
+        <v>0.3088327691223374</v>
       </c>
       <c r="F35">
-        <v>9.871572243340394</v>
+        <v>9.816619320190938</v>
       </c>
       <c r="G35">
-        <v>3.161032795362925</v>
+        <v>3.031271227534681</v>
       </c>
       <c r="H35">
-        <v>0.3166606160988635</v>
+        <v>0.3339527040057268</v>
       </c>
       <c r="I35">
-        <v>3.363672391856113</v>
+        <v>3.202988178582145</v>
       </c>
       <c r="J35">
         <v>34</v>
@@ -1866,39 +1866,39 @@
         <v>34</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>12.72259290207138</v>
+        <v>12.59139923301127</v>
       </c>
       <c r="E36">
-        <v>0.293977332932232</v>
+        <v>0.3084630801273072</v>
       </c>
       <c r="F36">
-        <v>10.01288099658179</v>
+        <v>9.797835433610315</v>
       </c>
       <c r="G36">
-        <v>3.16174674727603</v>
+        <v>3.032081796782237</v>
       </c>
       <c r="H36">
-        <v>0.3163175712072511</v>
+        <v>0.333552945133369</v>
       </c>
       <c r="I36">
-        <v>3.41182240689818</v>
+        <v>3.196859330686228</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1907,39 +1907,39 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>12.73970804943954</v>
+        <v>12.60714392660955</v>
       </c>
       <c r="E37">
-        <v>0.2920764924495656</v>
+        <v>0.3067325585084216</v>
       </c>
       <c r="F37">
-        <v>9.922924220591693</v>
+        <v>9.984531491631298</v>
       </c>
       <c r="G37">
-        <v>3.166000106786702</v>
+        <v>3.035873210109048</v>
       </c>
       <c r="H37">
-        <v>0.3142722800321383</v>
+        <v>0.331681665814113</v>
       </c>
       <c r="I37">
-        <v>3.38117023555208</v>
+        <v>3.257774931803525</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>13.06603696683121</v>
+        <v>12.94020288814548</v>
       </c>
       <c r="E38">
-        <v>0.2553449348745445</v>
+        <v>0.2696188536196954</v>
       </c>
       <c r="F38">
-        <v>10.10476659373526</v>
+        <v>10.06593860796793</v>
       </c>
       <c r="G38">
-        <v>3.247097521523381</v>
+        <v>3.116075735328065</v>
       </c>
       <c r="H38">
-        <v>0.27474937885163</v>
+        <v>0.2915491949675657</v>
       </c>
       <c r="I38">
-        <v>3.443131811189157</v>
+        <v>3.284336625068169</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,28 +52,28 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
     <t>Superplasticizer</t>
   </si>
   <si>
+    <t>None dropped</t>
+  </si>
+  <si>
     <t>Fly Ash</t>
   </si>
   <si>
-    <t>None dropped</t>
-  </si>
-  <si>
     <t>Fine Aggregate</t>
   </si>
   <si>
-    <t>Coarse Aggregate</t>
-  </si>
-  <si>
     <t>Blast Furnace Slag</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t>Cement</t>
-  </si>
-  <si>
-    <t>Water</t>
   </si>
   <si>
     <t>Age</t>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -492,22 +492,22 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>4.103768353880501</v>
+        <v>4.050491135682797</v>
       </c>
       <c r="E2">
-        <v>0.9265430217729018</v>
+        <v>0.9284379529929546</v>
       </c>
       <c r="F2">
-        <v>2.954562577351485</v>
+        <v>3.003496596534652</v>
       </c>
       <c r="G2">
-        <v>0.9882111665072111</v>
+        <v>0.9879620741801166</v>
       </c>
       <c r="H2">
-        <v>1.001906463417187</v>
+        <v>1.001893348561437</v>
       </c>
       <c r="I2">
-        <v>0.964021186873724</v>
+        <v>0.9925850527515795</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -516,15 +516,15 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -533,34 +533,34 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>4.104242457094494</v>
+        <v>4.132459056353194</v>
       </c>
       <c r="E3">
-        <v>0.9265260480072419</v>
+        <v>0.9255123108132824</v>
       </c>
       <c r="F3">
-        <v>3.051024597772274</v>
+        <v>2.935236463490096</v>
       </c>
       <c r="G3">
-        <v>0.9883253333045894</v>
+        <v>1.007955006940382</v>
       </c>
       <c r="H3">
-        <v>1.001888109034148</v>
+        <v>0.9987362378136104</v>
       </c>
       <c r="I3">
-        <v>0.9954950274100941</v>
+        <v>0.9700266826715093</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -571,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>4.152724127157042</v>
+        <v>4.099844762810547</v>
       </c>
       <c r="E4">
-        <v>0.9247799626052476</v>
+        <v>0.9266834182760539</v>
       </c>
       <c r="F4">
-        <v>3.064831580033001</v>
+        <v>3.025933735561053</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -589,54 +589,54 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>4.169322652109075</v>
+        <v>4.103958847360731</v>
       </c>
       <c r="E5">
-        <v>0.9241774487599614</v>
+        <v>0.9265362019921557</v>
       </c>
       <c r="F5">
-        <v>3.026205600247525</v>
+        <v>3.023033364273923</v>
       </c>
       <c r="G5">
-        <v>1.003997020857583</v>
+        <v>1.001003473250378</v>
       </c>
       <c r="H5">
-        <v>0.999348478698015</v>
+        <v>0.9998411363784062</v>
       </c>
       <c r="I5">
-        <v>0.9873970302195008</v>
+        <v>0.9990414954388972</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>13</v>
@@ -644,40 +644,40 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>4.135883056593922</v>
+        <v>4.153777034439462</v>
       </c>
       <c r="E6">
-        <v>0.9253888242775729</v>
+        <v>0.9247418142654472</v>
       </c>
       <c r="F6">
-        <v>3.085916460396038</v>
+        <v>2.983447813531355</v>
       </c>
       <c r="G6">
-        <v>0.9959445727557517</v>
+        <v>1.013154710665665</v>
       </c>
       <c r="H6">
-        <v>1.000658385450535</v>
+        <v>0.9979047817492852</v>
       </c>
       <c r="I6">
-        <v>1.006879621216514</v>
+        <v>0.9859594010501949</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>14</v>
@@ -685,43 +685,43 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>4.206533178776816</v>
+        <v>4.15166216429575</v>
       </c>
       <c r="E7">
-        <v>0.9228180014077644</v>
+        <v>0.9248184292453858</v>
       </c>
       <c r="F7">
-        <v>3.018175665222772</v>
+        <v>3.040838129125411</v>
       </c>
       <c r="G7">
-        <v>1.012957531001851</v>
+        <v>1.012638869148226</v>
       </c>
       <c r="H7">
-        <v>0.9978784561984279</v>
+        <v>0.9979874582906235</v>
       </c>
       <c r="I7">
-        <v>0.984777005329041</v>
+        <v>1.004925551868238</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -729,37 +729,37 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>4.205325864618109</v>
+        <v>4.160165934010212</v>
       </c>
       <c r="E8">
-        <v>0.9228622989532992</v>
+        <v>0.9245101278954704</v>
       </c>
       <c r="F8">
-        <v>3.081938660272276</v>
+        <v>3.011985715759072</v>
       </c>
       <c r="G8">
-        <v>1.012666802766183</v>
+        <v>1.014713037856173</v>
       </c>
       <c r="H8">
-        <v>0.9979263568313633</v>
+        <v>0.9976547650063421</v>
       </c>
       <c r="I8">
-        <v>1.005581735828724</v>
+        <v>0.9953905071885538</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>19</v>
@@ -767,84 +767,84 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>4.238237924642816</v>
+        <v>4.194268993510037</v>
       </c>
       <c r="E9">
-        <v>0.921650171638744</v>
+        <v>0.9232673949662336</v>
       </c>
       <c r="F9">
-        <v>3.080837974422439</v>
+        <v>3.00694590552805</v>
       </c>
       <c r="G9">
-        <v>1.020592217269274</v>
+        <v>1.023031172193642</v>
       </c>
       <c r="H9">
-        <v>0.9966156371320086</v>
+        <v>0.9963137105483387</v>
       </c>
       <c r="I9">
-        <v>1.005222601624741</v>
+        <v>0.9937249683263529</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>4.230393385868057</v>
+        <v>4.211738151216971</v>
       </c>
       <c r="E10">
-        <v>0.9219399380370276</v>
+        <v>0.9226268802636917</v>
       </c>
       <c r="F10">
-        <v>3.120976382013202</v>
+        <v>3.019617780528051</v>
       </c>
       <c r="G10">
-        <v>1.018703206939052</v>
+        <v>1.02729210369656</v>
       </c>
       <c r="H10">
-        <v>0.9969289726388326</v>
+        <v>0.9956225201267669</v>
       </c>
       <c r="I10">
-        <v>1.018319049681548</v>
+        <v>0.9979127252659975</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -852,119 +852,119 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>4.246411239423498</v>
+        <v>4.285014397749197</v>
       </c>
       <c r="E11">
-        <v>0.9213476896656643</v>
+        <v>0.9199111691575864</v>
       </c>
       <c r="F11">
-        <v>3.087452480404289</v>
+        <v>3.052759179042904</v>
       </c>
       <c r="G11">
-        <v>1.022560398764219</v>
+        <v>1.045165035666304</v>
       </c>
       <c r="H11">
-        <v>0.9962885517870498</v>
+        <v>0.9926919496077029</v>
       </c>
       <c r="I11">
-        <v>1.00738079720878</v>
+        <v>1.008865178760062</v>
       </c>
       <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
       <c r="M11">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12">
-        <v>4.283324093470131</v>
+        <v>4.263833502307265</v>
       </c>
       <c r="E12">
-        <v>0.9199743417775178</v>
+        <v>0.920700973085667</v>
       </c>
       <c r="F12">
-        <v>3.115531353135311</v>
+        <v>3.176064923679864</v>
       </c>
       <c r="G12">
-        <v>1.031449227618811</v>
+        <v>1.039998767998303</v>
       </c>
       <c r="H12">
-        <v>0.9948034981054394</v>
+        <v>0.9935442405978124</v>
       </c>
       <c r="I12">
-        <v>1.016542433663439</v>
+        <v>1.049614830078549</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>4.272002270458836</v>
+        <v>4.308306135239357</v>
       </c>
       <c r="E13">
-        <v>0.920396835563418</v>
+        <v>0.9190381369197338</v>
       </c>
       <c r="F13">
-        <v>3.258145988036301</v>
+        <v>3.075126392326729</v>
       </c>
       <c r="G13">
-        <v>1.028722867122756</v>
+        <v>1.050846162352231</v>
       </c>
       <c r="H13">
-        <v>0.9952603568210089</v>
+        <v>0.991749845518394</v>
       </c>
       <c r="I13">
-        <v>1.063075050930276</v>
+        <v>1.016257017193589</v>
       </c>
       <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
         <v>11</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
       </c>
       <c r="M13">
         <v>35</v>
@@ -975,28 +975,28 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>4.441141078966081</v>
+        <v>4.382404036845277</v>
       </c>
       <c r="E14">
-        <v>0.9139686928695299</v>
+        <v>0.9162292868453769</v>
       </c>
       <c r="F14">
-        <v>3.125022767120459</v>
+        <v>3.116809302805279</v>
       </c>
       <c r="G14">
-        <v>1.069452470951035</v>
+        <v>1.068919505586604</v>
       </c>
       <c r="H14">
-        <v>0.9883093598770666</v>
+        <v>0.9887187671382689</v>
       </c>
       <c r="I14">
-        <v>1.019639313128851</v>
+        <v>1.030032239693899</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1016,28 +1016,28 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>4.489702438525837</v>
+        <v>4.434557267547484</v>
       </c>
       <c r="E15">
-        <v>0.9120769996824585</v>
+        <v>0.9142235796427113</v>
       </c>
       <c r="F15">
-        <v>3.321565542491747</v>
+        <v>3.293626031353134</v>
       </c>
       <c r="G15">
-        <v>1.081146327338506</v>
+        <v>1.08164028740139</v>
       </c>
       <c r="H15">
-        <v>0.9862637995669771</v>
+        <v>0.9865543740315088</v>
       </c>
       <c r="I15">
-        <v>1.083767722876303</v>
+        <v>1.088466013860825</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1054,31 +1054,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>4.601227566939889</v>
+        <v>4.509171889731543</v>
       </c>
       <c r="E16">
-        <v>0.907654697362775</v>
+        <v>0.9113127957298434</v>
       </c>
       <c r="F16">
-        <v>3.432878403465346</v>
+        <v>3.382462252475243</v>
       </c>
       <c r="G16">
-        <v>1.108002223612646</v>
+        <v>1.099839664817063</v>
       </c>
       <c r="H16">
-        <v>0.9814817946593176</v>
+        <v>0.9834132970947024</v>
       </c>
       <c r="I16">
-        <v>1.120087128385822</v>
+        <v>1.117824297579367</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1087,48 +1087,48 @@
         <v>15</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>4.740833611771706</v>
+      </c>
+      <c r="E17">
+        <v>0.9019659805735376</v>
+      </c>
+      <c r="F17">
+        <v>3.33203650990099</v>
+      </c>
+      <c r="G17">
+        <v>1.156344663284701</v>
+      </c>
+      <c r="H17">
+        <v>0.9733269882518248</v>
+      </c>
+      <c r="I17">
+        <v>1.10115977449955</v>
+      </c>
+      <c r="J17">
         <v>17</v>
       </c>
-      <c r="D17">
-        <v>4.660568288739842</v>
-      </c>
-      <c r="E17">
-        <v>0.9052574358575456</v>
-      </c>
-      <c r="F17">
-        <v>3.474027898102307</v>
-      </c>
-      <c r="G17">
-        <v>1.122291812803484</v>
-      </c>
-      <c r="H17">
-        <v>0.9788895439595122</v>
-      </c>
-      <c r="I17">
-        <v>1.133513476151567</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
       <c r="K17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <v>49</v>
@@ -1136,81 +1136,81 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>4.76862963760023</v>
+        <v>4.671471408825536</v>
       </c>
       <c r="E18">
-        <v>0.9008130422012007</v>
+        <v>0.9048136282364301</v>
       </c>
       <c r="F18">
-        <v>3.540876134488447</v>
+        <v>3.437783725247521</v>
       </c>
       <c r="G18">
-        <v>1.148313610917573</v>
+        <v>1.139426412238868</v>
       </c>
       <c r="H18">
-        <v>0.9740836508432467</v>
+        <v>0.9763999337764032</v>
       </c>
       <c r="I18">
-        <v>1.155324865991599</v>
+        <v>1.136106744455891</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
       <c r="D19">
-        <v>4.861665125308479</v>
+        <v>4.775368210074311</v>
       </c>
       <c r="E19">
-        <v>0.8969050327842853</v>
+        <v>0.9005325210457283</v>
       </c>
       <c r="F19">
-        <v>3.470525680693069</v>
+        <v>3.419345761138611</v>
       </c>
       <c r="G19">
-        <v>1.170717094717481</v>
+        <v>1.164768054974032</v>
       </c>
       <c r="H19">
-        <v>0.9698577705528628</v>
+        <v>0.9717801174440186</v>
       </c>
       <c r="I19">
-        <v>1.132370764939619</v>
+        <v>1.130013430550096</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M19">
         <v>54</v>
@@ -1218,113 +1218,113 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>4.800160345013729</v>
+      </c>
+      <c r="E20">
+        <v>0.8994970354415227</v>
+      </c>
+      <c r="F20">
+        <v>3.495488139438944</v>
+      </c>
+      <c r="G20">
+        <v>1.170815146113751</v>
+      </c>
+      <c r="H20">
+        <v>0.970662707135618</v>
+      </c>
+      <c r="I20">
+        <v>1.155176697480069</v>
+      </c>
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>4.892820449222159</v>
-      </c>
-      <c r="E20">
-        <v>0.895579458640074</v>
-      </c>
-      <c r="F20">
-        <v>3.497125979785479</v>
-      </c>
-      <c r="G20">
-        <v>1.178219476999496</v>
-      </c>
-      <c r="H20">
-        <v>0.9684243764506842</v>
-      </c>
-      <c r="I20">
-        <v>1.141049969130057</v>
-      </c>
-      <c r="J20">
-        <v>20</v>
-      </c>
       <c r="K20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>4.916204919345254</v>
+      </c>
+      <c r="E21">
+        <v>0.8945789501598826</v>
+      </c>
+      <c r="F21">
+        <v>3.414795688943895</v>
+      </c>
+      <c r="G21">
+        <v>1.19911977251916</v>
+      </c>
+      <c r="H21">
+        <v>0.965355516800013</v>
+      </c>
+      <c r="I21">
+        <v>1.128509738601642</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
         <v>17</v>
       </c>
-      <c r="D21">
-        <v>4.842333404927021</v>
-      </c>
-      <c r="E21">
-        <v>0.8977232876747164</v>
-      </c>
-      <c r="F21">
-        <v>3.653442398927393</v>
-      </c>
-      <c r="G21">
-        <v>1.166061904584566</v>
-      </c>
-      <c r="H21">
-        <v>0.9707425809115626</v>
-      </c>
-      <c r="I21">
-        <v>1.192053234745138</v>
-      </c>
-      <c r="J21">
-        <v>18</v>
-      </c>
-      <c r="K21">
-        <v>18</v>
-      </c>
-      <c r="L21">
-        <v>23</v>
-      </c>
       <c r="M21">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>4.931116987521921</v>
+        <v>4.867383404227323</v>
       </c>
       <c r="E22">
-        <v>0.8939384438706917</v>
+        <v>0.8966623700496579</v>
       </c>
       <c r="F22">
-        <v>3.611813428217817</v>
+        <v>3.422675484735972</v>
       </c>
       <c r="G22">
-        <v>1.187441505029078</v>
+        <v>1.187211635030446</v>
       </c>
       <c r="H22">
-        <v>0.9666498843166209</v>
+        <v>0.9676037710027817</v>
       </c>
       <c r="I22">
-        <v>1.178470442470097</v>
+        <v>1.131113825961346</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -1333,51 +1333,51 @@
         <v>21</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>4.988434764486028</v>
+        <v>4.842731592159053</v>
       </c>
       <c r="E23">
-        <v>0.8914584605011234</v>
+        <v>0.8977064664639466</v>
       </c>
       <c r="F23">
-        <v>3.556193120874585</v>
+        <v>3.625240924092409</v>
       </c>
       <c r="G23">
-        <v>1.201243957397458</v>
+        <v>1.181198770277155</v>
       </c>
       <c r="H23">
-        <v>0.9639681832960001</v>
+        <v>0.9687304733843038</v>
       </c>
       <c r="I23">
-        <v>1.160322526054203</v>
+        <v>1.198056944039535</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1385,40 +1385,40 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24">
-        <v>5.068727133018576</v>
+        <v>4.989848607450221</v>
       </c>
       <c r="E24">
-        <v>0.8879362355164158</v>
+        <v>0.8913969251913825</v>
       </c>
       <c r="F24">
-        <v>3.601480610561054</v>
+        <v>3.503082508250825</v>
       </c>
       <c r="G24">
-        <v>1.22057882436044</v>
+        <v>1.217082327778078</v>
       </c>
       <c r="H24">
-        <v>0.9601594664907775</v>
+        <v>0.9619217389792986</v>
       </c>
       <c r="I24">
-        <v>1.175099027961032</v>
+        <v>1.157686457929424</v>
       </c>
       <c r="J24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1429,75 +1429,75 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>5.063246872721606</v>
+        <v>4.993705507910927</v>
       </c>
       <c r="E25">
-        <v>0.8881784291017755</v>
+        <v>0.8912289709445234</v>
       </c>
       <c r="F25">
-        <v>3.768709777227721</v>
+        <v>3.657758121905941</v>
       </c>
       <c r="G25">
-        <v>1.219259145968819</v>
+        <v>1.218023070826617</v>
       </c>
       <c r="H25">
-        <v>0.9604213596925695</v>
+        <v>0.9617404966655302</v>
       </c>
       <c r="I25">
-        <v>1.229662928880138</v>
+        <v>1.208803113868499</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>5.169522544838635</v>
+        <v>5.052719665190942</v>
       </c>
       <c r="E26">
-        <v>0.8834349779673241</v>
+        <v>0.8886429314902133</v>
       </c>
       <c r="F26">
-        <v>3.763605301155116</v>
+        <v>3.790036613036304</v>
       </c>
       <c r="G26">
-        <v>1.244850942790099</v>
+        <v>1.232417312729464</v>
       </c>
       <c r="H26">
-        <v>0.9552920842689451</v>
+        <v>0.9589498570540856</v>
       </c>
       <c r="I26">
-        <v>1.227997429181603</v>
+        <v>1.252518047072691</v>
       </c>
       <c r="J26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M26">
         <v>77</v>
@@ -1505,43 +1505,43 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>5.106078419246904</v>
+      </c>
+      <c r="E27">
+        <v>0.8862785617566814</v>
+      </c>
+      <c r="F27">
+        <v>3.713308580858082</v>
+      </c>
+      <c r="G27">
+        <v>1.245432135763735</v>
+      </c>
+      <c r="H27">
+        <v>0.9563984250473163</v>
+      </c>
+      <c r="I27">
+        <v>1.227161235297038</v>
+      </c>
+      <c r="J27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>5.074215905332365</v>
-      </c>
-      <c r="E27">
-        <v>0.887693403142799</v>
-      </c>
-      <c r="F27">
-        <v>3.82460602310231</v>
-      </c>
-      <c r="G27">
-        <v>1.221900552494966</v>
-      </c>
-      <c r="H27">
-        <v>0.9598968825427725</v>
-      </c>
-      <c r="I27">
-        <v>1.247900879127958</v>
-      </c>
-      <c r="J27">
-        <v>25</v>
-      </c>
       <c r="K27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1549,28 +1549,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>5.290871085700572</v>
+        <v>5.231596243673429</v>
       </c>
       <c r="E28">
-        <v>0.877898291014909</v>
+        <v>0.8806188326328511</v>
       </c>
       <c r="F28">
-        <v>3.680051335602307</v>
+        <v>3.640326423267325</v>
       </c>
       <c r="G28">
-        <v>1.274072373625913</v>
+        <v>1.276047398459799</v>
       </c>
       <c r="H28">
-        <v>0.9493050525681096</v>
+        <v>0.950290914097828</v>
       </c>
       <c r="I28">
-        <v>1.200735257225026</v>
+        <v>1.20304234705667</v>
       </c>
       <c r="J28">
         <v>27</v>
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>5.620222228075904</v>
+        <v>5.551454794335478</v>
       </c>
       <c r="E29">
-        <v>0.8622237502060257</v>
+        <v>0.8655747050230298</v>
       </c>
       <c r="F29">
-        <v>4.200538675742576</v>
+        <v>4.144835292904292</v>
       </c>
       <c r="G29">
-        <v>1.353382034535367</v>
+        <v>1.3540646330545</v>
       </c>
       <c r="H29">
-        <v>0.9323555711317626</v>
+        <v>0.9340565374885987</v>
       </c>
       <c r="I29">
-        <v>1.370561013240847</v>
+        <v>1.369770674153834</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1631,28 +1631,28 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
       <c r="D30">
-        <v>6.493074719388669</v>
+        <v>6.647465098991774</v>
       </c>
       <c r="E30">
-        <v>0.8161057356226251</v>
+        <v>0.8072566005467648</v>
       </c>
       <c r="F30">
-        <v>4.358176670792077</v>
+        <v>4.318844936056104</v>
       </c>
       <c r="G30">
-        <v>1.563569965297414</v>
+        <v>1.621394341388372</v>
       </c>
       <c r="H30">
-        <v>0.8824863952756172</v>
+        <v>0.8711244688596419</v>
       </c>
       <c r="I30">
-        <v>1.421995485554593</v>
+        <v>1.427276772554745</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>12.42180792169641</v>
+        <v>12.5444823594578</v>
       </c>
       <c r="E31">
-        <v>0.3269660039523823</v>
+        <v>0.3136069570479888</v>
       </c>
       <c r="F31">
-        <v>9.671042076261191</v>
+        <v>9.681661459806691</v>
       </c>
       <c r="G31">
-        <v>2.991243227659426</v>
+        <v>3.059745694092633</v>
       </c>
       <c r="H31">
-        <v>0.3535608654747111</v>
+        <v>0.3384186561052364</v>
       </c>
       <c r="I31">
-        <v>3.155488914714542</v>
+        <v>3.199561624905037</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1716,25 +1716,25 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>12.4935709411705</v>
+        <v>12.56942961582995</v>
       </c>
       <c r="E32">
-        <v>0.3191670639046972</v>
+        <v>0.3108741778661289</v>
       </c>
       <c r="F32">
-        <v>9.763476457891315</v>
+        <v>9.791248988537237</v>
       </c>
       <c r="G32">
-        <v>3.008524178013145</v>
+        <v>3.065830621160712</v>
       </c>
       <c r="H32">
-        <v>0.3451275728396562</v>
+        <v>0.3354696671323423</v>
       </c>
       <c r="I32">
-        <v>3.185648608393087</v>
+        <v>3.235777728199918</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,39 +1743,39 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>12.54851942752958</v>
+        <v>12.68080350563801</v>
       </c>
       <c r="E33">
-        <v>0.3131650956393828</v>
+        <v>0.2986078049772706</v>
       </c>
       <c r="F33">
-        <v>9.732470166637189</v>
+        <v>9.85514585027698</v>
       </c>
       <c r="G33">
-        <v>3.021756091493683</v>
+        <v>3.092996013084409</v>
       </c>
       <c r="H33">
-        <v>0.3386374146312042</v>
+        <v>0.3222328133730747</v>
       </c>
       <c r="I33">
-        <v>3.175531807373374</v>
+        <v>3.256894139636435</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1784,51 +1784,51 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>12.55193587378758</v>
+        <v>12.73274963807372</v>
       </c>
       <c r="E34">
-        <v>0.3127910508789803</v>
+        <v>0.2928496149839912</v>
       </c>
       <c r="F34">
-        <v>9.785814640057744</v>
+        <v>9.81522369533827</v>
       </c>
       <c r="G34">
-        <v>3.02257879152224</v>
+        <v>3.105666281214292</v>
       </c>
       <c r="H34">
-        <v>0.3382329457028888</v>
+        <v>0.3160190516074961</v>
       </c>
       <c r="I34">
-        <v>3.192937159683134</v>
+        <v>3.243700805470012</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1842,34 +1842,34 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>12.58803316254021</v>
+        <v>12.68953724066267</v>
       </c>
       <c r="E35">
-        <v>0.3088327691223374</v>
+        <v>0.2976413231451733</v>
       </c>
       <c r="F35">
-        <v>9.816619320190938</v>
+        <v>9.886930452911351</v>
       </c>
       <c r="G35">
-        <v>3.031271227534681</v>
+        <v>3.09512627301617</v>
       </c>
       <c r="H35">
-        <v>0.3339527040057268</v>
+        <v>0.3211898662208582</v>
       </c>
       <c r="I35">
-        <v>3.202988178582145</v>
+        <v>3.267398203972291</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35">
         <v>35</v>
       </c>
       <c r="M35">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1880,25 +1880,25 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>12.59139923301127</v>
+        <v>12.74426719366783</v>
       </c>
       <c r="E36">
-        <v>0.3084630801273072</v>
+        <v>0.2915697142916468</v>
       </c>
       <c r="F36">
-        <v>9.797835433610315</v>
+        <v>9.867068301361376</v>
       </c>
       <c r="G36">
-        <v>3.032081796782237</v>
+        <v>3.108475547481781</v>
       </c>
       <c r="H36">
-        <v>0.333552945133369</v>
+        <v>0.3146378887776643</v>
       </c>
       <c r="I36">
-        <v>3.196859330686228</v>
+        <v>3.260834229580997</v>
       </c>
       <c r="J36">
         <v>35</v>
@@ -1921,25 +1921,25 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>12.60714392660955</v>
+        <v>12.750668372726</v>
       </c>
       <c r="E37">
-        <v>0.3067325585084216</v>
+        <v>0.2908578761129557</v>
       </c>
       <c r="F37">
-        <v>9.984531491631298</v>
+        <v>10.02669823049268</v>
       </c>
       <c r="G37">
-        <v>3.035873210109048</v>
+        <v>3.110036869782624</v>
       </c>
       <c r="H37">
-        <v>0.331681665814113</v>
+        <v>0.3138697319674179</v>
       </c>
       <c r="I37">
-        <v>3.257774931803525</v>
+        <v>3.313588170374651</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1962,25 +1962,25 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>12.94020288814548</v>
+        <v>13.04578847474383</v>
       </c>
       <c r="E38">
-        <v>0.2696188536196954</v>
+        <v>0.257651136655893</v>
       </c>
       <c r="F38">
-        <v>10.06593860796793</v>
+        <v>10.07391021481612</v>
       </c>
       <c r="G38">
-        <v>3.116075735328065</v>
+        <v>3.182020107951749</v>
       </c>
       <c r="H38">
-        <v>0.2915491949675657</v>
+        <v>0.2780357688229835</v>
       </c>
       <c r="I38">
-        <v>3.284336625068169</v>
+        <v>3.32919062186544</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -55,25 +55,25 @@
     <t>Coarse Aggregate</t>
   </si>
   <si>
+    <t>Fine Aggregate</t>
+  </si>
+  <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
+    <t>None dropped</t>
+  </si>
+  <si>
     <t>Superplasticizer</t>
   </si>
   <si>
-    <t>None dropped</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
-  </si>
-  <si>
-    <t>Fine Aggregate</t>
-  </si>
-  <si>
     <t>Blast Furnace Slag</t>
   </si>
   <si>
+    <t>Cement</t>
+  </si>
+  <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>Cement</t>
   </si>
   <si>
     <t>Age</t>
@@ -492,22 +492,22 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>4.050491135682797</v>
+        <v>4.078076117935607</v>
       </c>
       <c r="E2">
-        <v>0.9284379529929546</v>
+        <v>0.9274599186725603</v>
       </c>
       <c r="F2">
-        <v>3.003496596534652</v>
+        <v>2.952994791666667</v>
       </c>
       <c r="G2">
-        <v>0.9879620741801166</v>
+        <v>0.9838147829173357</v>
       </c>
       <c r="H2">
-        <v>1.001893348561437</v>
+        <v>1.002601382113653</v>
       </c>
       <c r="I2">
-        <v>0.9925850527515795</v>
+        <v>0.9836121482375589</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -516,159 +516,159 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>4.132459056353194</v>
+        <v>4.089858204990453</v>
       </c>
       <c r="E3">
-        <v>0.9255123108132824</v>
+        <v>0.9270401579033198</v>
       </c>
       <c r="F3">
-        <v>2.935236463490096</v>
+        <v>2.929013768564359</v>
       </c>
       <c r="G3">
-        <v>1.007955006940382</v>
+        <v>0.986657150514938</v>
       </c>
       <c r="H3">
-        <v>0.9987362378136104</v>
+        <v>1.002147612932986</v>
       </c>
       <c r="I3">
-        <v>0.9700266826715093</v>
+        <v>0.9756243164550037</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="D4">
-        <v>4.099844762810547</v>
+        <v>4.140072903860873</v>
       </c>
       <c r="E4">
-        <v>0.9266834182760539</v>
+        <v>0.9252375783305506</v>
       </c>
       <c r="F4">
-        <v>3.025933735561053</v>
+        <v>2.989672132838283</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.9987711870458379</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1.000198990965996</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9958289927925383</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5">
-        <v>4.103958847360731</v>
+        <v>4.145166538200173</v>
       </c>
       <c r="E5">
-        <v>0.9265362019921557</v>
+        <v>0.9250535010407804</v>
       </c>
       <c r="F5">
-        <v>3.023033364273923</v>
+        <v>3.002194306930691</v>
       </c>
       <c r="G5">
-        <v>1.001003473250378</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.9998411363784062</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.9990414954388972</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>4.153777034439462</v>
+        <v>4.152640370514614</v>
       </c>
       <c r="E6">
-        <v>0.9247418142654472</v>
+        <v>0.9247829968131788</v>
       </c>
       <c r="F6">
-        <v>2.983447813531355</v>
+        <v>3.027348391089108</v>
       </c>
       <c r="G6">
-        <v>1.013154710665665</v>
+        <v>1.001803023411862</v>
       </c>
       <c r="H6">
-        <v>0.9979047817492852</v>
+        <v>0.9997075799104621</v>
       </c>
       <c r="I6">
-        <v>0.9859594010501949</v>
+        <v>1.008378566337411</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -677,48 +677,48 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>4.15166216429575</v>
+        <v>4.197193109574337</v>
       </c>
       <c r="E7">
-        <v>0.9248184292453858</v>
+        <v>0.9231603664198571</v>
       </c>
       <c r="F7">
-        <v>3.040838129125411</v>
+        <v>2.987815877681515</v>
       </c>
       <c r="G7">
-        <v>1.012638869148226</v>
+        <v>1.012551141406433</v>
       </c>
       <c r="H7">
-        <v>0.9979874582906235</v>
+        <v>0.9979534863456078</v>
       </c>
       <c r="I7">
-        <v>1.004925551868238</v>
+        <v>0.9952106933198883</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>19</v>
@@ -726,31 +726,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>4.160165934010212</v>
+        <v>4.162282780013152</v>
       </c>
       <c r="E8">
-        <v>0.9245101278954704</v>
+        <v>0.9244332842826231</v>
       </c>
       <c r="F8">
-        <v>3.011985715759072</v>
+        <v>2.99385470812706</v>
       </c>
       <c r="G8">
-        <v>1.014713037856173</v>
+        <v>1.004129204859501</v>
       </c>
       <c r="H8">
-        <v>0.9976547650063421</v>
+        <v>0.9993295341756346</v>
       </c>
       <c r="I8">
-        <v>0.9953905071885538</v>
+        <v>0.9972221655392594</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -767,40 +767,40 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>4.194268993510037</v>
+        <v>4.152533814964971</v>
       </c>
       <c r="E9">
-        <v>0.9232673949662336</v>
+        <v>0.9247868568567045</v>
       </c>
       <c r="F9">
-        <v>3.00694590552805</v>
+        <v>3.068703434405938</v>
       </c>
       <c r="G9">
-        <v>1.023031172193642</v>
+        <v>1.001777317436321</v>
       </c>
       <c r="H9">
-        <v>0.9963137105483387</v>
+        <v>0.9997117526891407</v>
       </c>
       <c r="I9">
-        <v>0.9937249683263529</v>
+        <v>1.022153505295013</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>20</v>
@@ -811,204 +811,204 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>4.211738151216971</v>
+        <v>4.231830673151173</v>
       </c>
       <c r="E10">
-        <v>0.9226268802636917</v>
+        <v>0.9218868868035506</v>
       </c>
       <c r="F10">
-        <v>3.019617780528051</v>
+        <v>3.035037541254127</v>
       </c>
       <c r="G10">
-        <v>1.02729210369656</v>
+        <v>1.020907274569631</v>
       </c>
       <c r="H10">
-        <v>0.9956225201267669</v>
+        <v>0.9965768312495795</v>
       </c>
       <c r="I10">
-        <v>0.9979127252659975</v>
+        <v>1.010939743056476</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>4.285014397749197</v>
+        <v>4.20238704340013</v>
       </c>
       <c r="E11">
-        <v>0.9199111691575864</v>
+        <v>0.922970074050509</v>
       </c>
       <c r="F11">
-        <v>3.052759179042904</v>
+        <v>3.097493657178215</v>
       </c>
       <c r="G11">
-        <v>1.045165035666304</v>
+        <v>1.01380415109324</v>
       </c>
       <c r="H11">
-        <v>0.9926919496077029</v>
+        <v>0.9977477767632603</v>
       </c>
       <c r="I11">
-        <v>1.008865178760062</v>
+        <v>1.031743231951217</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>4.263833502307265</v>
+        <v>4.273348820267575</v>
       </c>
       <c r="E12">
-        <v>0.920700973085667</v>
+        <v>0.9203466452721545</v>
       </c>
       <c r="F12">
-        <v>3.176064923679864</v>
+        <v>3.035558116749173</v>
       </c>
       <c r="G12">
-        <v>1.039998767998303</v>
+        <v>1.030923312944396</v>
       </c>
       <c r="H12">
-        <v>0.9935442405978124</v>
+        <v>0.9949118015732817</v>
       </c>
       <c r="I12">
-        <v>1.049614830078549</v>
+        <v>1.011113141391768</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>4.304606396218782</v>
+      </c>
+      <c r="E13">
+        <v>0.9191771285054041</v>
+      </c>
+      <c r="F13">
+        <v>3.09343205961221</v>
+      </c>
+      <c r="G13">
+        <v>1.038464041564862</v>
+      </c>
+      <c r="H13">
+        <v>0.9936475322467676</v>
+      </c>
+      <c r="I13">
+        <v>1.030390355637839</v>
+      </c>
+      <c r="J13">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>4.308306135239357</v>
-      </c>
-      <c r="E13">
-        <v>0.9190381369197338</v>
-      </c>
-      <c r="F13">
-        <v>3.075126392326729</v>
-      </c>
-      <c r="G13">
-        <v>1.050846162352231</v>
-      </c>
-      <c r="H13">
-        <v>0.991749845518394</v>
-      </c>
-      <c r="I13">
-        <v>1.016257017193589</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
       <c r="K13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13">
         <v>11</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>4.274936150573505</v>
+      </c>
+      <c r="E14">
+        <v>0.9202874599954397</v>
+      </c>
+      <c r="F14">
+        <v>3.117850453795377</v>
+      </c>
+      <c r="G14">
+        <v>1.031306248175418</v>
+      </c>
+      <c r="H14">
+        <v>0.9948478211909058</v>
+      </c>
+      <c r="I14">
+        <v>1.038523871222355</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>4.382404036845277</v>
-      </c>
-      <c r="E14">
-        <v>0.9162292868453769</v>
-      </c>
-      <c r="F14">
-        <v>3.116809302805279</v>
-      </c>
-      <c r="G14">
-        <v>1.068919505586604</v>
-      </c>
-      <c r="H14">
-        <v>0.9887187671382689</v>
-      </c>
-      <c r="I14">
-        <v>1.030032239693899</v>
-      </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
       <c r="M14">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1022,22 +1022,22 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>4.434557267547484</v>
+        <v>4.369624311021475</v>
       </c>
       <c r="E15">
-        <v>0.9142235796427113</v>
+        <v>0.9167171495678624</v>
       </c>
       <c r="F15">
-        <v>3.293626031353134</v>
+        <v>3.256751186056102</v>
       </c>
       <c r="G15">
-        <v>1.08164028740139</v>
+        <v>1.054149277418118</v>
       </c>
       <c r="H15">
-        <v>0.9865543740315088</v>
+        <v>0.9909882493676974</v>
       </c>
       <c r="I15">
-        <v>1.088466013860825</v>
+        <v>1.08479027441287</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1054,31 +1054,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>4.509171889731543</v>
+        <v>4.558078395153955</v>
       </c>
       <c r="E16">
-        <v>0.9113127957298434</v>
+        <v>0.9093785590342095</v>
       </c>
       <c r="F16">
-        <v>3.382462252475243</v>
+        <v>3.397987933168314</v>
       </c>
       <c r="G16">
-        <v>1.099839664817063</v>
+        <v>1.099612851051593</v>
       </c>
       <c r="H16">
-        <v>0.9834132970947024</v>
+        <v>0.9830550968252809</v>
       </c>
       <c r="I16">
-        <v>1.117824297579367</v>
+        <v>1.131834780088656</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1098,28 +1098,28 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
-        <v>4.740833611771706</v>
+        <v>4.831676402208601</v>
       </c>
       <c r="E17">
-        <v>0.9019659805735376</v>
+        <v>0.8981729732767814</v>
       </c>
       <c r="F17">
-        <v>3.33203650990099</v>
+        <v>3.356894131600658</v>
       </c>
       <c r="G17">
-        <v>1.156344663284701</v>
+        <v>1.165616955961077</v>
       </c>
       <c r="H17">
-        <v>0.9733269882518248</v>
+        <v>0.9709416506896567</v>
       </c>
       <c r="I17">
-        <v>1.10115977449955</v>
+        <v>1.118146858066824</v>
       </c>
       <c r="J17">
         <v>17</v>
@@ -1136,31 +1136,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>4.671471408825536</v>
+        <v>4.662116134624374</v>
       </c>
       <c r="E18">
-        <v>0.9048136282364301</v>
+        <v>0.9051944945032959</v>
       </c>
       <c r="F18">
-        <v>3.437783725247521</v>
+        <v>3.470422029702968</v>
       </c>
       <c r="G18">
-        <v>1.139426412238868</v>
+        <v>1.124711417903286</v>
       </c>
       <c r="H18">
-        <v>0.9763999337764032</v>
+        <v>0.9785320454274903</v>
       </c>
       <c r="I18">
-        <v>1.136106744455891</v>
+        <v>1.155961831548129</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -1169,39 +1169,39 @@
         <v>16</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19">
-        <v>4.775368210074311</v>
+        <v>4.840975668487736</v>
       </c>
       <c r="E19">
-        <v>0.9005325210457283</v>
+        <v>0.8977806341395417</v>
       </c>
       <c r="F19">
-        <v>3.419345761138611</v>
+        <v>3.514966687293731</v>
       </c>
       <c r="G19">
-        <v>1.164768054974032</v>
+        <v>1.167860355880824</v>
       </c>
       <c r="H19">
-        <v>0.9717801174440186</v>
+        <v>0.9705175248020207</v>
       </c>
       <c r="I19">
-        <v>1.130013430550096</v>
+        <v>1.170799198166249</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -1210,48 +1210,48 @@
         <v>18</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>4.800160345013729</v>
+        <v>4.899585811952039</v>
       </c>
       <c r="E20">
-        <v>0.8994970354415227</v>
+        <v>0.895290491877583</v>
       </c>
       <c r="F20">
-        <v>3.495488139438944</v>
+        <v>3.411508250825081</v>
       </c>
       <c r="G20">
-        <v>1.170815146113751</v>
+        <v>1.18199975002197</v>
       </c>
       <c r="H20">
-        <v>0.970662707135618</v>
+        <v>0.9678256348095424</v>
       </c>
       <c r="I20">
-        <v>1.155176697480069</v>
+        <v>1.136338258636182</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M20">
         <v>59</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1268,186 +1268,186 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>4.916204919345254</v>
+        <v>4.848688471448527</v>
       </c>
       <c r="E21">
-        <v>0.8945789501598826</v>
+        <v>0.8974546561002071</v>
       </c>
       <c r="F21">
-        <v>3.414795688943895</v>
+        <v>3.508327841377883</v>
       </c>
       <c r="G21">
-        <v>1.19911977251916</v>
+        <v>1.169721029725822</v>
       </c>
       <c r="H21">
-        <v>0.965355516800013</v>
+        <v>0.9701651364926226</v>
       </c>
       <c r="I21">
-        <v>1.128509738601642</v>
+        <v>1.168587866974087</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>4.867383404227323</v>
+        <v>4.841041718774229</v>
       </c>
       <c r="E22">
-        <v>0.8966623700496579</v>
+        <v>0.8977778447578458</v>
       </c>
       <c r="F22">
-        <v>3.422675484735972</v>
+        <v>3.640126340759075</v>
       </c>
       <c r="G22">
-        <v>1.187211635030446</v>
+        <v>1.167876290171011</v>
       </c>
       <c r="H22">
-        <v>0.9676037710027817</v>
+        <v>0.9705145094286475</v>
       </c>
       <c r="I22">
-        <v>1.131113825961346</v>
+        <v>1.212488589547882</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>4.842731592159053</v>
+        <v>5.048913082789745</v>
       </c>
       <c r="E23">
-        <v>0.8977064664639466</v>
+        <v>0.8888106550971959</v>
       </c>
       <c r="F23">
-        <v>3.625240924092409</v>
+        <v>3.563892223597358</v>
       </c>
       <c r="G23">
-        <v>1.181198770277155</v>
+        <v>1.218024182203781</v>
       </c>
       <c r="H23">
-        <v>0.9687304733843038</v>
+        <v>0.9608208110095172</v>
       </c>
       <c r="I23">
-        <v>1.198056944039535</v>
+        <v>1.18709579035906</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
       <c r="D24">
-        <v>4.989848607450221</v>
+        <v>4.983727005390532</v>
       </c>
       <c r="E24">
-        <v>0.8913969251913825</v>
+        <v>0.8916632326694058</v>
       </c>
       <c r="F24">
-        <v>3.503082508250825</v>
+        <v>3.73393574669967</v>
       </c>
       <c r="G24">
-        <v>1.217082327778078</v>
+        <v>1.202298377993387</v>
       </c>
       <c r="H24">
-        <v>0.9619217389792986</v>
+        <v>0.9639045002977589</v>
       </c>
       <c r="I24">
-        <v>1.157686457929424</v>
+        <v>1.243735536397402</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25">
-        <v>4.993705507910927</v>
+        <v>5.064135533438333</v>
       </c>
       <c r="E25">
-        <v>0.8912289709445234</v>
+        <v>0.8881391735962554</v>
       </c>
       <c r="F25">
-        <v>3.657758121905941</v>
+        <v>3.581968389026402</v>
       </c>
       <c r="G25">
-        <v>1.218023070826617</v>
+        <v>1.221696519734325</v>
       </c>
       <c r="H25">
-        <v>0.9617404966655302</v>
+        <v>0.9600949270469301</v>
       </c>
       <c r="I25">
-        <v>1.208803113868499</v>
+        <v>1.193116774872725</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1456,39 +1456,39 @@
         <v>24</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>5.052719665190942</v>
+        <v>5.065313578338981</v>
       </c>
       <c r="E26">
-        <v>0.8886429314902133</v>
+        <v>0.8880871242770446</v>
       </c>
       <c r="F26">
-        <v>3.790036613036304</v>
+        <v>3.735656778568482</v>
       </c>
       <c r="G26">
-        <v>1.232417312729464</v>
+        <v>1.221980716977016</v>
       </c>
       <c r="H26">
-        <v>0.9589498570540856</v>
+        <v>0.9600386607670315</v>
       </c>
       <c r="I26">
-        <v>1.252518047072691</v>
+        <v>1.24430879438568</v>
       </c>
       <c r="J26">
         <v>25</v>
@@ -1497,92 +1497,92 @@
         <v>25</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27">
-        <v>5.106078419246904</v>
+        <v>5.226498588909636</v>
       </c>
       <c r="E27">
-        <v>0.8862785617566814</v>
+        <v>0.8808513687295104</v>
       </c>
       <c r="F27">
-        <v>3.713308580858082</v>
+        <v>3.592897612417487</v>
       </c>
       <c r="G27">
-        <v>1.245432135763735</v>
+        <v>1.260865767573955</v>
       </c>
       <c r="H27">
-        <v>0.9563984250473163</v>
+        <v>0.9522166747528245</v>
       </c>
       <c r="I27">
-        <v>1.227161235297038</v>
+        <v>1.196757186609518</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.231596243673429</v>
+        <v>5.18463202036161</v>
       </c>
       <c r="E28">
-        <v>0.8806188326328511</v>
+        <v>0.8827525899123769</v>
       </c>
       <c r="F28">
-        <v>3.640326423267325</v>
+        <v>3.736411406765675</v>
       </c>
       <c r="G28">
-        <v>1.276047398459799</v>
+        <v>1.250765674329884</v>
       </c>
       <c r="H28">
-        <v>0.950290914097828</v>
+        <v>0.9542719301307323</v>
       </c>
       <c r="I28">
-        <v>1.20304234705667</v>
+        <v>1.244560153265234</v>
       </c>
       <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
         <v>27</v>
       </c>
-      <c r="K28">
-        <v>27</v>
-      </c>
-      <c r="L28">
-        <v>24</v>
-      </c>
       <c r="M28">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>5.551454794335478</v>
+        <v>5.475982872036449</v>
       </c>
       <c r="E29">
-        <v>0.8655747050230298</v>
+        <v>0.8692048787233819</v>
       </c>
       <c r="F29">
-        <v>4.144835292904292</v>
+        <v>4.065996338696368</v>
       </c>
       <c r="G29">
-        <v>1.3540646330545</v>
+        <v>1.32105256123536</v>
       </c>
       <c r="H29">
-        <v>0.9340565374885987</v>
+        <v>0.9396266029428968</v>
       </c>
       <c r="I29">
-        <v>1.369770674153834</v>
+        <v>1.354341499252678</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1631,28 +1631,28 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
       <c r="D30">
-        <v>6.647465098991774</v>
+        <v>6.755661840335233</v>
       </c>
       <c r="E30">
-        <v>0.8072566005467648</v>
+        <v>0.8009312049130485</v>
       </c>
       <c r="F30">
-        <v>4.318844936056104</v>
+        <v>4.372635880775577</v>
       </c>
       <c r="G30">
-        <v>1.621394341388372</v>
+        <v>1.62976849737587</v>
       </c>
       <c r="H30">
-        <v>0.8711244688596419</v>
+        <v>0.8658214946615719</v>
       </c>
       <c r="I30">
-        <v>1.427276772554745</v>
+        <v>1.456479972226036</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>12.5444823594578</v>
+        <v>12.51248231830352</v>
       </c>
       <c r="E31">
-        <v>0.3136069570479888</v>
+        <v>0.3171043657024929</v>
       </c>
       <c r="F31">
-        <v>9.681661459806691</v>
+        <v>9.691636115531189</v>
       </c>
       <c r="G31">
-        <v>3.059745694092633</v>
+        <v>3.018571679326647</v>
       </c>
       <c r="H31">
-        <v>0.3384186561052364</v>
+        <v>0.3427957035411658</v>
       </c>
       <c r="I31">
-        <v>3.199561624905037</v>
+        <v>3.228184162883009</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1719,22 +1719,22 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <v>12.56942961582995</v>
+        <v>12.58214131231506</v>
       </c>
       <c r="E32">
-        <v>0.3108741778661289</v>
+        <v>0.309479621690908</v>
       </c>
       <c r="F32">
-        <v>9.791248988537237</v>
+        <v>9.813558524133652</v>
       </c>
       <c r="G32">
-        <v>3.065830621160712</v>
+        <v>3.035376551548207</v>
       </c>
       <c r="H32">
-        <v>0.3354696671323423</v>
+        <v>0.3345532137792156</v>
       </c>
       <c r="I32">
-        <v>3.235777728199918</v>
+        <v>3.268795261345557</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1751,31 +1751,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>12.68080350563801</v>
+        <v>12.68810695813776</v>
       </c>
       <c r="E33">
-        <v>0.2986078049772706</v>
+        <v>0.2977996448724813</v>
       </c>
       <c r="F33">
-        <v>9.85514585027698</v>
+        <v>9.882655721799848</v>
       </c>
       <c r="G33">
-        <v>3.092996013084409</v>
+        <v>3.060940215841585</v>
       </c>
       <c r="H33">
-        <v>0.3222328133730747</v>
+        <v>0.3219269421038092</v>
       </c>
       <c r="I33">
-        <v>3.256894139636435</v>
+        <v>3.291810826163158</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1792,154 +1792,154 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>12.73274963807372</v>
+        <v>12.69829729681625</v>
       </c>
       <c r="E34">
-        <v>0.2928496149839912</v>
+        <v>0.2966712601632094</v>
       </c>
       <c r="F34">
-        <v>9.81522369533827</v>
+        <v>9.940105075378453</v>
       </c>
       <c r="G34">
-        <v>3.105666281214292</v>
+        <v>3.063398582371515</v>
       </c>
       <c r="H34">
-        <v>0.3160190516074961</v>
+        <v>0.3207071372946794</v>
       </c>
       <c r="I34">
-        <v>3.243700805470012</v>
+        <v>3.310946614092001</v>
       </c>
       <c r="J34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>12.68953724066267</v>
+        <v>12.7157757376567</v>
       </c>
       <c r="E35">
-        <v>0.2976413231451733</v>
+        <v>0.2947337484115732</v>
       </c>
       <c r="F35">
-        <v>9.886930452911351</v>
+        <v>9.840171114008712</v>
       </c>
       <c r="G35">
-        <v>3.09512627301617</v>
+        <v>3.067615165874102</v>
       </c>
       <c r="H35">
-        <v>0.3211898662208582</v>
+        <v>0.3186126511385205</v>
       </c>
       <c r="I35">
-        <v>3.267398203972291</v>
+        <v>3.277659640914069</v>
       </c>
       <c r="J35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>12.74426719366783</v>
+        <v>12.70897770319219</v>
       </c>
       <c r="E36">
-        <v>0.2915697142916468</v>
+        <v>0.2954876375647256</v>
       </c>
       <c r="F36">
-        <v>9.867068301361376</v>
+        <v>9.89485374381187</v>
       </c>
       <c r="G36">
-        <v>3.108475547481781</v>
+        <v>3.065975175200177</v>
       </c>
       <c r="H36">
-        <v>0.3146378887776643</v>
+        <v>0.3194276193023123</v>
       </c>
       <c r="I36">
-        <v>3.260834229580997</v>
+        <v>3.295873861651521</v>
       </c>
       <c r="J36">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36">
         <v>35</v>
       </c>
-      <c r="K36">
-        <v>35</v>
-      </c>
-      <c r="L36">
-        <v>34</v>
-      </c>
       <c r="M36">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>12.750668372726</v>
+        <v>12.74998737138723</v>
       </c>
       <c r="E37">
-        <v>0.2908578761129557</v>
+        <v>0.290933623332677</v>
       </c>
       <c r="F37">
-        <v>10.02669823049268</v>
+        <v>9.89184859171184</v>
       </c>
       <c r="G37">
-        <v>3.110036869782624</v>
+        <v>3.075868545663611</v>
       </c>
       <c r="H37">
-        <v>0.3138697319674179</v>
+        <v>0.3145046454127753</v>
       </c>
       <c r="I37">
-        <v>3.313588170374651</v>
+        <v>3.294872876441106</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1962,25 +1962,25 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>13.04578847474383</v>
+        <v>13.050607487244</v>
       </c>
       <c r="E38">
-        <v>0.257651136655893</v>
+        <v>0.2571025996029483</v>
       </c>
       <c r="F38">
-        <v>10.07391021481612</v>
+        <v>10.09198108940357</v>
       </c>
       <c r="G38">
-        <v>3.182020107951749</v>
+        <v>3.148391594637971</v>
       </c>
       <c r="H38">
-        <v>0.2780357688229835</v>
+        <v>0.2779326809894578</v>
       </c>
       <c r="I38">
-        <v>3.32919062186544</v>
+        <v>3.361534949988351</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,19 +52,19 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>Fine Aggregate</t>
+  </si>
+  <si>
+    <t>Fly Ash</t>
+  </si>
+  <si>
     <t>Coarse Aggregate</t>
   </si>
   <si>
-    <t>Fine Aggregate</t>
-  </si>
-  <si>
-    <t>Fly Ash</t>
+    <t>Superplasticizer</t>
   </si>
   <si>
     <t>None dropped</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -483,81 +483,81 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>4.078076117935607</v>
+        <v>4.084509747871348</v>
       </c>
       <c r="E2">
-        <v>0.9274599186725603</v>
+        <v>0.9272308576357567</v>
       </c>
       <c r="F2">
-        <v>2.952994791666667</v>
+        <v>2.967790854891942</v>
       </c>
       <c r="G2">
-        <v>0.9838147829173357</v>
+        <v>0.9835462841230982</v>
       </c>
       <c r="H2">
-        <v>1.002601382113653</v>
+        <v>1.002654773871888</v>
       </c>
       <c r="I2">
-        <v>0.9836121482375589</v>
+        <v>0.9732319539992447</v>
       </c>
       <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>4.089858204990453</v>
+        <v>4.07531728160366</v>
       </c>
       <c r="E3">
-        <v>0.9270401579033198</v>
+        <v>0.9275580328386397</v>
       </c>
       <c r="F3">
-        <v>2.929013768564359</v>
+        <v>3.017503672947937</v>
       </c>
       <c r="G3">
-        <v>0.986657150514938</v>
+        <v>0.9813327464900389</v>
       </c>
       <c r="H3">
-        <v>1.002147612932986</v>
+        <v>1.003008562549607</v>
       </c>
       <c r="I3">
-        <v>0.9756243164550037</v>
+        <v>0.9895343504351979</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -574,22 +574,22 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4.140072903860873</v>
+        <v>4.152282600893971</v>
       </c>
       <c r="E4">
-        <v>0.9252375783305506</v>
+        <v>0.9247959568564609</v>
       </c>
       <c r="F4">
-        <v>2.989672132838283</v>
+        <v>3.04847146811455</v>
       </c>
       <c r="G4">
-        <v>0.9987711870458379</v>
+        <v>0.9998659263493312</v>
       </c>
       <c r="H4">
-        <v>1.000198990965996</v>
+        <v>1.000021810494795</v>
       </c>
       <c r="I4">
-        <v>0.9958289927925383</v>
+        <v>0.9996896643621792</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -598,212 +598,212 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
       <c r="D5">
-        <v>4.145166538200173</v>
+        <v>4.160520161537532</v>
       </c>
       <c r="E5">
-        <v>0.9250535010407804</v>
+        <v>0.9244972718077065</v>
       </c>
       <c r="F5">
-        <v>3.002194306930691</v>
+        <v>2.985997152134566</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.001849523564502</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.9996988294512374</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9792023714265116</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>4.152839387231258</v>
+      </c>
+      <c r="E6">
+        <v>0.9247757870389713</v>
+      </c>
+      <c r="F6">
+        <v>3.049417811135951</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>4.152640370514614</v>
-      </c>
-      <c r="E6">
-        <v>0.9247829968131788</v>
-      </c>
-      <c r="F6">
-        <v>3.027348391089108</v>
-      </c>
-      <c r="G6">
-        <v>1.001803023411862</v>
-      </c>
       <c r="H6">
-        <v>0.9997075799104621</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1.008378566337411</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>4.197193109574337</v>
+        <v>4.196768946665594</v>
       </c>
       <c r="E7">
-        <v>0.9231603664198571</v>
+        <v>0.9231758962631387</v>
       </c>
       <c r="F7">
-        <v>2.987815877681515</v>
+        <v>3.024617055253913</v>
       </c>
       <c r="G7">
-        <v>1.012551141406433</v>
+        <v>1.010578198513866</v>
       </c>
       <c r="H7">
-        <v>0.9979534863456078</v>
+        <v>0.9982699690041028</v>
       </c>
       <c r="I7">
-        <v>0.9952106933198883</v>
+        <v>0.9918670521987935</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>4.162282780013152</v>
+        <v>4.167198661186369</v>
       </c>
       <c r="E8">
-        <v>0.9244332842826231</v>
+        <v>0.9242546821155059</v>
       </c>
       <c r="F8">
-        <v>2.99385470812706</v>
+        <v>3.082209730650483</v>
       </c>
       <c r="G8">
-        <v>1.004129204859501</v>
+        <v>1.003457700290375</v>
       </c>
       <c r="H8">
-        <v>0.9993295341756346</v>
+        <v>0.9994365067395049</v>
       </c>
       <c r="I8">
-        <v>0.9972221655392594</v>
+        <v>1.010753501666705</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>4.2018470766169</v>
+      </c>
+      <c r="E9">
+        <v>0.9229898680050908</v>
+      </c>
+      <c r="F9">
+        <v>3.028813744277649</v>
+      </c>
+      <c r="G9">
+        <v>1.011801007651855</v>
+      </c>
+      <c r="H9">
+        <v>0.9980688086140329</v>
+      </c>
+      <c r="I9">
+        <v>0.9932432785094061</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>21</v>
-      </c>
-      <c r="D9">
-        <v>4.152533814964971</v>
-      </c>
-      <c r="E9">
-        <v>0.9247868568567045</v>
-      </c>
-      <c r="F9">
-        <v>3.068703434405938</v>
-      </c>
-      <c r="G9">
-        <v>1.001777317436321</v>
-      </c>
-      <c r="H9">
-        <v>0.9997117526891407</v>
-      </c>
-      <c r="I9">
-        <v>1.022153505295013</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -811,37 +811,37 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
       <c r="D10">
-        <v>4.231830673151173</v>
+        <v>4.207451292690001</v>
       </c>
       <c r="E10">
-        <v>0.9218868868035506</v>
+        <v>0.92278430639248</v>
       </c>
       <c r="F10">
-        <v>3.035037541254127</v>
+        <v>3.085542957521561</v>
       </c>
       <c r="G10">
-        <v>1.020907274569631</v>
+        <v>1.013150497856156</v>
       </c>
       <c r="H10">
-        <v>0.9965768312495795</v>
+        <v>0.99784652596402</v>
       </c>
       <c r="I10">
-        <v>1.010939743056476</v>
+        <v>1.01184657158284</v>
       </c>
       <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
         <v>10</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
       </c>
       <c r="M10">
         <v>28</v>
@@ -849,72 +849,72 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>4.20238704340013</v>
+        <v>4.264407558681083</v>
       </c>
       <c r="E11">
-        <v>0.922970074050509</v>
+        <v>0.9206796189796862</v>
       </c>
       <c r="F11">
-        <v>3.097493657178215</v>
+        <v>3.07568316831683</v>
       </c>
       <c r="G11">
-        <v>1.01380415109324</v>
+        <v>1.026865515625975</v>
       </c>
       <c r="H11">
-        <v>0.9977477767632603</v>
+        <v>0.995570636562187</v>
       </c>
       <c r="I11">
-        <v>1.031743231951217</v>
+        <v>1.008613236626664</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
       <c r="D12">
-        <v>4.273348820267575</v>
+        <v>4.317595720815743</v>
       </c>
       <c r="E12">
-        <v>0.9203466452721545</v>
+        <v>0.9186886199752112</v>
       </c>
       <c r="F12">
-        <v>3.035558116749173</v>
+        <v>3.185293276908331</v>
       </c>
       <c r="G12">
-        <v>1.030923312944396</v>
+        <v>1.039673177366566</v>
       </c>
       <c r="H12">
-        <v>0.9949118015732817</v>
+        <v>0.9934176833465217</v>
       </c>
       <c r="I12">
-        <v>1.011113141391768</v>
+        <v>1.044557838311361</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -923,121 +923,121 @@
         <v>11</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>4.304606396218782</v>
+        <v>4.327531182157701</v>
       </c>
       <c r="E13">
-        <v>0.9191771285054041</v>
+        <v>0.9183139690638566</v>
       </c>
       <c r="F13">
-        <v>3.09343205961221</v>
+        <v>3.090200947514104</v>
       </c>
       <c r="G13">
-        <v>1.038464041564862</v>
+        <v>1.042065627547159</v>
       </c>
       <c r="H13">
-        <v>0.9936475322467676</v>
+        <v>0.9930125571347357</v>
       </c>
       <c r="I13">
-        <v>1.030390355637839</v>
+        <v>1.013374072988365</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13">
         <v>11</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>4.274936150573505</v>
+        <v>4.39768991448378</v>
       </c>
       <c r="E14">
-        <v>0.9202874599954397</v>
+        <v>0.915643881175198</v>
       </c>
       <c r="F14">
-        <v>3.117850453795377</v>
+        <v>3.313363462152663</v>
       </c>
       <c r="G14">
-        <v>1.031306248175418</v>
+        <v>1.058959787369905</v>
       </c>
       <c r="H14">
-        <v>0.9948478211909058</v>
+        <v>0.9901252757784537</v>
       </c>
       <c r="I14">
-        <v>1.038523871222355</v>
+        <v>1.086556079672922</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>4.369624311021475</v>
+        <v>4.438335009985408</v>
       </c>
       <c r="E15">
-        <v>0.9167171495678624</v>
+        <v>0.9140773737298867</v>
       </c>
       <c r="F15">
-        <v>3.256751186056102</v>
+        <v>3.318861545832</v>
       </c>
       <c r="G15">
-        <v>1.054149277418118</v>
+        <v>1.068747089914424</v>
       </c>
       <c r="H15">
-        <v>0.9909882493676974</v>
+        <v>0.98843134361969</v>
       </c>
       <c r="I15">
-        <v>1.08479027441287</v>
+        <v>1.088359074218064</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>4.558078395153955</v>
+        <v>4.678081480295829</v>
       </c>
       <c r="E16">
-        <v>0.9093785590342095</v>
+        <v>0.90454406269179</v>
       </c>
       <c r="F16">
-        <v>3.397987933168314</v>
+        <v>3.514277121260513</v>
       </c>
       <c r="G16">
-        <v>1.099612851051593</v>
+        <v>1.12647782495021</v>
       </c>
       <c r="H16">
-        <v>0.9830550968252809</v>
+        <v>0.9781225626462809</v>
       </c>
       <c r="I16">
-        <v>1.131834780088656</v>
+        <v>1.152441986935006</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1087,174 +1087,174 @@
         <v>15</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>4.831676402208601</v>
+        <v>4.691019979925467</v>
       </c>
       <c r="E17">
-        <v>0.8981729732767814</v>
+        <v>0.9040153140770982</v>
       </c>
       <c r="F17">
-        <v>3.356894131600658</v>
+        <v>3.478801075268814</v>
       </c>
       <c r="G17">
-        <v>1.165616955961077</v>
+        <v>1.129593404057223</v>
       </c>
       <c r="H17">
-        <v>0.9709416506896567</v>
+        <v>0.9775508039323285</v>
       </c>
       <c r="I17">
-        <v>1.118146858066824</v>
+        <v>1.140808275784587</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>4.71885544012809</v>
+      </c>
+      <c r="E18">
+        <v>0.902872831298558</v>
+      </c>
+      <c r="F18">
+        <v>3.393553337591822</v>
+      </c>
+      <c r="G18">
+        <v>1.136296157909974</v>
+      </c>
+      <c r="H18">
+        <v>0.9763153879595571</v>
+      </c>
+      <c r="I18">
+        <v>1.112852861683678</v>
+      </c>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>4.662116134624374</v>
-      </c>
-      <c r="E18">
-        <v>0.9051944945032959</v>
-      </c>
-      <c r="F18">
-        <v>3.470422029702968</v>
-      </c>
-      <c r="G18">
-        <v>1.124711417903286</v>
-      </c>
-      <c r="H18">
-        <v>0.9785320454274903</v>
-      </c>
-      <c r="I18">
-        <v>1.155961831548129</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
       <c r="K18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>4.840975668487736</v>
+        <v>4.956837926523895</v>
       </c>
       <c r="E19">
-        <v>0.8977806341395417</v>
+        <v>0.8928291140704397</v>
       </c>
       <c r="F19">
-        <v>3.514966687293731</v>
+        <v>3.485064941978069</v>
       </c>
       <c r="G19">
-        <v>1.167860355880824</v>
+        <v>1.193602127201137</v>
       </c>
       <c r="H19">
-        <v>0.9705175248020207</v>
+        <v>0.9654546827282089</v>
       </c>
       <c r="I19">
-        <v>1.170799198166249</v>
+        <v>1.142862394667995</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>4.899585811952039</v>
+        <v>4.869156559927571</v>
       </c>
       <c r="E20">
-        <v>0.895290491877583</v>
+        <v>0.8965870659004703</v>
       </c>
       <c r="F20">
-        <v>3.411508250825081</v>
+        <v>3.71277738741616</v>
       </c>
       <c r="G20">
-        <v>1.18199975002197</v>
+        <v>1.172488532761169</v>
       </c>
       <c r="H20">
-        <v>0.9678256348095424</v>
+        <v>0.9695183183496205</v>
       </c>
       <c r="I20">
-        <v>1.136338258636182</v>
+        <v>1.217536466750385</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1262,192 +1262,192 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21">
-        <v>4.848688471448527</v>
+        <v>4.883853127683587</v>
       </c>
       <c r="E21">
-        <v>0.8974546561002071</v>
+        <v>0.8959618615957665</v>
       </c>
       <c r="F21">
-        <v>3.508327841377883</v>
+        <v>3.610865218779938</v>
       </c>
       <c r="G21">
-        <v>1.169721029725822</v>
+        <v>1.176027453096303</v>
       </c>
       <c r="H21">
-        <v>0.9701651364926226</v>
+        <v>0.9688422579320942</v>
       </c>
       <c r="I21">
-        <v>1.168587866974087</v>
+        <v>1.184116261665973</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>4.894672234178867</v>
+      </c>
+      <c r="E22">
+        <v>0.895500403632451</v>
+      </c>
+      <c r="F22">
+        <v>3.554431810923025</v>
+      </c>
+      <c r="G22">
+        <v>1.178632684237325</v>
+      </c>
+      <c r="H22">
+        <v>0.9683432635057878</v>
+      </c>
+      <c r="I22">
+        <v>1.165609972481583</v>
+      </c>
+      <c r="J22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>4.841041718774229</v>
-      </c>
-      <c r="E22">
-        <v>0.8977778447578458</v>
-      </c>
-      <c r="F22">
-        <v>3.640126340759075</v>
-      </c>
-      <c r="G22">
-        <v>1.167876290171011</v>
-      </c>
-      <c r="H22">
-        <v>0.9705145094286475</v>
-      </c>
-      <c r="I22">
-        <v>1.212488589547882</v>
-      </c>
-      <c r="J22">
-        <v>19</v>
-      </c>
       <c r="K22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>4.979042404636934</v>
+      </c>
+      <c r="E23">
+        <v>0.8918668056077873</v>
+      </c>
+      <c r="F23">
+        <v>3.530224049824333</v>
+      </c>
+      <c r="G23">
+        <v>1.198948945616824</v>
+      </c>
+      <c r="H23">
+        <v>0.9644140970250152</v>
+      </c>
+      <c r="I23">
+        <v>1.157671486318654</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
         <v>19</v>
       </c>
-      <c r="D23">
-        <v>5.048913082789745</v>
-      </c>
-      <c r="E23">
-        <v>0.8888106550971959</v>
-      </c>
-      <c r="F23">
-        <v>3.563892223597358</v>
-      </c>
-      <c r="G23">
-        <v>1.218024182203781</v>
-      </c>
-      <c r="H23">
-        <v>0.9608208110095172</v>
-      </c>
-      <c r="I23">
-        <v>1.18709579035906</v>
-      </c>
-      <c r="J23">
-        <v>23</v>
-      </c>
-      <c r="K23">
-        <v>23</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
       <c r="M23">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>4.983727005390532</v>
+        <v>5.00663175982455</v>
       </c>
       <c r="E24">
-        <v>0.8916632326694058</v>
+        <v>0.8906651325506341</v>
       </c>
       <c r="F24">
-        <v>3.73393574669967</v>
+        <v>3.549002555094219</v>
       </c>
       <c r="G24">
-        <v>1.202298377993387</v>
+        <v>1.20559243760268</v>
       </c>
       <c r="H24">
-        <v>0.9639045002977589</v>
+        <v>0.9631146760475252</v>
       </c>
       <c r="I24">
-        <v>1.243735536397402</v>
+        <v>1.163829548753165</v>
       </c>
       <c r="J24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.064135533438333</v>
+        <v>5.098846061359044</v>
       </c>
       <c r="E25">
-        <v>0.8881391735962554</v>
+        <v>0.8866004885225852</v>
       </c>
       <c r="F25">
-        <v>3.581968389026402</v>
+        <v>3.805966970084104</v>
       </c>
       <c r="G25">
-        <v>1.221696519734325</v>
+        <v>1.227797558710427</v>
       </c>
       <c r="H25">
-        <v>0.9600949270469301</v>
+        <v>0.9587194009062249</v>
       </c>
       <c r="I25">
-        <v>1.193116774872725</v>
+        <v>1.248096261583233</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -1456,89 +1456,89 @@
         <v>24</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>5.065313578338981</v>
+        <v>5.17492452353801</v>
       </c>
       <c r="E26">
-        <v>0.8880871242770446</v>
+        <v>0.8831912375604011</v>
       </c>
       <c r="F26">
-        <v>3.735656778568482</v>
+        <v>3.617711088044287</v>
       </c>
       <c r="G26">
-        <v>1.221980716977016</v>
+        <v>1.246117184172679</v>
       </c>
       <c r="H26">
-        <v>0.9600386607670315</v>
+        <v>0.9550328305937601</v>
       </c>
       <c r="I26">
-        <v>1.24430879438568</v>
+        <v>1.186361237490325</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>5.124926801993468</v>
+      </c>
+      <c r="E27">
+        <v>0.8854374382286296</v>
+      </c>
+      <c r="F27">
+        <v>3.908992121792824</v>
+      </c>
+      <c r="G27">
+        <v>1.234077777664865</v>
+      </c>
+      <c r="H27">
+        <v>0.9574617443907147</v>
+      </c>
+      <c r="I27">
+        <v>1.281881448818806</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>5.226498588909636</v>
-      </c>
-      <c r="E27">
-        <v>0.8808513687295104</v>
-      </c>
-      <c r="F27">
-        <v>3.592897612417487</v>
-      </c>
-      <c r="G27">
-        <v>1.260865767573955</v>
-      </c>
-      <c r="H27">
-        <v>0.9522166747528245</v>
-      </c>
-      <c r="I27">
-        <v>1.196757186609518</v>
-      </c>
-      <c r="J27">
-        <v>27</v>
-      </c>
-      <c r="K27">
-        <v>27</v>
-      </c>
-      <c r="L27">
-        <v>23</v>
       </c>
       <c r="M27">
         <v>77</v>
@@ -1549,37 +1549,37 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.18463202036161</v>
+        <v>5.197996883724705</v>
       </c>
       <c r="E28">
-        <v>0.8827525899123769</v>
+        <v>0.8821473337253476</v>
       </c>
       <c r="F28">
-        <v>3.736411406765675</v>
+        <v>3.803372830831468</v>
       </c>
       <c r="G28">
-        <v>1.250765674329884</v>
+        <v>1.251672987813349</v>
       </c>
       <c r="H28">
-        <v>0.9542719301307323</v>
+        <v>0.953904012290249</v>
       </c>
       <c r="I28">
-        <v>1.244560153265234</v>
+        <v>1.247245561740409</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M28">
         <v>79</v>
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.475982872036449</v>
+        <v>5.755550263531827</v>
       </c>
       <c r="E29">
-        <v>0.8692048787233819</v>
+        <v>0.8555089041910415</v>
       </c>
       <c r="F29">
-        <v>4.065996338696368</v>
+        <v>4.312629298413713</v>
       </c>
       <c r="G29">
-        <v>1.32105256123536</v>
+        <v>1.385931341633011</v>
       </c>
       <c r="H29">
-        <v>0.9396266029428968</v>
+        <v>0.9250987279092647</v>
       </c>
       <c r="I29">
-        <v>1.354341499252678</v>
+        <v>1.414246772831433</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.755661840335233</v>
+        <v>6.752378261363642</v>
       </c>
       <c r="E30">
-        <v>0.8009312049130485</v>
+        <v>0.8011246720433273</v>
       </c>
       <c r="F30">
-        <v>4.372635880775577</v>
+        <v>4.51606595336953</v>
       </c>
       <c r="G30">
-        <v>1.62976849737587</v>
+        <v>1.625966629512615</v>
       </c>
       <c r="H30">
-        <v>0.8658214946615719</v>
+        <v>0.8662907088089308</v>
       </c>
       <c r="I30">
-        <v>1.456479972226036</v>
+        <v>1.480960049776594</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>12.51248231830352</v>
+        <v>12.39538851416998</v>
       </c>
       <c r="E31">
-        <v>0.3171043657024929</v>
+        <v>0.3298258534271359</v>
       </c>
       <c r="F31">
-        <v>9.691636115531189</v>
+        <v>9.619504654682052</v>
       </c>
       <c r="G31">
-        <v>3.018571679326647</v>
+        <v>2.984798437493659</v>
       </c>
       <c r="H31">
-        <v>0.3427957035411658</v>
+        <v>0.3566549406350715</v>
       </c>
       <c r="I31">
-        <v>3.228184162883009</v>
+        <v>3.154538095617225</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1716,25 +1716,25 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>12.58214131231506</v>
+        <v>12.50099752799275</v>
       </c>
       <c r="E32">
-        <v>0.309479621690908</v>
+        <v>0.31835740464239</v>
       </c>
       <c r="F32">
-        <v>9.813558524133652</v>
+        <v>9.774583482380487</v>
       </c>
       <c r="G32">
-        <v>3.035376551548207</v>
+        <v>3.010228993307468</v>
       </c>
       <c r="H32">
-        <v>0.3345532137792156</v>
+        <v>0.3442536116367567</v>
       </c>
       <c r="I32">
-        <v>3.268795261345557</v>
+        <v>3.205393320221776</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1751,31 +1751,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>12.68810695813776</v>
+        <v>12.55646099436263</v>
       </c>
       <c r="E33">
-        <v>0.2977996448724813</v>
+        <v>0.3122954677388778</v>
       </c>
       <c r="F33">
-        <v>9.882655721799848</v>
+        <v>9.796356580888492</v>
       </c>
       <c r="G33">
-        <v>3.060940215841585</v>
+        <v>3.023584546267308</v>
       </c>
       <c r="H33">
-        <v>0.3219269421038092</v>
+        <v>0.3376985774452562</v>
       </c>
       <c r="I33">
-        <v>3.291810826163158</v>
+        <v>3.212533403954642</v>
       </c>
       <c r="J33">
         <v>32</v>
@@ -1792,31 +1792,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>12.69829729681625</v>
+        <v>12.57311409995578</v>
       </c>
       <c r="E34">
-        <v>0.2966712601632094</v>
+        <v>0.3104701109561814</v>
       </c>
       <c r="F34">
-        <v>9.940105075378453</v>
+        <v>9.784225974509884</v>
       </c>
       <c r="G34">
-        <v>3.063398582371515</v>
+        <v>3.027594599158916</v>
       </c>
       <c r="H34">
-        <v>0.3207071372946794</v>
+        <v>0.3357247403181607</v>
       </c>
       <c r="I34">
-        <v>3.310946614092001</v>
+        <v>3.208555396633274</v>
       </c>
       <c r="J34">
         <v>33</v>
@@ -1825,56 +1825,56 @@
         <v>33</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>12.7157757376567</v>
+        <v>12.57909065049845</v>
       </c>
       <c r="E35">
-        <v>0.2947337484115732</v>
+        <v>0.3098144277820845</v>
       </c>
       <c r="F35">
-        <v>9.840171114008712</v>
+        <v>9.934243916442325</v>
       </c>
       <c r="G35">
-        <v>3.067615165874102</v>
+        <v>3.029033747169563</v>
       </c>
       <c r="H35">
-        <v>0.3186126511385205</v>
+        <v>0.3350157217827638</v>
       </c>
       <c r="I35">
-        <v>3.277659640914069</v>
+        <v>3.257750997637703</v>
       </c>
       <c r="J35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1883,63 +1883,63 @@
         <v>13</v>
       </c>
       <c r="D36">
-        <v>12.70897770319219</v>
+        <v>12.59114861355244</v>
       </c>
       <c r="E36">
-        <v>0.2954876375647256</v>
+        <v>0.3084906085823423</v>
       </c>
       <c r="F36">
-        <v>9.89485374381187</v>
+        <v>9.805967494790943</v>
       </c>
       <c r="G36">
-        <v>3.065975175200177</v>
+        <v>3.031937293858864</v>
       </c>
       <c r="H36">
-        <v>0.3194276193023123</v>
+        <v>0.3335842189057466</v>
       </c>
       <c r="I36">
-        <v>3.295873861651521</v>
+        <v>3.215685124872437</v>
       </c>
       <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
         <v>34</v>
       </c>
-      <c r="K36">
-        <v>34</v>
-      </c>
-      <c r="L36">
-        <v>35</v>
-      </c>
       <c r="M36">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>12.74998737138723</v>
+        <v>12.59771956481604</v>
       </c>
       <c r="E37">
-        <v>0.290933623332677</v>
+        <v>0.3077686633005801</v>
       </c>
       <c r="F37">
-        <v>9.89184859171184</v>
+        <v>9.838858868306174</v>
       </c>
       <c r="G37">
-        <v>3.075868545663611</v>
+        <v>3.033519573030027</v>
       </c>
       <c r="H37">
-        <v>0.3145046454127753</v>
+        <v>0.3328035482914414</v>
       </c>
       <c r="I37">
-        <v>3.294872876441106</v>
+        <v>3.226471240633654</v>
       </c>
       <c r="J37">
         <v>36</v>
@@ -1948,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>13.050607487244</v>
+        <v>12.92591001357687</v>
       </c>
       <c r="E38">
-        <v>0.2571025996029483</v>
+        <v>0.2712314219788479</v>
       </c>
       <c r="F38">
-        <v>10.09198108940357</v>
+        <v>10.04118657586956</v>
       </c>
       <c r="G38">
-        <v>3.148391594637971</v>
+        <v>3.1125475387563</v>
       </c>
       <c r="H38">
-        <v>0.2779326809894578</v>
+        <v>0.2932942511906594</v>
       </c>
       <c r="I38">
-        <v>3.361534949988351</v>
+        <v>3.292820858854063</v>
       </c>
       <c r="J38">
         <v>37</v>

--- a/impact_df.xlsx
+++ b/impact_df.xlsx
@@ -52,19 +52,19 @@
     <t>rank_sum</t>
   </si>
   <si>
+    <t>None dropped</t>
+  </si>
+  <si>
+    <t>Superplasticizer</t>
+  </si>
+  <si>
+    <t>Coarse Aggregate</t>
+  </si>
+  <si>
     <t>Fine Aggregate</t>
   </si>
   <si>
     <t>Fly Ash</t>
-  </si>
-  <si>
-    <t>Coarse Aggregate</t>
-  </si>
-  <si>
-    <t>Superplasticizer</t>
-  </si>
-  <si>
-    <t>None dropped</t>
   </si>
   <si>
     <t>Blast Furnace Slag</t>
@@ -483,48 +483,45 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2">
-        <v>4.084509747871348</v>
+        <v>4.066874517826298</v>
       </c>
       <c r="E2">
-        <v>0.9272308576357567</v>
+        <v>0.9278578754485632</v>
       </c>
       <c r="F2">
-        <v>2.967790854891942</v>
+        <v>2.941038645800063</v>
       </c>
       <c r="G2">
-        <v>0.9835462841230982</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1.002654773871888</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.9732319539992447</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -533,31 +530,31 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>4.07531728160366</v>
+        <v>4.07096575336146</v>
       </c>
       <c r="E3">
-        <v>0.9275580328386397</v>
+        <v>0.9277126539122431</v>
       </c>
       <c r="F3">
-        <v>3.017503672947937</v>
+        <v>2.926903305653144</v>
       </c>
       <c r="G3">
-        <v>0.9813327464900389</v>
+        <v>1.001005990107939</v>
       </c>
       <c r="H3">
-        <v>1.003008562549607</v>
+        <v>0.99984348730537</v>
       </c>
       <c r="I3">
-        <v>0.9895343504351979</v>
+        <v>0.9951937591275433</v>
       </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -574,22 +571,22 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4.152282600893971</v>
+        <v>4.09288479667131</v>
       </c>
       <c r="E4">
-        <v>0.9247959568564609</v>
+        <v>0.9269321339347941</v>
       </c>
       <c r="F4">
-        <v>3.04847146811455</v>
+        <v>2.999076226977536</v>
       </c>
       <c r="G4">
-        <v>0.9998659263493312</v>
+        <v>1.006395643320442</v>
       </c>
       <c r="H4">
-        <v>1.000021810494795</v>
+        <v>0.9990022809114795</v>
       </c>
       <c r="I4">
-        <v>0.9996896643621792</v>
+        <v>1.019733702330078</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -598,39 +595,39 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>4.160520161537532</v>
+        <v>4.12304419304728</v>
       </c>
       <c r="E5">
-        <v>0.9244972718077065</v>
+        <v>0.9258513305281925</v>
       </c>
       <c r="F5">
-        <v>2.985997152134566</v>
+        <v>2.970666347279891</v>
       </c>
       <c r="G5">
-        <v>1.001849523564502</v>
+        <v>1.013811509299039</v>
       </c>
       <c r="H5">
-        <v>0.9996988294512374</v>
+        <v>0.9978374436716391</v>
       </c>
       <c r="I5">
-        <v>0.9792023714265116</v>
+        <v>1.010073890569965</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -639,36 +636,39 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6">
-        <v>4.152839387231258</v>
+        <v>4.103640454577532</v>
       </c>
       <c r="E6">
-        <v>0.9247757870389713</v>
+        <v>0.9265476004669694</v>
       </c>
       <c r="F6">
-        <v>3.049417811135951</v>
+        <v>3.002103694240389</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.009040342058767</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.9985878494796842</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>1.020763089436968</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -677,121 +677,121 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>4.196768946665594</v>
+        <v>4.165393150279233</v>
       </c>
       <c r="E7">
-        <v>0.9231758962631387</v>
+        <v>0.924320303835093</v>
       </c>
       <c r="F7">
-        <v>3.024617055253913</v>
+        <v>3.017919434685403</v>
       </c>
       <c r="G7">
-        <v>1.010578198513866</v>
+        <v>1.024224655081218</v>
       </c>
       <c r="H7">
-        <v>0.9982699690041028</v>
+        <v>0.9961873777147604</v>
       </c>
       <c r="I7">
-        <v>0.9918670521987935</v>
+        <v>1.026140693185086</v>
       </c>
       <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
       <c r="M7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>4.167198661186369</v>
+        <v>4.178497785116914</v>
       </c>
       <c r="E8">
-        <v>0.9242546821155059</v>
+        <v>0.923843366934316</v>
       </c>
       <c r="F8">
-        <v>3.082209730650483</v>
+        <v>3.006395134674758</v>
       </c>
       <c r="G8">
-        <v>1.003457700290375</v>
+        <v>1.027446941576717</v>
       </c>
       <c r="H8">
-        <v>0.9994365067395049</v>
+        <v>0.9956733583661114</v>
       </c>
       <c r="I8">
-        <v>1.010753501666705</v>
+        <v>1.022222247561428</v>
       </c>
       <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
       <c r="M8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>4.2018470766169</v>
+        <v>4.217304783606706</v>
       </c>
       <c r="E9">
-        <v>0.9229898680050908</v>
+        <v>0.9224222178031982</v>
       </c>
       <c r="F9">
-        <v>3.028813744277649</v>
+        <v>3.044021345682956</v>
       </c>
       <c r="G9">
-        <v>1.011801007651855</v>
+        <v>1.036989158411706</v>
       </c>
       <c r="H9">
-        <v>0.9980688086140329</v>
+        <v>0.9941417130907714</v>
       </c>
       <c r="I9">
-        <v>0.9932432785094061</v>
+        <v>1.035015758813628</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -800,39 +800,39 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>4.207451292690001</v>
+        <v>4.229740009919215</v>
       </c>
       <c r="E10">
-        <v>0.92278430639248</v>
+        <v>0.921964048621447</v>
       </c>
       <c r="F10">
-        <v>3.085542957521561</v>
+        <v>3.104826519748744</v>
       </c>
       <c r="G10">
-        <v>1.013150497856156</v>
+        <v>1.040046844666348</v>
       </c>
       <c r="H10">
-        <v>0.99784652596402</v>
+        <v>0.9936479206750636</v>
       </c>
       <c r="I10">
-        <v>1.01184657158284</v>
+        <v>1.055690486822598</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -841,92 +841,92 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>4.264407558681083</v>
+        <v>4.244567539877896</v>
       </c>
       <c r="E11">
-        <v>0.9206796189796862</v>
+        <v>0.9214159730891418</v>
       </c>
       <c r="F11">
-        <v>3.07568316831683</v>
+        <v>3.090436548493559</v>
       </c>
       <c r="G11">
-        <v>1.026865515625975</v>
+        <v>1.043692772243825</v>
       </c>
       <c r="H11">
-        <v>0.995570636562187</v>
+        <v>0.9930572315762183</v>
       </c>
       <c r="I11">
-        <v>1.008613236626664</v>
+        <v>1.05079766731622</v>
       </c>
       <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
       <c r="M11">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>4.317595720815743</v>
+        <v>4.231710157102005</v>
       </c>
       <c r="E12">
-        <v>0.9186886199752112</v>
+        <v>0.9218913358235947</v>
       </c>
       <c r="F12">
-        <v>3.185293276908331</v>
+        <v>3.151662567869686</v>
       </c>
       <c r="G12">
-        <v>1.039673177366566</v>
+        <v>1.04053128232828</v>
       </c>
       <c r="H12">
-        <v>0.9934176833465217</v>
+        <v>0.9935695543651186</v>
       </c>
       <c r="I12">
-        <v>1.044557838311361</v>
+        <v>1.071615489436157</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -934,28 +934,28 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>4.327531182157701</v>
+        <v>4.309530072688993</v>
       </c>
       <c r="E13">
-        <v>0.9183139690638566</v>
+        <v>0.9189921298215571</v>
       </c>
       <c r="F13">
-        <v>3.090200947514104</v>
+        <v>3.054232247418289</v>
       </c>
       <c r="G13">
-        <v>1.042065627547159</v>
+        <v>1.059666349133485</v>
       </c>
       <c r="H13">
-        <v>0.9930125571347357</v>
+        <v>0.9904449314258177</v>
       </c>
       <c r="I13">
-        <v>1.013374072988365</v>
+        <v>1.038487628096922</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -964,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -981,22 +981,22 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>4.39768991448378</v>
+        <v>4.330976377836122</v>
       </c>
       <c r="E14">
-        <v>0.915643881175198</v>
+        <v>0.9181838549773491</v>
       </c>
       <c r="F14">
-        <v>3.313363462152663</v>
+        <v>3.228668210369422</v>
       </c>
       <c r="G14">
-        <v>1.058959787369905</v>
+        <v>1.064939761197988</v>
       </c>
       <c r="H14">
-        <v>0.9901252757784537</v>
+        <v>0.989573812189138</v>
       </c>
       <c r="I14">
-        <v>1.086556079672922</v>
+        <v>1.097798634839466</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -1005,39 +1005,39 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>4.438335009985408</v>
+        <v>4.332807094293265</v>
       </c>
       <c r="E15">
-        <v>0.9140773737298867</v>
+        <v>0.918114672508195</v>
       </c>
       <c r="F15">
-        <v>3.318861545832</v>
+        <v>3.126594698179495</v>
       </c>
       <c r="G15">
-        <v>1.068747089914424</v>
+        <v>1.065389914368222</v>
       </c>
       <c r="H15">
-        <v>0.98843134361969</v>
+        <v>0.9894992506954171</v>
       </c>
       <c r="I15">
-        <v>1.088359074218064</v>
+        <v>1.0630920143278</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -1046,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>4.678081480295829</v>
+        <v>4.558396485506175</v>
       </c>
       <c r="E16">
-        <v>0.90454406269179</v>
+        <v>0.9093659103654521</v>
       </c>
       <c r="F16">
-        <v>3.514277121260513</v>
+        <v>3.402084264878097</v>
       </c>
       <c r="G16">
-        <v>1.12647782495021</v>
+        <v>1.120859880363998</v>
       </c>
       <c r="H16">
-        <v>0.9781225626462809</v>
+        <v>0.9800702612195091</v>
       </c>
       <c r="I16">
-        <v>1.152441986935006</v>
+        <v>1.156762856461077</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1098,28 +1098,28 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17">
-        <v>4.691019979925467</v>
+        <v>4.605664454967923</v>
       </c>
       <c r="E17">
-        <v>0.9040153140770982</v>
+        <v>0.9074765173846451</v>
       </c>
       <c r="F17">
-        <v>3.478801075268814</v>
+        <v>3.399068614926005</v>
       </c>
       <c r="G17">
-        <v>1.129593404057223</v>
+        <v>1.132482557497152</v>
       </c>
       <c r="H17">
-        <v>0.9775508039323285</v>
+        <v>0.9780339655423359</v>
       </c>
       <c r="I17">
-        <v>1.140808275784587</v>
+        <v>1.155737487428133</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1145,22 +1145,22 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>4.71885544012809</v>
+        <v>4.709668414119857</v>
       </c>
       <c r="E18">
-        <v>0.902872831298558</v>
+        <v>0.9032506522460411</v>
       </c>
       <c r="F18">
-        <v>3.393553337591822</v>
+        <v>3.334083998722452</v>
       </c>
       <c r="G18">
-        <v>1.136296157909974</v>
+        <v>1.158055994468481</v>
       </c>
       <c r="H18">
-        <v>0.9763153879595571</v>
+        <v>0.9734795340389539</v>
       </c>
       <c r="I18">
-        <v>1.112852861683678</v>
+        <v>1.13364168250005</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -1183,66 +1183,66 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>4.956837926523895</v>
+        <v>4.847758589159921</v>
       </c>
       <c r="E19">
-        <v>0.8928291140704397</v>
+        <v>0.897493984655145</v>
       </c>
       <c r="F19">
-        <v>3.485064941978069</v>
+        <v>3.384110028744807</v>
       </c>
       <c r="G19">
-        <v>1.193602127201137</v>
+        <v>1.192010859423073</v>
       </c>
       <c r="H19">
-        <v>0.9654546827282089</v>
+        <v>0.9672752782545073</v>
       </c>
       <c r="I19">
-        <v>1.142862394667995</v>
+        <v>1.150651329787002</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>4.869156559927571</v>
+        <v>4.827405862685891</v>
       </c>
       <c r="E20">
-        <v>0.8965870659004703</v>
+        <v>0.8983528959906489</v>
       </c>
       <c r="F20">
-        <v>3.71277738741616</v>
+        <v>3.491598530820821</v>
       </c>
       <c r="G20">
-        <v>1.172488532761169</v>
+        <v>1.187006346403353</v>
       </c>
       <c r="H20">
-        <v>0.9695183183496205</v>
+        <v>0.9682009710337907</v>
       </c>
       <c r="I20">
-        <v>1.217536466750385</v>
+        <v>1.187199133138554</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -1251,51 +1251,51 @@
         <v>18</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>4.883853127683587</v>
+        <v>4.930018297915937</v>
       </c>
       <c r="E21">
-        <v>0.8959618615957665</v>
+        <v>0.893985701215376</v>
       </c>
       <c r="F21">
-        <v>3.610865218779938</v>
+        <v>3.419763387629086</v>
       </c>
       <c r="G21">
-        <v>1.176027453096303</v>
+        <v>1.212237622849249</v>
       </c>
       <c r="H21">
-        <v>0.9688422579320942</v>
+        <v>0.9634942213355552</v>
       </c>
       <c r="I21">
-        <v>1.184116261665973</v>
+        <v>1.16277403988304</v>
       </c>
       <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>19</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
       <c r="M21">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1309,22 +1309,22 @@
         <v>19</v>
       </c>
       <c r="D22">
-        <v>4.894672234178867</v>
+        <v>4.847852861486852</v>
       </c>
       <c r="E22">
-        <v>0.895500403632451</v>
+        <v>0.8974899978334524</v>
       </c>
       <c r="F22">
-        <v>3.554431810923025</v>
+        <v>3.579771851378683</v>
       </c>
       <c r="G22">
-        <v>1.178632684237325</v>
+        <v>1.192034039958031</v>
       </c>
       <c r="H22">
-        <v>0.9683432635057878</v>
+        <v>0.9672709814523806</v>
       </c>
       <c r="I22">
-        <v>1.165609972481583</v>
+        <v>1.217179467019503</v>
       </c>
       <c r="J22">
         <v>20</v>
@@ -1333,171 +1333,171 @@
         <v>20</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23">
-        <v>4.979042404636934</v>
+        <v>4.911753431216879</v>
       </c>
       <c r="E23">
-        <v>0.8918668056077873</v>
+        <v>0.894769775440453</v>
       </c>
       <c r="F23">
-        <v>3.530224049824333</v>
+        <v>3.69161386138614</v>
       </c>
       <c r="G23">
-        <v>1.198948945616824</v>
+        <v>1.207746491731483</v>
       </c>
       <c r="H23">
-        <v>0.9644140970250152</v>
+        <v>0.9643392583243268</v>
       </c>
       <c r="I23">
-        <v>1.157671486318654</v>
+        <v>1.255207532433459</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>5.00663175982455</v>
+        <v>4.996098690493799</v>
       </c>
       <c r="E24">
-        <v>0.8906651325506341</v>
+        <v>0.8911246911438629</v>
       </c>
       <c r="F24">
-        <v>3.549002555094219</v>
+        <v>3.524645693601619</v>
       </c>
       <c r="G24">
-        <v>1.20559243760268</v>
+        <v>1.228486069239275</v>
       </c>
       <c r="H24">
-        <v>0.9631146760475252</v>
+        <v>0.9604107641087359</v>
       </c>
       <c r="I24">
-        <v>1.163829548753165</v>
+        <v>1.198435695034125</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25">
-        <v>5.098846061359044</v>
+        <v>4.974049841138294</v>
       </c>
       <c r="E25">
-        <v>0.8866004885225852</v>
+        <v>0.8920835505685721</v>
       </c>
       <c r="F25">
-        <v>3.805966970084104</v>
+        <v>3.736442776535716</v>
       </c>
       <c r="G25">
-        <v>1.227797558710427</v>
+        <v>1.223064498138701</v>
       </c>
       <c r="H25">
-        <v>0.9587194009062249</v>
+        <v>0.9614441760677017</v>
       </c>
       <c r="I25">
-        <v>1.248096261583233</v>
+        <v>1.270450077856517</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>5.17492452353801</v>
+        <v>4.996166236369343</v>
       </c>
       <c r="E26">
-        <v>0.8831912375604011</v>
+        <v>0.8911217471957026</v>
       </c>
       <c r="F26">
-        <v>3.617711088044287</v>
+        <v>3.691656605983178</v>
       </c>
       <c r="G26">
-        <v>1.246117184172679</v>
+        <v>1.228502678031911</v>
       </c>
       <c r="H26">
-        <v>0.9550328305937601</v>
+        <v>0.9604075912648788</v>
       </c>
       <c r="I26">
-        <v>1.186361237490325</v>
+        <v>1.255222066277515</v>
       </c>
       <c r="J26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M26">
         <v>75</v>
@@ -1505,43 +1505,43 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>5.124926801993468</v>
+        <v>5.186780276647413</v>
       </c>
       <c r="E27">
-        <v>0.8854374382286296</v>
+        <v>0.8826554066725477</v>
       </c>
       <c r="F27">
-        <v>3.908992121792824</v>
+        <v>3.555838496752896</v>
       </c>
       <c r="G27">
-        <v>1.234077777664865</v>
+        <v>1.275372587453151</v>
       </c>
       <c r="H27">
-        <v>0.9574617443907147</v>
+        <v>0.9512829820470481</v>
       </c>
       <c r="I27">
-        <v>1.281881448818806</v>
+        <v>1.209041745109604</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1549,40 +1549,40 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>5.197996883724705</v>
+        <v>5.151740253518248</v>
       </c>
       <c r="E28">
-        <v>0.8821473337253476</v>
+        <v>0.8842355270048802</v>
       </c>
       <c r="F28">
-        <v>3.803372830831468</v>
+        <v>3.700606302565736</v>
       </c>
       <c r="G28">
-        <v>1.251672987813349</v>
+        <v>1.266756628692788</v>
       </c>
       <c r="H28">
-        <v>0.953904012290249</v>
+        <v>0.9529859587357662</v>
       </c>
       <c r="I28">
-        <v>1.247245561740409</v>
+        <v>1.258265105713714</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>5.755550263531827</v>
+        <v>5.570167565859372</v>
       </c>
       <c r="E29">
-        <v>0.8555089041910415</v>
+        <v>0.864666939587929</v>
       </c>
       <c r="F29">
-        <v>4.312629298413713</v>
+        <v>4.149393590972</v>
       </c>
       <c r="G29">
-        <v>1.385931341633011</v>
+        <v>1.369643332107667</v>
       </c>
       <c r="H29">
-        <v>0.9250987279092647</v>
+        <v>0.9318958888718972</v>
       </c>
       <c r="I29">
-        <v>1.414246772831433</v>
+        <v>1.410859934430825</v>
       </c>
       <c r="J29">
         <v>28</v>
@@ -1637,22 +1637,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>6.752378261363642</v>
+        <v>6.706326764054309</v>
       </c>
       <c r="E30">
-        <v>0.8011246720433273</v>
+        <v>0.8038280975864928</v>
       </c>
       <c r="F30">
-        <v>4.51606595336953</v>
+        <v>4.342623389758328</v>
       </c>
       <c r="G30">
-        <v>1.625966629512615</v>
+        <v>1.649012462680745</v>
       </c>
       <c r="H30">
-        <v>0.8662907088089308</v>
+        <v>0.8663267498784665</v>
       </c>
       <c r="I30">
-        <v>1.480960049776594</v>
+        <v>1.476561144805014</v>
       </c>
       <c r="J30">
         <v>29</v>
@@ -1675,25 +1675,25 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>12.39538851416998</v>
+        <v>12.58271153427881</v>
       </c>
       <c r="E31">
-        <v>0.3298258534271359</v>
+        <v>0.309417031580256</v>
       </c>
       <c r="F31">
-        <v>9.619504654682052</v>
+        <v>9.727956456175566</v>
       </c>
       <c r="G31">
-        <v>2.984798437493659</v>
+        <v>3.093951258915198</v>
       </c>
       <c r="H31">
-        <v>0.3566549406350715</v>
+        <v>0.333474597530006</v>
       </c>
       <c r="I31">
-        <v>3.154538095617225</v>
+        <v>3.307660193471966</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -1719,22 +1719,22 @@
         <v>14</v>
       </c>
       <c r="D32">
-        <v>12.50099752799275</v>
+        <v>12.58580364171804</v>
       </c>
       <c r="E32">
-        <v>0.31835740464239</v>
+        <v>0.3090775786567386</v>
       </c>
       <c r="F32">
-        <v>9.774583482380487</v>
+        <v>9.830652342169691</v>
       </c>
       <c r="G32">
-        <v>3.010228993307468</v>
+        <v>3.094711574343096</v>
       </c>
       <c r="H32">
-        <v>0.3442536116367567</v>
+        <v>0.333108751711913</v>
       </c>
       <c r="I32">
-        <v>3.205393320221776</v>
+        <v>3.342578430993523</v>
       </c>
       <c r="J32">
         <v>31</v>
@@ -1743,48 +1743,48 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>12.55646099436263</v>
+        <v>12.71525258329916</v>
       </c>
       <c r="E33">
-        <v>0.3122954677388778</v>
+        <v>0.2947917795581403</v>
       </c>
       <c r="F33">
-        <v>9.796356580888492</v>
+        <v>9.817464714605091</v>
       </c>
       <c r="G33">
-        <v>3.023584546267308</v>
+        <v>3.126541654423932</v>
       </c>
       <c r="H33">
-        <v>0.3376985774452562</v>
+        <v>0.3177122136465418</v>
       </c>
       <c r="I33">
-        <v>3.212533403954642</v>
+        <v>3.338094427499236</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M33">
         <v>97</v>
@@ -1792,40 +1792,40 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>12.57311409995578</v>
+        <v>12.70582845181877</v>
       </c>
       <c r="E34">
-        <v>0.3104701109561814</v>
+        <v>0.2958367469399165</v>
       </c>
       <c r="F34">
-        <v>9.784225974509884</v>
+        <v>9.899427287037449</v>
       </c>
       <c r="G34">
-        <v>3.027594599158916</v>
+        <v>3.124224363482427</v>
       </c>
       <c r="H34">
-        <v>0.3357247403181607</v>
+        <v>0.3188384285652555</v>
       </c>
       <c r="I34">
-        <v>3.208555396633274</v>
+        <v>3.36596300805985</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M34">
         <v>98</v>
@@ -1833,31 +1833,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>12.57909065049845</v>
+        <v>12.71835872220498</v>
       </c>
       <c r="E35">
-        <v>0.3098144277820845</v>
+        <v>0.2944471946235737</v>
       </c>
       <c r="F35">
-        <v>9.934243916442325</v>
+        <v>9.907090500524694</v>
       </c>
       <c r="G35">
-        <v>3.029033747169563</v>
+        <v>3.127305420036125</v>
       </c>
       <c r="H35">
-        <v>0.3350157217827638</v>
+        <v>0.3173408367970432</v>
       </c>
       <c r="I35">
-        <v>3.257750997637703</v>
+        <v>3.368568622745733</v>
       </c>
       <c r="J35">
         <v>34</v>
@@ -1866,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1880,78 +1880,78 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>12.59114861355244</v>
+        <v>12.74425207656159</v>
       </c>
       <c r="E36">
-        <v>0.3084906085823423</v>
+        <v>0.2915713949547056</v>
       </c>
       <c r="F36">
-        <v>9.805967494790943</v>
+        <v>9.892308082006348</v>
       </c>
       <c r="G36">
-        <v>3.031937293858864</v>
+        <v>3.133672312902651</v>
       </c>
       <c r="H36">
-        <v>0.3335842189057466</v>
+        <v>0.3142414400629498</v>
       </c>
       <c r="I36">
-        <v>3.215685124872437</v>
+        <v>3.363542364916902</v>
       </c>
       <c r="J36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>12.59771956481604</v>
+        <v>12.72993633610701</v>
       </c>
       <c r="E37">
-        <v>0.3077686633005801</v>
+        <v>0.2931620703205653</v>
       </c>
       <c r="F37">
-        <v>9.838858868306174</v>
+        <v>10.03242016471232</v>
       </c>
       <c r="G37">
-        <v>3.033519573030027</v>
+        <v>3.130152228771256</v>
       </c>
       <c r="H37">
-        <v>0.3328035482914414</v>
+        <v>0.3159557924524153</v>
       </c>
       <c r="I37">
-        <v>3.226471240633654</v>
+        <v>3.411182705483679</v>
       </c>
       <c r="J37">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="L37">
         <v>36</v>
       </c>
-      <c r="K37">
-        <v>36</v>
-      </c>
-      <c r="L37">
-        <v>35</v>
-      </c>
       <c r="M37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1965,22 +1965,22 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>12.92591001357687</v>
+        <v>13.0554014419092</v>
       </c>
       <c r="E38">
-        <v>0.2712314219788479</v>
+        <v>0.2565567138149244</v>
       </c>
       <c r="F38">
-        <v>10.04118657586956</v>
+        <v>10.08357585512007</v>
       </c>
       <c r="G38">
-        <v>3.1125475387563</v>
+        <v>3.210180541515004</v>
       </c>
       <c r="H38">
-        <v>0.2932942511906594</v>
+        <v>0.2765043231334268</v>
       </c>
       <c r="I38">
-        <v>3.292820858854063</v>
+        <v>3.428576455300875</v>
       </c>
       <c r="J38">
         <v>37</v>
